--- a/复成6600项目通讯接口数据表V1.0.xlsx
+++ b/复成6600项目通讯接口数据表V1.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\60232\Desktop\Rehand6600\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7A54172-DAD7-474D-A874-18F63687BEB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6581C888-8405-4E31-92BD-5B51E41CA731}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30" yWindow="1110" windowWidth="28770" windowHeight="15090" xr2:uid="{D90371CC-6FC8-423E-8360-AE94A910F611}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="699" uniqueCount="278">
   <si>
     <t>编号</t>
   </si>
@@ -497,10 +497,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>寄存器默认值：0 ；脉冲触发（按下松手后才发1，而后发0）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>0x007A</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -984,15 +980,38 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>UI/移动端 预留指令</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>主从通讯错误</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>开机通讯握手先读取从设备ID，若非0x68，主从通讯错误 ErrorID + Master Error 详见 表3《RehandR9_Error-Codes》</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>移动端照明灯指令</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>int16； 0：关闭 2：打开</t>
+  </si>
+  <si>
+    <t>移动端蓝牙相关，寄存器默认值：0 ；脉冲触发（按下松手后才发1，而后发0）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>127A</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>127B</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chassis motor</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ErrorID+Chassis motor Error</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1455,6 +1474,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1470,6 +1504,21 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1482,12 +1531,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1498,15 +1541,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1545,28 +1579,22 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1580,15 +1608,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1904,10 +1923,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB0936CE-2BB3-46F3-BCDA-EC05AB030230}">
-  <dimension ref="A1:F258"/>
+  <dimension ref="A1:F263"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A187" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E187" sqref="E187"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7:E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1915,189 +1934,189 @@
     <col min="1" max="1" width="15.125" style="3" customWidth="1"/>
     <col min="2" max="2" width="14.875" customWidth="1"/>
     <col min="3" max="3" width="18.125" customWidth="1"/>
-    <col min="4" max="4" width="24.25" customWidth="1"/>
+    <col min="4" max="4" width="31.5" customWidth="1"/>
     <col min="5" max="5" width="67.75" customWidth="1"/>
     <col min="6" max="6" width="65.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="30" x14ac:dyDescent="0.2">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="29" t="s">
         <v>109</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="26"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="31"/>
     </row>
     <row r="2" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="40" t="s">
+      <c r="C2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="40" t="s">
+      <c r="D2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="40" t="s">
+      <c r="E2" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="F2" s="41" t="s">
+      <c r="F2" s="8" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="6">
+      <c r="A3" s="11">
         <v>0</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="F3" s="8" t="s">
-        <v>272</v>
+      <c r="F3" s="13" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="6"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="8"/>
+      <c r="A4" s="11"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="13"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="6">
+      <c r="A5" s="11">
         <v>1</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="F5" s="8" t="s">
-        <v>163</v>
+      <c r="F5" s="13" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="6"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="8"/>
+      <c r="A6" s="11"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="13"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="6">
+      <c r="A7" s="11">
         <v>2</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="F7" s="13" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="6"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="8"/>
+      <c r="A8" s="11"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="13"/>
     </row>
     <row r="9" spans="1:6" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="6">
+      <c r="A9" s="11">
         <v>3</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="F9" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="E9" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>162</v>
-      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="6"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="8"/>
+      <c r="A10" s="11"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="13"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="6">
+      <c r="A11" s="11">
         <v>4</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="E11" s="9" t="s">
+      <c r="E11" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="F11" s="8" t="s">
+      <c r="F11" s="13" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="6"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="11"/>
+      <c r="A12" s="11"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="21"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="12">
+      <c r="A13" s="22">
         <v>5</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="14" t="s">
         <v>13</v>
       </c>
       <c r="D13" s="1" t="s">
@@ -2106,2186 +2125,2190 @@
       <c r="E13" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="F13" s="16" t="s">
-        <v>149</v>
+      <c r="F13" s="18" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="13"/>
-      <c r="B14" s="22"/>
-      <c r="C14" s="22"/>
+      <c r="A14" s="23"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="17"/>
       <c r="D14" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="F14" s="23"/>
+      <c r="F14" s="19"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="13"/>
-      <c r="B15" s="22"/>
-      <c r="C15" s="22"/>
+      <c r="A15" s="23"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="17"/>
       <c r="D15" s="1" t="s">
         <v>89</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F15" s="23"/>
+      <c r="F15" s="19"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="13"/>
-      <c r="B16" s="22"/>
-      <c r="C16" s="22"/>
+      <c r="A16" s="23"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="17"/>
       <c r="D16" s="1" t="s">
         <v>90</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F16" s="23"/>
+      <c r="F16" s="19"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="13"/>
-      <c r="B17" s="22"/>
-      <c r="C17" s="22"/>
+      <c r="A17" s="23"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="17"/>
       <c r="D17" s="1" t="s">
         <v>91</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F17" s="23"/>
+      <c r="F17" s="19"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="13"/>
-      <c r="B18" s="22"/>
-      <c r="C18" s="22"/>
+      <c r="A18" s="23"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="17"/>
       <c r="D18" s="1" t="s">
         <v>92</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F18" s="23"/>
+      <c r="F18" s="19"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="13"/>
-      <c r="B19" s="22"/>
-      <c r="C19" s="22"/>
+      <c r="A19" s="23"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="17"/>
       <c r="D19" s="1" t="s">
         <v>93</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F19" s="23"/>
+      <c r="F19" s="19"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="13"/>
-      <c r="B20" s="22"/>
-      <c r="C20" s="22"/>
+      <c r="A20" s="23"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="17"/>
       <c r="D20" s="1" t="s">
         <v>94</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F20" s="23"/>
+      <c r="F20" s="19"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="13"/>
-      <c r="B21" s="22"/>
-      <c r="C21" s="22"/>
+      <c r="A21" s="23"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="17"/>
       <c r="D21" s="1" t="s">
         <v>96</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F21" s="23"/>
+      <c r="F21" s="19"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="14"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
+      <c r="A22" s="24"/>
+      <c r="B22" s="15"/>
+      <c r="C22" s="15"/>
       <c r="D22" s="1" t="s">
         <v>97</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F22" s="21"/>
+      <c r="F22" s="20"/>
     </row>
     <row r="23" spans="1:6" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="6">
+      <c r="A23" s="11">
         <v>6</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C23" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="D23" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="E23" s="9" t="s">
+      <c r="E23" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="F23" s="15" t="s">
+      <c r="F23" s="16" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="6"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="15"/>
+      <c r="A24" s="11"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="16"/>
     </row>
     <row r="25" spans="1:6" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="6">
+      <c r="A25" s="11">
         <v>7</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="B25" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="C25" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="D25" s="7" t="s">
+      <c r="D25" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="E25" s="9" t="s">
+      <c r="E25" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="F25" s="15" t="s">
+      <c r="F25" s="16" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="6"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="15"/>
+      <c r="A26" s="11"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="16"/>
     </row>
     <row r="27" spans="1:6" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="6">
+      <c r="A27" s="11">
         <v>8</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C27" s="7" t="s">
+      <c r="C27" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="D27" s="7" t="s">
+      <c r="D27" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="E27" s="9" t="s">
+      <c r="E27" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="F27" s="15" t="s">
+      <c r="F27" s="16" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="6"/>
-      <c r="B28" s="7"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="15"/>
+      <c r="A28" s="11"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="16"/>
     </row>
     <row r="29" spans="1:6" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="6">
+      <c r="A29" s="11">
         <v>9</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="B29" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C29" s="7" t="s">
+      <c r="C29" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="D29" s="7" t="s">
+      <c r="D29" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="E29" s="9" t="s">
+      <c r="E29" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="F29" s="15" t="s">
+      <c r="F29" s="16" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" s="6"/>
-      <c r="B30" s="7"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="15"/>
+      <c r="A30" s="11"/>
+      <c r="B30" s="12"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="16"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" s="6">
+      <c r="A31" s="11">
         <v>10</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="B31" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C31" s="7" t="s">
+      <c r="C31" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="D31" s="7" t="s">
+      <c r="D31" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E31" s="9" t="s">
+      <c r="E31" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="F31" s="8" t="s">
+      <c r="F31" s="13" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" s="11"/>
+      <c r="B32" s="12"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="13"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" s="11">
+        <v>11</v>
+      </c>
+      <c r="B33" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D33" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E33" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="F33" s="13" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" s="11"/>
+      <c r="B34" s="12"/>
+      <c r="C34" s="12"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="13"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" s="11">
+        <v>12</v>
+      </c>
+      <c r="B35" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C35" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D35" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="E35" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="F35" s="13" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" s="11"/>
+      <c r="B36" s="12"/>
+      <c r="C36" s="12"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="15"/>
+      <c r="F36" s="13"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" s="11">
+        <v>13</v>
+      </c>
+      <c r="B37" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C37" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D37" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="E37" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="F37" s="13" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" s="11"/>
+      <c r="B38" s="12"/>
+      <c r="C38" s="12"/>
+      <c r="D38" s="12"/>
+      <c r="E38" s="15"/>
+      <c r="F38" s="13"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39" s="11">
+        <v>14</v>
+      </c>
+      <c r="B39" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C39" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D39" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="E39" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="F39" s="13" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40" s="11"/>
+      <c r="B40" s="12"/>
+      <c r="C40" s="12"/>
+      <c r="D40" s="12"/>
+      <c r="E40" s="15"/>
+      <c r="F40" s="13"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41" s="11">
+        <v>15</v>
+      </c>
+      <c r="B41" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C41" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D41" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="E41" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="F41" s="13" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42" s="11"/>
+      <c r="B42" s="12"/>
+      <c r="C42" s="12"/>
+      <c r="D42" s="12"/>
+      <c r="E42" s="15"/>
+      <c r="F42" s="13"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43" s="11">
+        <v>16</v>
+      </c>
+      <c r="B43" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C43" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D43" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E43" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="F43" s="13" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44" s="11"/>
+      <c r="B44" s="12"/>
+      <c r="C44" s="12"/>
+      <c r="D44" s="12"/>
+      <c r="E44" s="15"/>
+      <c r="F44" s="13"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A45" s="11">
+        <v>17</v>
+      </c>
+      <c r="B45" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C45" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D45" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="E45" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="F45" s="13" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A46" s="11"/>
+      <c r="B46" s="12"/>
+      <c r="C46" s="12"/>
+      <c r="D46" s="12"/>
+      <c r="E46" s="15"/>
+      <c r="F46" s="13"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A47" s="11">
+        <v>18</v>
+      </c>
+      <c r="B47" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C47" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D47" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="E47" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="F47" s="13" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A48" s="11"/>
+      <c r="B48" s="12"/>
+      <c r="C48" s="12"/>
+      <c r="D48" s="12"/>
+      <c r="E48" s="15"/>
+      <c r="F48" s="13"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A49" s="11">
+        <v>19</v>
+      </c>
+      <c r="B49" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C49" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="D49" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E49" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="F49" s="13" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A50" s="11"/>
+      <c r="B50" s="12"/>
+      <c r="C50" s="12"/>
+      <c r="D50" s="12"/>
+      <c r="E50" s="15"/>
+      <c r="F50" s="13"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A51" s="11">
+        <v>20</v>
+      </c>
+      <c r="B51" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C51" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D51" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="E51" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="F51" s="13" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A52" s="11"/>
+      <c r="B52" s="12"/>
+      <c r="C52" s="12"/>
+      <c r="D52" s="15"/>
+      <c r="E52" s="15"/>
+      <c r="F52" s="13"/>
+    </row>
+    <row r="53" spans="1:6" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="11">
+        <v>21</v>
+      </c>
+      <c r="B53" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C53" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D53" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="E53" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="F53" s="16" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="2.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="11"/>
+      <c r="B54" s="12"/>
+      <c r="C54" s="12"/>
+      <c r="D54" s="15"/>
+      <c r="E54" s="15"/>
+      <c r="F54" s="16"/>
+    </row>
+    <row r="55" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="11">
+        <v>22</v>
+      </c>
+      <c r="B55" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C55" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="D55" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="E55" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="F55" s="16" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A56" s="11"/>
+      <c r="B56" s="12"/>
+      <c r="C56" s="12"/>
+      <c r="D56" s="15"/>
+      <c r="E56" s="15"/>
+      <c r="F56" s="16"/>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A57" s="11">
+        <v>23</v>
+      </c>
+      <c r="B57" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C57" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D57" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="E57" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="F57" s="16" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A58" s="11"/>
+      <c r="B58" s="12"/>
+      <c r="C58" s="12"/>
+      <c r="D58" s="15"/>
+      <c r="E58" s="15"/>
+      <c r="F58" s="16"/>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A59" s="11">
+        <v>24</v>
+      </c>
+      <c r="B59" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C59" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="D59" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="E59" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="F59" s="16" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A60" s="11"/>
+      <c r="B60" s="12"/>
+      <c r="C60" s="12"/>
+      <c r="D60" s="15"/>
+      <c r="E60" s="15"/>
+      <c r="F60" s="16"/>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A61" s="11">
+        <v>25</v>
+      </c>
+      <c r="B61" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C61" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="D61" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="E61" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="F61" s="16" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A62" s="11"/>
+      <c r="B62" s="12"/>
+      <c r="C62" s="12"/>
+      <c r="D62" s="15"/>
+      <c r="E62" s="15"/>
+      <c r="F62" s="16"/>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A63" s="11">
+        <v>26</v>
+      </c>
+      <c r="B63" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C63" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="D63" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="E63" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="F63" s="16" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A64" s="11"/>
+      <c r="B64" s="12"/>
+      <c r="C64" s="12"/>
+      <c r="D64" s="15"/>
+      <c r="E64" s="15"/>
+      <c r="F64" s="16"/>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A65" s="11">
+        <v>27</v>
+      </c>
+      <c r="B65" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C65" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D65" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="E65" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="F65" s="16" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A66" s="11"/>
+      <c r="B66" s="12"/>
+      <c r="C66" s="12"/>
+      <c r="D66" s="15"/>
+      <c r="E66" s="15"/>
+      <c r="F66" s="16"/>
+    </row>
+    <row r="67" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="11">
+        <v>28</v>
+      </c>
+      <c r="B67" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C67" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="D67" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="E67" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="F67" s="16" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A68" s="11"/>
+      <c r="B68" s="12"/>
+      <c r="C68" s="12"/>
+      <c r="D68" s="15"/>
+      <c r="E68" s="15"/>
+      <c r="F68" s="16"/>
+    </row>
+    <row r="69" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="11">
+        <v>29</v>
+      </c>
+      <c r="B69" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C69" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D69" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="E69" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="F69" s="16" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A70" s="11"/>
+      <c r="B70" s="12"/>
+      <c r="C70" s="12"/>
+      <c r="D70" s="15"/>
+      <c r="E70" s="15"/>
+      <c r="F70" s="16"/>
+    </row>
+    <row r="71" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="11">
+        <v>30</v>
+      </c>
+      <c r="B71" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C71" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="D71" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="E71" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="F71" s="16" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A72" s="11"/>
+      <c r="B72" s="12"/>
+      <c r="C72" s="12"/>
+      <c r="D72" s="15"/>
+      <c r="E72" s="15"/>
+      <c r="F72" s="16"/>
+    </row>
+    <row r="73" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="11">
+        <v>31</v>
+      </c>
+      <c r="B73" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C73" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D73" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="E73" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="F73" s="16" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A74" s="11"/>
+      <c r="B74" s="12"/>
+      <c r="C74" s="12"/>
+      <c r="D74" s="15"/>
+      <c r="E74" s="15"/>
+      <c r="F74" s="16"/>
+    </row>
+    <row r="75" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="11">
+        <v>32</v>
+      </c>
+      <c r="B75" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C75" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="D75" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="E75" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="F75" s="16" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A76" s="11"/>
+      <c r="B76" s="12"/>
+      <c r="C76" s="12"/>
+      <c r="D76" s="15"/>
+      <c r="E76" s="15"/>
+      <c r="F76" s="16"/>
+    </row>
+    <row r="77" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="11">
+        <v>33</v>
+      </c>
+      <c r="B77" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C77" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D77" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="E77" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="F77" s="13" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A78" s="11"/>
+      <c r="B78" s="12"/>
+      <c r="C78" s="12"/>
+      <c r="D78" s="15"/>
+      <c r="E78" s="15"/>
+      <c r="F78" s="13"/>
+    </row>
+    <row r="79" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="11">
+        <v>34</v>
+      </c>
+      <c r="B79" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C79" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D79" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="E79" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="F79" s="13" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A80" s="11"/>
+      <c r="B80" s="12"/>
+      <c r="C80" s="12"/>
+      <c r="D80" s="15"/>
+      <c r="E80" s="15"/>
+      <c r="F80" s="13"/>
+    </row>
+    <row r="81" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="11">
+        <v>35</v>
+      </c>
+      <c r="B81" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C81" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="D81" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="E81" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="F81" s="14" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32" s="6"/>
-      <c r="B32" s="7"/>
-      <c r="C32" s="7"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="8"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" s="6">
-        <v>11</v>
-      </c>
-      <c r="B33" s="7" t="s">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A82" s="11"/>
+      <c r="B82" s="12"/>
+      <c r="C82" s="12"/>
+      <c r="D82" s="15"/>
+      <c r="E82" s="15"/>
+      <c r="F82" s="15"/>
+    </row>
+    <row r="83" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="11">
+        <v>36</v>
+      </c>
+      <c r="B83" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C33" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D33" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E33" s="9" t="s">
+      <c r="C83" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D83" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="E83" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="F83" s="18" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A84" s="11"/>
+      <c r="B84" s="12"/>
+      <c r="C84" s="12"/>
+      <c r="D84" s="15"/>
+      <c r="E84" s="15"/>
+      <c r="F84" s="25"/>
+    </row>
+    <row r="85" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="11">
+        <v>37</v>
+      </c>
+      <c r="B85" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C85" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="D85" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="E85" s="14" t="s">
+        <v>255</v>
+      </c>
+      <c r="F85" s="18"/>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A86" s="11"/>
+      <c r="B86" s="12"/>
+      <c r="C86" s="12"/>
+      <c r="D86" s="15"/>
+      <c r="E86" s="15"/>
+      <c r="F86" s="25"/>
+    </row>
+    <row r="87" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="11">
+        <v>38</v>
+      </c>
+      <c r="B87" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C87" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="D87" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="E87" s="14"/>
+      <c r="F87" s="18"/>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A88" s="11"/>
+      <c r="B88" s="12"/>
+      <c r="C88" s="12"/>
+      <c r="D88" s="15"/>
+      <c r="E88" s="15"/>
+      <c r="F88" s="25"/>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A89" s="11">
+        <v>39</v>
+      </c>
+      <c r="B89" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C89" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="D89" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="E89" s="14"/>
+      <c r="F89" s="18"/>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A90" s="11"/>
+      <c r="B90" s="12"/>
+      <c r="C90" s="12"/>
+      <c r="D90" s="15"/>
+      <c r="E90" s="15"/>
+      <c r="F90" s="25"/>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A91" s="11">
+        <v>40</v>
+      </c>
+      <c r="B91" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C91" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="D91" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="E91" s="14"/>
+      <c r="F91" s="18"/>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A92" s="11"/>
+      <c r="B92" s="12"/>
+      <c r="C92" s="12"/>
+      <c r="D92" s="15"/>
+      <c r="E92" s="15"/>
+      <c r="F92" s="25"/>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A93" s="11">
+        <v>41</v>
+      </c>
+      <c r="B93" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C93" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="D93" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="E93" s="14"/>
+      <c r="F93" s="18"/>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A94" s="11"/>
+      <c r="B94" s="12"/>
+      <c r="C94" s="12"/>
+      <c r="D94" s="15"/>
+      <c r="E94" s="15"/>
+      <c r="F94" s="25"/>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A95" s="11">
+        <v>42</v>
+      </c>
+      <c r="B95" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C95" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="D95" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="E95" s="14"/>
+      <c r="F95" s="28"/>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A96" s="11"/>
+      <c r="B96" s="12"/>
+      <c r="C96" s="12"/>
+      <c r="D96" s="15"/>
+      <c r="E96" s="15"/>
+      <c r="F96" s="20"/>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A97" s="11">
+        <v>43</v>
+      </c>
+      <c r="B97" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C97" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D97" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="E97" s="14"/>
+      <c r="F97" s="26"/>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A98" s="11"/>
+      <c r="B98" s="12"/>
+      <c r="C98" s="12"/>
+      <c r="D98" s="15"/>
+      <c r="E98" s="15"/>
+      <c r="F98" s="27"/>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A99" s="11">
+        <v>44</v>
+      </c>
+      <c r="B99" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C99" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D99" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="E99" s="14"/>
+      <c r="F99" s="26"/>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A100" s="11"/>
+      <c r="B100" s="12"/>
+      <c r="C100" s="12"/>
+      <c r="D100" s="15"/>
+      <c r="E100" s="15"/>
+      <c r="F100" s="27"/>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A101" s="11">
+        <v>45</v>
+      </c>
+      <c r="B101" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C101" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="D101" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="E101" s="14"/>
+      <c r="F101" s="26"/>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A102" s="11"/>
+      <c r="B102" s="12"/>
+      <c r="C102" s="12"/>
+      <c r="D102" s="15"/>
+      <c r="E102" s="15"/>
+      <c r="F102" s="27"/>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A103" s="11">
+        <v>46</v>
+      </c>
+      <c r="B103" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C103" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="D103" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="E103" s="14"/>
+      <c r="F103" s="26"/>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A104" s="11"/>
+      <c r="B104" s="12"/>
+      <c r="C104" s="12"/>
+      <c r="D104" s="15"/>
+      <c r="E104" s="15"/>
+      <c r="F104" s="27"/>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A105" s="11">
+        <v>47</v>
+      </c>
+      <c r="B105" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C105" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="D105" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="E105" s="14"/>
+      <c r="F105" s="26"/>
+    </row>
+    <row r="106" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="11"/>
+      <c r="B106" s="12"/>
+      <c r="C106" s="12"/>
+      <c r="D106" s="15"/>
+      <c r="E106" s="15"/>
+      <c r="F106" s="27"/>
+    </row>
+    <row r="107" spans="1:6" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="29" t="s">
+        <v>254</v>
+      </c>
+      <c r="B107" s="30"/>
+      <c r="C107" s="30"/>
+      <c r="D107" s="30"/>
+      <c r="E107" s="30"/>
+      <c r="F107" s="31"/>
+    </row>
+    <row r="108" spans="1:6" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B108" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C108" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D108" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E108" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F108" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A109" s="32">
+        <v>96</v>
+      </c>
+      <c r="B109" s="35" t="s">
+        <v>110</v>
+      </c>
+      <c r="C109" s="32" t="s">
+        <v>155</v>
+      </c>
+      <c r="D109" s="35" t="s">
+        <v>164</v>
+      </c>
+      <c r="E109" s="35" t="s">
+        <v>163</v>
+      </c>
+      <c r="F109" s="35" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A110" s="33"/>
+      <c r="B110" s="36"/>
+      <c r="C110" s="33"/>
+      <c r="D110" s="36"/>
+      <c r="E110" s="36"/>
+      <c r="F110" s="36"/>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A111" s="33"/>
+      <c r="B111" s="36"/>
+      <c r="C111" s="33"/>
+      <c r="D111" s="36"/>
+      <c r="E111" s="36"/>
+      <c r="F111" s="36"/>
+    </row>
+    <row r="112" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="34"/>
+      <c r="B112" s="37"/>
+      <c r="C112" s="34"/>
+      <c r="D112" s="37"/>
+      <c r="E112" s="37"/>
+      <c r="F112" s="37"/>
+    </row>
+    <row r="113" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A113" s="32">
+        <v>97</v>
+      </c>
+      <c r="B113" s="35" t="s">
+        <v>110</v>
+      </c>
+      <c r="C113" s="32" t="s">
+        <v>111</v>
+      </c>
+      <c r="D113" s="35" t="s">
+        <v>191</v>
+      </c>
+      <c r="E113" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="F113" s="35" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="34"/>
+      <c r="B114" s="37"/>
+      <c r="C114" s="34"/>
+      <c r="D114" s="37"/>
+      <c r="E114" s="15"/>
+      <c r="F114" s="37"/>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A115" s="32">
+        <v>98</v>
+      </c>
+      <c r="B115" s="35" t="s">
+        <v>110</v>
+      </c>
+      <c r="C115" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="D115" s="32" t="s">
+        <v>173</v>
+      </c>
+      <c r="E115" s="32" t="s">
+        <v>170</v>
+      </c>
+      <c r="F115" s="35" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="34"/>
+      <c r="B116" s="37"/>
+      <c r="C116" s="34"/>
+      <c r="D116" s="34"/>
+      <c r="E116" s="34"/>
+      <c r="F116" s="37"/>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A117" s="32">
+        <v>99</v>
+      </c>
+      <c r="B117" s="35" t="s">
+        <v>110</v>
+      </c>
+      <c r="C117" s="32" t="s">
+        <v>113</v>
+      </c>
+      <c r="D117" s="32" t="s">
+        <v>174</v>
+      </c>
+      <c r="E117" s="32" t="s">
+        <v>171</v>
+      </c>
+      <c r="F117" s="35" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="34"/>
+      <c r="B118" s="37"/>
+      <c r="C118" s="34"/>
+      <c r="D118" s="34"/>
+      <c r="E118" s="34"/>
+      <c r="F118" s="37"/>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A119" s="32">
         <v>100</v>
       </c>
-      <c r="F33" s="8" t="s">
+      <c r="B119" s="35" t="s">
+        <v>110</v>
+      </c>
+      <c r="C119" s="32" t="s">
+        <v>114</v>
+      </c>
+      <c r="D119" s="32" t="s">
+        <v>175</v>
+      </c>
+      <c r="E119" s="32" t="s">
+        <v>172</v>
+      </c>
+      <c r="F119" s="35" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="34"/>
+      <c r="B120" s="37"/>
+      <c r="C120" s="34"/>
+      <c r="D120" s="34"/>
+      <c r="E120" s="34"/>
+      <c r="F120" s="37"/>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A121" s="32">
         <v>101</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" s="6"/>
-      <c r="B34" s="7"/>
-      <c r="C34" s="7"/>
-      <c r="D34" s="7"/>
-      <c r="E34" s="10"/>
-      <c r="F34" s="8"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" s="6">
-        <v>12</v>
-      </c>
-      <c r="B35" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C35" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D35" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="E35" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="F35" s="8" t="s">
+      <c r="B121" s="35" t="s">
+        <v>110</v>
+      </c>
+      <c r="C121" s="32" t="s">
+        <v>115</v>
+      </c>
+      <c r="D121" s="32" t="s">
+        <v>180</v>
+      </c>
+      <c r="E121" s="32" t="s">
+        <v>182</v>
+      </c>
+      <c r="F121" s="35" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="34"/>
+      <c r="B122" s="37"/>
+      <c r="C122" s="34"/>
+      <c r="D122" s="34"/>
+      <c r="E122" s="34"/>
+      <c r="F122" s="37"/>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A123" s="32">
+        <v>102</v>
+      </c>
+      <c r="B123" s="35" t="s">
+        <v>110</v>
+      </c>
+      <c r="C123" s="32" t="s">
+        <v>116</v>
+      </c>
+      <c r="D123" s="32" t="s">
+        <v>176</v>
+      </c>
+      <c r="E123" s="38" t="s">
+        <v>178</v>
+      </c>
+      <c r="F123" s="35" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="34"/>
+      <c r="B124" s="37"/>
+      <c r="C124" s="34"/>
+      <c r="D124" s="34"/>
+      <c r="E124" s="39"/>
+      <c r="F124" s="37"/>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A125" s="32">
+        <v>103</v>
+      </c>
+      <c r="B125" s="35" t="s">
+        <v>110</v>
+      </c>
+      <c r="C125" s="32" t="s">
+        <v>117</v>
+      </c>
+      <c r="D125" s="32" t="s">
+        <v>177</v>
+      </c>
+      <c r="E125" s="38" t="s">
+        <v>179</v>
+      </c>
+      <c r="F125" s="35" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="34"/>
+      <c r="B126" s="37"/>
+      <c r="C126" s="34"/>
+      <c r="D126" s="34"/>
+      <c r="E126" s="39"/>
+      <c r="F126" s="37"/>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A127" s="32">
+        <v>104</v>
+      </c>
+      <c r="B127" s="35" t="s">
+        <v>110</v>
+      </c>
+      <c r="C127" s="32" t="s">
+        <v>118</v>
+      </c>
+      <c r="D127" s="32" t="s">
+        <v>181</v>
+      </c>
+      <c r="E127" s="38" t="s">
+        <v>183</v>
+      </c>
+      <c r="F127" s="35" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="34"/>
+      <c r="B128" s="37"/>
+      <c r="C128" s="34"/>
+      <c r="D128" s="34"/>
+      <c r="E128" s="39"/>
+      <c r="F128" s="37"/>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A129" s="32">
+        <v>105</v>
+      </c>
+      <c r="B129" s="35" t="s">
+        <v>110</v>
+      </c>
+      <c r="C129" s="32" t="s">
+        <v>119</v>
+      </c>
+      <c r="D129" s="32" t="s">
+        <v>136</v>
+      </c>
+      <c r="E129" s="38" t="s">
+        <v>137</v>
+      </c>
+      <c r="F129" s="35" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="34"/>
+      <c r="B130" s="37"/>
+      <c r="C130" s="34"/>
+      <c r="D130" s="34"/>
+      <c r="E130" s="37"/>
+      <c r="F130" s="37"/>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A131" s="32">
+        <v>106</v>
+      </c>
+      <c r="B131" s="35" t="s">
+        <v>110</v>
+      </c>
+      <c r="C131" s="35" t="s">
+        <v>120</v>
+      </c>
+      <c r="D131" s="35" t="s">
+        <v>139</v>
+      </c>
+      <c r="E131" s="38" t="s">
+        <v>102</v>
+      </c>
+      <c r="F131" s="35" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="34"/>
+      <c r="B132" s="37"/>
+      <c r="C132" s="37"/>
+      <c r="D132" s="37"/>
+      <c r="E132" s="37"/>
+      <c r="F132" s="37"/>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A133" s="32">
+        <v>107</v>
+      </c>
+      <c r="B133" s="35" t="s">
+        <v>110</v>
+      </c>
+      <c r="C133" s="35" t="s">
+        <v>121</v>
+      </c>
+      <c r="D133" s="35" t="s">
+        <v>166</v>
+      </c>
+      <c r="E133" s="35" t="s">
+        <v>165</v>
+      </c>
+      <c r="F133" s="35" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A134" s="34"/>
+      <c r="B134" s="37"/>
+      <c r="C134" s="37"/>
+      <c r="D134" s="37"/>
+      <c r="E134" s="37"/>
+      <c r="F134" s="37"/>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A135" s="32">
+        <v>108</v>
+      </c>
+      <c r="B135" s="35" t="s">
+        <v>110</v>
+      </c>
+      <c r="C135" s="35" t="s">
+        <v>122</v>
+      </c>
+      <c r="D135" s="35" t="s">
+        <v>144</v>
+      </c>
+      <c r="E135" s="35" t="s">
+        <v>145</v>
+      </c>
+      <c r="F135" s="35" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="34"/>
+      <c r="B136" s="37"/>
+      <c r="C136" s="37"/>
+      <c r="D136" s="37"/>
+      <c r="E136" s="37"/>
+      <c r="F136" s="37"/>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A137" s="32">
+        <v>109</v>
+      </c>
+      <c r="B137" s="35" t="s">
+        <v>110</v>
+      </c>
+      <c r="C137" s="35" t="s">
+        <v>123</v>
+      </c>
+      <c r="D137" s="35" t="s">
+        <v>262</v>
+      </c>
+      <c r="E137" s="35" t="s">
+        <v>102</v>
+      </c>
+      <c r="F137" s="40" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36" s="6"/>
-      <c r="B36" s="7"/>
-      <c r="C36" s="7"/>
-      <c r="D36" s="7"/>
-      <c r="E36" s="10"/>
-      <c r="F36" s="8"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37" s="6">
-        <v>13</v>
-      </c>
-      <c r="B37" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C37" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D37" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="E37" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="F37" s="8" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A38" s="6"/>
-      <c r="B38" s="7"/>
-      <c r="C38" s="7"/>
-      <c r="D38" s="7"/>
-      <c r="E38" s="10"/>
-      <c r="F38" s="8"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A39" s="6">
-        <v>14</v>
-      </c>
-      <c r="B39" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C39" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D39" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="E39" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="F39" s="8" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A40" s="6"/>
-      <c r="B40" s="7"/>
-      <c r="C40" s="7"/>
-      <c r="D40" s="7"/>
-      <c r="E40" s="10"/>
-      <c r="F40" s="8"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A41" s="6">
-        <v>15</v>
-      </c>
-      <c r="B41" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C41" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="D41" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="E41" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="F41" s="8" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A42" s="6"/>
-      <c r="B42" s="7"/>
-      <c r="C42" s="7"/>
-      <c r="D42" s="7"/>
-      <c r="E42" s="10"/>
-      <c r="F42" s="8"/>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A43" s="6">
-        <v>16</v>
-      </c>
-      <c r="B43" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C43" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D43" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="E43" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="F43" s="8" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A44" s="6"/>
-      <c r="B44" s="7"/>
-      <c r="C44" s="7"/>
-      <c r="D44" s="7"/>
-      <c r="E44" s="10"/>
-      <c r="F44" s="8"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A45" s="6">
-        <v>17</v>
-      </c>
-      <c r="B45" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C45" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D45" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E45" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="F45" s="8" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A46" s="6"/>
-      <c r="B46" s="7"/>
-      <c r="C46" s="7"/>
-      <c r="D46" s="7"/>
-      <c r="E46" s="10"/>
-      <c r="F46" s="8"/>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A47" s="6">
-        <v>18</v>
-      </c>
-      <c r="B47" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C47" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="D47" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E47" s="9" t="s">
-        <v>153</v>
-      </c>
-      <c r="F47" s="8" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A48" s="6"/>
-      <c r="B48" s="7"/>
-      <c r="C48" s="7"/>
-      <c r="D48" s="7"/>
-      <c r="E48" s="10"/>
-      <c r="F48" s="8"/>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A49" s="6">
-        <v>19</v>
-      </c>
-      <c r="B49" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C49" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="D49" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="E49" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="F49" s="8" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A50" s="6"/>
-      <c r="B50" s="7"/>
-      <c r="C50" s="7"/>
-      <c r="D50" s="7"/>
-      <c r="E50" s="10"/>
-      <c r="F50" s="8"/>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A51" s="6">
-        <v>20</v>
-      </c>
-      <c r="B51" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C51" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="D51" s="9" t="s">
-        <v>169</v>
-      </c>
-      <c r="E51" s="9" t="s">
-        <v>170</v>
-      </c>
-      <c r="F51" s="8" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A52" s="6"/>
-      <c r="B52" s="7"/>
-      <c r="C52" s="7"/>
-      <c r="D52" s="10"/>
-      <c r="E52" s="10"/>
-      <c r="F52" s="8"/>
-    </row>
-    <row r="53" spans="1:6" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="6">
-        <v>21</v>
-      </c>
-      <c r="B53" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C53" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="D53" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="E53" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="F53" s="15" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" ht="2.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="6"/>
-      <c r="B54" s="7"/>
-      <c r="C54" s="7"/>
-      <c r="D54" s="10"/>
-      <c r="E54" s="10"/>
-      <c r="F54" s="15"/>
-    </row>
-    <row r="55" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="6">
-        <v>22</v>
-      </c>
-      <c r="B55" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C55" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="D55" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="E55" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="F55" s="15" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A56" s="6"/>
-      <c r="B56" s="7"/>
-      <c r="C56" s="7"/>
-      <c r="D56" s="10"/>
-      <c r="E56" s="10"/>
-      <c r="F56" s="15"/>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A57" s="6">
-        <v>23</v>
-      </c>
-      <c r="B57" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C57" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="D57" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="E57" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="F57" s="15" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A58" s="6"/>
-      <c r="B58" s="7"/>
-      <c r="C58" s="7"/>
-      <c r="D58" s="10"/>
-      <c r="E58" s="10"/>
-      <c r="F58" s="15"/>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A59" s="6">
-        <v>24</v>
-      </c>
-      <c r="B59" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C59" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="D59" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="E59" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="F59" s="15" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A60" s="6"/>
-      <c r="B60" s="7"/>
-      <c r="C60" s="7"/>
-      <c r="D60" s="10"/>
-      <c r="E60" s="10"/>
-      <c r="F60" s="15"/>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A61" s="6">
-        <v>25</v>
-      </c>
-      <c r="B61" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C61" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="D61" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="E61" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="F61" s="15" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A62" s="6"/>
-      <c r="B62" s="7"/>
-      <c r="C62" s="7"/>
-      <c r="D62" s="10"/>
-      <c r="E62" s="10"/>
-      <c r="F62" s="15"/>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A63" s="6">
-        <v>26</v>
-      </c>
-      <c r="B63" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C63" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="D63" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="E63" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="F63" s="15" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A64" s="6"/>
-      <c r="B64" s="7"/>
-      <c r="C64" s="7"/>
-      <c r="D64" s="10"/>
-      <c r="E64" s="10"/>
-      <c r="F64" s="15"/>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A65" s="6">
-        <v>27</v>
-      </c>
-      <c r="B65" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C65" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="D65" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="E65" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="F65" s="15" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A66" s="6"/>
-      <c r="B66" s="7"/>
-      <c r="C66" s="7"/>
-      <c r="D66" s="10"/>
-      <c r="E66" s="10"/>
-      <c r="F66" s="15"/>
-    </row>
-    <row r="67" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="6">
-        <v>28</v>
-      </c>
-      <c r="B67" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C67" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="D67" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="E67" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="F67" s="15" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A68" s="6"/>
-      <c r="B68" s="7"/>
-      <c r="C68" s="7"/>
-      <c r="D68" s="10"/>
-      <c r="E68" s="10"/>
-      <c r="F68" s="15"/>
-    </row>
-    <row r="69" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="6">
-        <v>29</v>
-      </c>
-      <c r="B69" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C69" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="D69" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="E69" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="F69" s="15" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A70" s="6"/>
-      <c r="B70" s="7"/>
-      <c r="C70" s="7"/>
-      <c r="D70" s="10"/>
-      <c r="E70" s="10"/>
-      <c r="F70" s="15"/>
-    </row>
-    <row r="71" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="6">
-        <v>30</v>
-      </c>
-      <c r="B71" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C71" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="D71" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="E71" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="F71" s="15" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A72" s="6"/>
-      <c r="B72" s="7"/>
-      <c r="C72" s="7"/>
-      <c r="D72" s="10"/>
-      <c r="E72" s="10"/>
-      <c r="F72" s="15"/>
-    </row>
-    <row r="73" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="6">
-        <v>31</v>
-      </c>
-      <c r="B73" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C73" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="D73" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="E73" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="F73" s="15" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A74" s="6"/>
-      <c r="B74" s="7"/>
-      <c r="C74" s="7"/>
-      <c r="D74" s="10"/>
-      <c r="E74" s="10"/>
-      <c r="F74" s="15"/>
-    </row>
-    <row r="75" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="6">
-        <v>32</v>
-      </c>
-      <c r="B75" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C75" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="D75" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="E75" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="F75" s="15" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A76" s="6"/>
-      <c r="B76" s="7"/>
-      <c r="C76" s="7"/>
-      <c r="D76" s="10"/>
-      <c r="E76" s="10"/>
-      <c r="F76" s="15"/>
-    </row>
-    <row r="77" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="6">
-        <v>33</v>
-      </c>
-      <c r="B77" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C77" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="D77" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="E77" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="F77" s="8" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A78" s="6"/>
-      <c r="B78" s="7"/>
-      <c r="C78" s="7"/>
-      <c r="D78" s="10"/>
-      <c r="E78" s="10"/>
-      <c r="F78" s="8"/>
-    </row>
-    <row r="79" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="6">
-        <v>34</v>
-      </c>
-      <c r="B79" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C79" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="D79" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="E79" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="F79" s="8" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A80" s="6"/>
-      <c r="B80" s="7"/>
-      <c r="C80" s="7"/>
-      <c r="D80" s="10"/>
-      <c r="E80" s="10"/>
-      <c r="F80" s="8"/>
-    </row>
-    <row r="81" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="6">
-        <v>35</v>
-      </c>
-      <c r="B81" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C81" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="D81" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="E81" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="F81" s="9" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A82" s="6"/>
-      <c r="B82" s="7"/>
-      <c r="C82" s="7"/>
-      <c r="D82" s="10"/>
-      <c r="E82" s="10"/>
-      <c r="F82" s="10"/>
-    </row>
-    <row r="83" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="6">
-        <v>36</v>
-      </c>
-      <c r="B83" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C83" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="D83" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="E83" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="F83" s="16" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A84" s="6"/>
-      <c r="B84" s="7"/>
-      <c r="C84" s="7"/>
-      <c r="D84" s="10"/>
-      <c r="E84" s="10"/>
-      <c r="F84" s="17"/>
-    </row>
-    <row r="85" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="6">
-        <v>37</v>
-      </c>
-      <c r="B85" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C85" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="D85" s="9" t="s">
-        <v>198</v>
-      </c>
-      <c r="E85" s="9" t="s">
+    <row r="138" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A138" s="34"/>
+      <c r="B138" s="37"/>
+      <c r="C138" s="37"/>
+      <c r="D138" s="37"/>
+      <c r="E138" s="37"/>
+      <c r="F138" s="37"/>
+    </row>
+    <row r="139" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A139" s="32">
+        <v>110</v>
+      </c>
+      <c r="B139" s="35" t="s">
+        <v>110</v>
+      </c>
+      <c r="C139" s="35" t="s">
+        <v>124</v>
+      </c>
+      <c r="D139" s="35" t="s">
+        <v>187</v>
+      </c>
+      <c r="E139" s="35" t="s">
+        <v>102</v>
+      </c>
+      <c r="F139" s="35" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A140" s="34"/>
+      <c r="B140" s="37"/>
+      <c r="C140" s="37"/>
+      <c r="D140" s="37"/>
+      <c r="E140" s="37"/>
+      <c r="F140" s="37"/>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A141" s="32">
+        <v>111</v>
+      </c>
+      <c r="B141" s="35" t="s">
+        <v>110</v>
+      </c>
+      <c r="C141" s="35" t="s">
+        <v>125</v>
+      </c>
+      <c r="D141" s="35" t="s">
+        <v>188</v>
+      </c>
+      <c r="E141" s="35" t="s">
+        <v>102</v>
+      </c>
+      <c r="F141" s="35" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A142" s="34"/>
+      <c r="B142" s="37"/>
+      <c r="C142" s="37"/>
+      <c r="D142" s="37"/>
+      <c r="E142" s="37"/>
+      <c r="F142" s="37"/>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A143" s="32">
+        <v>112</v>
+      </c>
+      <c r="B143" s="35" t="s">
+        <v>110</v>
+      </c>
+      <c r="C143" s="32" t="s">
+        <v>126</v>
+      </c>
+      <c r="D143" s="35" t="s">
+        <v>189</v>
+      </c>
+      <c r="E143" s="35" t="s">
+        <v>102</v>
+      </c>
+      <c r="F143" s="35" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A144" s="34"/>
+      <c r="B144" s="37"/>
+      <c r="C144" s="34"/>
+      <c r="D144" s="37"/>
+      <c r="E144" s="37"/>
+      <c r="F144" s="37"/>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A145" s="32">
+        <v>113</v>
+      </c>
+      <c r="B145" s="35" t="s">
+        <v>110</v>
+      </c>
+      <c r="C145" s="32" t="s">
+        <v>127</v>
+      </c>
+      <c r="D145" s="35" t="s">
+        <v>190</v>
+      </c>
+      <c r="E145" s="35" t="s">
+        <v>102</v>
+      </c>
+      <c r="F145" s="35" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A146" s="34"/>
+      <c r="B146" s="37"/>
+      <c r="C146" s="34"/>
+      <c r="D146" s="37"/>
+      <c r="E146" s="37"/>
+      <c r="F146" s="37"/>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A147" s="32">
+        <v>114</v>
+      </c>
+      <c r="B147" s="35" t="s">
+        <v>110</v>
+      </c>
+      <c r="C147" s="32" t="s">
+        <v>128</v>
+      </c>
+      <c r="D147" s="35" t="s">
+        <v>192</v>
+      </c>
+      <c r="E147" s="35" t="s">
+        <v>102</v>
+      </c>
+      <c r="F147" s="35" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A148" s="34"/>
+      <c r="B148" s="37"/>
+      <c r="C148" s="34"/>
+      <c r="D148" s="37"/>
+      <c r="E148" s="37"/>
+      <c r="F148" s="37"/>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A149" s="32">
+        <v>115</v>
+      </c>
+      <c r="B149" s="35" t="s">
+        <v>110</v>
+      </c>
+      <c r="C149" s="32" t="s">
+        <v>129</v>
+      </c>
+      <c r="D149" s="35" t="s">
+        <v>193</v>
+      </c>
+      <c r="E149" s="38" t="s">
+        <v>102</v>
+      </c>
+      <c r="F149" s="35" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A150" s="34"/>
+      <c r="B150" s="37"/>
+      <c r="C150" s="34"/>
+      <c r="D150" s="37"/>
+      <c r="E150" s="37"/>
+      <c r="F150" s="37"/>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A151" s="32">
+        <v>116</v>
+      </c>
+      <c r="B151" s="35" t="s">
+        <v>110</v>
+      </c>
+      <c r="C151" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="D151" s="35" t="s">
+        <v>194</v>
+      </c>
+      <c r="E151" s="35" t="s">
+        <v>102</v>
+      </c>
+      <c r="F151" s="35" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A152" s="34"/>
+      <c r="B152" s="37"/>
+      <c r="C152" s="34"/>
+      <c r="D152" s="37"/>
+      <c r="E152" s="37"/>
+      <c r="F152" s="37"/>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A153" s="32">
+        <v>117</v>
+      </c>
+      <c r="B153" s="35" t="s">
+        <v>110</v>
+      </c>
+      <c r="C153" s="32" t="s">
+        <v>131</v>
+      </c>
+      <c r="D153" s="35" t="s">
+        <v>271</v>
+      </c>
+      <c r="E153" s="35" t="s">
+        <v>272</v>
+      </c>
+      <c r="F153" s="35" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A154" s="34"/>
+      <c r="B154" s="37"/>
+      <c r="C154" s="34"/>
+      <c r="D154" s="37"/>
+      <c r="E154" s="37"/>
+      <c r="F154" s="37"/>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A155" s="32">
+        <v>118</v>
+      </c>
+      <c r="B155" s="35" t="s">
+        <v>110</v>
+      </c>
+      <c r="C155" s="32" t="s">
+        <v>132</v>
+      </c>
+      <c r="D155" s="35" t="s">
+        <v>263</v>
+      </c>
+      <c r="E155" s="35"/>
+      <c r="F155" s="35"/>
+    </row>
+    <row r="156" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A156" s="34"/>
+      <c r="B156" s="37"/>
+      <c r="C156" s="34"/>
+      <c r="D156" s="37"/>
+      <c r="E156" s="37"/>
+      <c r="F156" s="37"/>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A157" s="32">
+        <v>119</v>
+      </c>
+      <c r="B157" s="35" t="s">
+        <v>110</v>
+      </c>
+      <c r="C157" s="32" t="s">
+        <v>133</v>
+      </c>
+      <c r="D157" s="35" t="s">
+        <v>263</v>
+      </c>
+      <c r="E157" s="35"/>
+      <c r="F157" s="35"/>
+    </row>
+    <row r="158" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A158" s="34"/>
+      <c r="B158" s="37"/>
+      <c r="C158" s="34"/>
+      <c r="D158" s="37"/>
+      <c r="E158" s="37"/>
+      <c r="F158" s="37"/>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A159" s="32">
+        <v>120</v>
+      </c>
+      <c r="B159" s="35" t="s">
+        <v>110</v>
+      </c>
+      <c r="C159" s="32" t="s">
+        <v>134</v>
+      </c>
+      <c r="D159" s="35" t="s">
+        <v>263</v>
+      </c>
+      <c r="E159" s="35"/>
+      <c r="F159" s="35"/>
+    </row>
+    <row r="160" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A160" s="33"/>
+      <c r="B160" s="36"/>
+      <c r="C160" s="33"/>
+      <c r="D160" s="37"/>
+      <c r="E160" s="36"/>
+      <c r="F160" s="36"/>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A161" s="41">
+        <v>121</v>
+      </c>
+      <c r="B161" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="C161" s="42" t="s">
+        <v>135</v>
+      </c>
+      <c r="D161" s="35" t="s">
+        <v>263</v>
+      </c>
+      <c r="E161" s="12"/>
+      <c r="F161" s="13"/>
+    </row>
+    <row r="162" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A162" s="41"/>
+      <c r="B162" s="12"/>
+      <c r="C162" s="42"/>
+      <c r="D162" s="37"/>
+      <c r="E162" s="12"/>
+      <c r="F162" s="13"/>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A163" s="43">
+        <v>122</v>
+      </c>
+      <c r="B163" s="38" t="s">
+        <v>110</v>
+      </c>
+      <c r="C163" s="43" t="s">
+        <v>142</v>
+      </c>
+      <c r="D163" s="35" t="s">
+        <v>263</v>
+      </c>
+      <c r="E163" s="38"/>
+      <c r="F163" s="38"/>
+    </row>
+    <row r="164" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A164" s="44"/>
+      <c r="B164" s="39"/>
+      <c r="C164" s="44"/>
+      <c r="D164" s="37"/>
+      <c r="E164" s="39"/>
+      <c r="F164" s="39"/>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A165" s="43">
+        <v>123</v>
+      </c>
+      <c r="B165" s="38" t="s">
+        <v>110</v>
+      </c>
+      <c r="C165" s="43" t="s">
+        <v>264</v>
+      </c>
+      <c r="D165" s="35" t="s">
+        <v>263</v>
+      </c>
+      <c r="E165" s="38"/>
+      <c r="F165" s="38"/>
+    </row>
+    <row r="166" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A166" s="44"/>
+      <c r="B166" s="39"/>
+      <c r="C166" s="44"/>
+      <c r="D166" s="37"/>
+      <c r="E166" s="39"/>
+      <c r="F166" s="39"/>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A167" s="43">
+        <v>124</v>
+      </c>
+      <c r="B167" s="38" t="s">
+        <v>110</v>
+      </c>
+      <c r="C167" s="43" t="s">
+        <v>265</v>
+      </c>
+      <c r="D167" s="35" t="s">
+        <v>263</v>
+      </c>
+      <c r="E167" s="38"/>
+      <c r="F167" s="38"/>
+    </row>
+    <row r="168" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A168" s="44"/>
+      <c r="B168" s="39"/>
+      <c r="C168" s="44"/>
+      <c r="D168" s="37"/>
+      <c r="E168" s="39"/>
+      <c r="F168" s="39"/>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A169" s="43">
+        <v>125</v>
+      </c>
+      <c r="B169" s="38" t="s">
+        <v>110</v>
+      </c>
+      <c r="C169" s="43" t="s">
+        <v>266</v>
+      </c>
+      <c r="D169" s="35" t="s">
+        <v>263</v>
+      </c>
+      <c r="E169" s="38"/>
+      <c r="F169" s="38"/>
+    </row>
+    <row r="170" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A170" s="44"/>
+      <c r="B170" s="39"/>
+      <c r="C170" s="44"/>
+      <c r="D170" s="37"/>
+      <c r="E170" s="39"/>
+      <c r="F170" s="39"/>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A171" s="43">
+        <v>126</v>
+      </c>
+      <c r="B171" s="38" t="s">
+        <v>110</v>
+      </c>
+      <c r="C171" s="43" t="s">
+        <v>267</v>
+      </c>
+      <c r="D171" s="35" t="s">
+        <v>263</v>
+      </c>
+      <c r="E171" s="38"/>
+      <c r="F171" s="38"/>
+    </row>
+    <row r="172" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A172" s="44"/>
+      <c r="B172" s="39"/>
+      <c r="C172" s="44"/>
+      <c r="D172" s="37"/>
+      <c r="E172" s="39"/>
+      <c r="F172" s="39"/>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A173" s="43">
+        <v>127</v>
+      </c>
+      <c r="B173" s="38" t="s">
+        <v>110</v>
+      </c>
+      <c r="C173" s="43" t="s">
+        <v>268</v>
+      </c>
+      <c r="D173" s="35" t="s">
+        <v>263</v>
+      </c>
+      <c r="E173" s="38"/>
+      <c r="F173" s="38"/>
+    </row>
+    <row r="174" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A174" s="34"/>
+      <c r="B174" s="37"/>
+      <c r="C174" s="34"/>
+      <c r="D174" s="37"/>
+      <c r="E174" s="37"/>
+      <c r="F174" s="37"/>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A175" s="45" t="s">
         <v>256</v>
       </c>
-      <c r="F85" s="16"/>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A86" s="6"/>
-      <c r="B86" s="7"/>
-      <c r="C86" s="7"/>
-      <c r="D86" s="10"/>
-      <c r="E86" s="10"/>
-      <c r="F86" s="17"/>
-    </row>
-    <row r="87" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="6">
-        <v>38</v>
-      </c>
-      <c r="B87" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C87" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="D87" s="9" t="s">
-        <v>197</v>
-      </c>
-      <c r="E87" s="9"/>
-      <c r="F87" s="16"/>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A88" s="6"/>
-      <c r="B88" s="7"/>
-      <c r="C88" s="7"/>
-      <c r="D88" s="10"/>
-      <c r="E88" s="10"/>
-      <c r="F88" s="17"/>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A89" s="6">
-        <v>39</v>
-      </c>
-      <c r="B89" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C89" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="D89" s="9" t="s">
-        <v>197</v>
-      </c>
-      <c r="E89" s="9"/>
-      <c r="F89" s="16"/>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A90" s="6"/>
-      <c r="B90" s="7"/>
-      <c r="C90" s="7"/>
-      <c r="D90" s="10"/>
-      <c r="E90" s="10"/>
-      <c r="F90" s="17"/>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A91" s="6">
-        <v>40</v>
-      </c>
-      <c r="B91" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C91" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="D91" s="9" t="s">
-        <v>197</v>
-      </c>
-      <c r="E91" s="9"/>
-      <c r="F91" s="16"/>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A92" s="6"/>
-      <c r="B92" s="7"/>
-      <c r="C92" s="7"/>
-      <c r="D92" s="10"/>
-      <c r="E92" s="10"/>
-      <c r="F92" s="17"/>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A93" s="6">
-        <v>41</v>
-      </c>
-      <c r="B93" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C93" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="D93" s="9" t="s">
-        <v>197</v>
-      </c>
-      <c r="E93" s="9"/>
-      <c r="F93" s="16"/>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A94" s="6"/>
-      <c r="B94" s="7"/>
-      <c r="C94" s="7"/>
-      <c r="D94" s="10"/>
-      <c r="E94" s="10"/>
-      <c r="F94" s="17"/>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A95" s="6">
-        <v>42</v>
-      </c>
-      <c r="B95" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C95" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="D95" s="9" t="s">
-        <v>197</v>
-      </c>
-      <c r="E95" s="9"/>
-      <c r="F95" s="20"/>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A96" s="6"/>
-      <c r="B96" s="7"/>
-      <c r="C96" s="7"/>
-      <c r="D96" s="10"/>
-      <c r="E96" s="10"/>
-      <c r="F96" s="21"/>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A97" s="6">
-        <v>43</v>
-      </c>
-      <c r="B97" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C97" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="D97" s="9" t="s">
-        <v>197</v>
-      </c>
-      <c r="E97" s="9"/>
-      <c r="F97" s="18"/>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A98" s="6"/>
-      <c r="B98" s="7"/>
-      <c r="C98" s="7"/>
-      <c r="D98" s="10"/>
-      <c r="E98" s="10"/>
-      <c r="F98" s="19"/>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A99" s="6">
-        <v>44</v>
-      </c>
-      <c r="B99" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C99" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="D99" s="9" t="s">
-        <v>197</v>
-      </c>
-      <c r="E99" s="9"/>
-      <c r="F99" s="18"/>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A100" s="6"/>
-      <c r="B100" s="7"/>
-      <c r="C100" s="7"/>
-      <c r="D100" s="10"/>
-      <c r="E100" s="10"/>
-      <c r="F100" s="19"/>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A101" s="6">
-        <v>45</v>
-      </c>
-      <c r="B101" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C101" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="D101" s="9" t="s">
-        <v>197</v>
-      </c>
-      <c r="E101" s="9"/>
-      <c r="F101" s="18"/>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A102" s="6"/>
-      <c r="B102" s="7"/>
-      <c r="C102" s="7"/>
-      <c r="D102" s="10"/>
-      <c r="E102" s="10"/>
-      <c r="F102" s="19"/>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A103" s="6">
-        <v>46</v>
-      </c>
-      <c r="B103" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C103" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="D103" s="9" t="s">
-        <v>197</v>
-      </c>
-      <c r="E103" s="9"/>
-      <c r="F103" s="18"/>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A104" s="6"/>
-      <c r="B104" s="7"/>
-      <c r="C104" s="7"/>
-      <c r="D104" s="10"/>
-      <c r="E104" s="10"/>
-      <c r="F104" s="19"/>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A105" s="6">
-        <v>47</v>
-      </c>
-      <c r="B105" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C105" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="D105" s="9" t="s">
-        <v>197</v>
-      </c>
-      <c r="E105" s="9"/>
-      <c r="F105" s="18"/>
-    </row>
-    <row r="106" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="6"/>
-      <c r="B106" s="7"/>
-      <c r="C106" s="7"/>
-      <c r="D106" s="10"/>
-      <c r="E106" s="10"/>
-      <c r="F106" s="19"/>
-    </row>
-    <row r="107" spans="1:6" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="24" t="s">
-        <v>255</v>
-      </c>
-      <c r="B107" s="25"/>
-      <c r="C107" s="25"/>
-      <c r="D107" s="25"/>
-      <c r="E107" s="25"/>
-      <c r="F107" s="26"/>
-    </row>
-    <row r="108" spans="1:6" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="B108" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="C108" s="50" t="s">
-        <v>2</v>
-      </c>
-      <c r="D108" s="50" t="s">
-        <v>3</v>
-      </c>
-      <c r="E108" s="50" t="s">
-        <v>4</v>
-      </c>
-      <c r="F108" s="50" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A109" s="27">
-        <v>96</v>
-      </c>
-      <c r="B109" s="30" t="s">
-        <v>110</v>
-      </c>
-      <c r="C109" s="27" t="s">
-        <v>156</v>
-      </c>
-      <c r="D109" s="30" t="s">
-        <v>165</v>
-      </c>
-      <c r="E109" s="30" t="s">
-        <v>164</v>
-      </c>
-      <c r="F109" s="30" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A110" s="28"/>
-      <c r="B110" s="31"/>
-      <c r="C110" s="28"/>
-      <c r="D110" s="31"/>
-      <c r="E110" s="31"/>
-      <c r="F110" s="31"/>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A111" s="28"/>
-      <c r="B111" s="31"/>
-      <c r="C111" s="28"/>
-      <c r="D111" s="31"/>
-      <c r="E111" s="31"/>
-      <c r="F111" s="31"/>
-    </row>
-    <row r="112" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="29"/>
-      <c r="B112" s="32"/>
-      <c r="C112" s="29"/>
-      <c r="D112" s="32"/>
-      <c r="E112" s="32"/>
-      <c r="F112" s="32"/>
-    </row>
-    <row r="113" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="27">
-        <v>97</v>
-      </c>
-      <c r="B113" s="30" t="s">
-        <v>110</v>
-      </c>
-      <c r="C113" s="27" t="s">
-        <v>111</v>
-      </c>
-      <c r="D113" s="30" t="s">
-        <v>192</v>
-      </c>
-      <c r="E113" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="F113" s="30" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="29"/>
-      <c r="B114" s="32"/>
-      <c r="C114" s="29"/>
-      <c r="D114" s="32"/>
-      <c r="E114" s="10"/>
-      <c r="F114" s="32"/>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A115" s="27">
-        <v>98</v>
-      </c>
-      <c r="B115" s="30" t="s">
-        <v>110</v>
-      </c>
-      <c r="C115" s="27" t="s">
-        <v>112</v>
-      </c>
-      <c r="D115" s="27" t="s">
-        <v>174</v>
-      </c>
-      <c r="E115" s="27" t="s">
-        <v>171</v>
-      </c>
-      <c r="F115" s="30" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="29"/>
-      <c r="B116" s="32"/>
-      <c r="C116" s="29"/>
-      <c r="D116" s="29"/>
-      <c r="E116" s="29"/>
-      <c r="F116" s="32"/>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A117" s="27">
-        <v>99</v>
-      </c>
-      <c r="B117" s="30" t="s">
-        <v>110</v>
-      </c>
-      <c r="C117" s="27" t="s">
-        <v>113</v>
-      </c>
-      <c r="D117" s="27" t="s">
-        <v>175</v>
-      </c>
-      <c r="E117" s="27" t="s">
-        <v>172</v>
-      </c>
-      <c r="F117" s="30" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="29"/>
-      <c r="B118" s="32"/>
-      <c r="C118" s="29"/>
-      <c r="D118" s="29"/>
-      <c r="E118" s="29"/>
-      <c r="F118" s="32"/>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A119" s="27">
-        <v>100</v>
-      </c>
-      <c r="B119" s="30" t="s">
-        <v>110</v>
-      </c>
-      <c r="C119" s="27" t="s">
-        <v>114</v>
-      </c>
-      <c r="D119" s="27" t="s">
-        <v>176</v>
-      </c>
-      <c r="E119" s="27" t="s">
-        <v>173</v>
-      </c>
-      <c r="F119" s="30" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="29"/>
-      <c r="B120" s="32"/>
-      <c r="C120" s="29"/>
-      <c r="D120" s="29"/>
-      <c r="E120" s="29"/>
-      <c r="F120" s="32"/>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A121" s="27">
-        <v>101</v>
-      </c>
-      <c r="B121" s="30" t="s">
-        <v>110</v>
-      </c>
-      <c r="C121" s="27" t="s">
-        <v>115</v>
-      </c>
-      <c r="D121" s="27" t="s">
-        <v>181</v>
-      </c>
-      <c r="E121" s="27" t="s">
-        <v>183</v>
-      </c>
-      <c r="F121" s="30" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="29"/>
-      <c r="B122" s="32"/>
-      <c r="C122" s="29"/>
-      <c r="D122" s="29"/>
-      <c r="E122" s="29"/>
-      <c r="F122" s="32"/>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A123" s="27">
-        <v>102</v>
-      </c>
-      <c r="B123" s="30" t="s">
-        <v>110</v>
-      </c>
-      <c r="C123" s="27" t="s">
-        <v>116</v>
-      </c>
-      <c r="D123" s="27" t="s">
-        <v>177</v>
-      </c>
-      <c r="E123" s="33" t="s">
-        <v>179</v>
-      </c>
-      <c r="F123" s="30" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="29"/>
-      <c r="B124" s="32"/>
-      <c r="C124" s="29"/>
-      <c r="D124" s="29"/>
-      <c r="E124" s="34"/>
-      <c r="F124" s="32"/>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A125" s="27">
-        <v>103</v>
-      </c>
-      <c r="B125" s="30" t="s">
-        <v>110</v>
-      </c>
-      <c r="C125" s="27" t="s">
-        <v>117</v>
-      </c>
-      <c r="D125" s="27" t="s">
-        <v>178</v>
-      </c>
-      <c r="E125" s="33" t="s">
-        <v>180</v>
-      </c>
-      <c r="F125" s="30" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="29"/>
-      <c r="B126" s="32"/>
-      <c r="C126" s="29"/>
-      <c r="D126" s="29"/>
-      <c r="E126" s="34"/>
-      <c r="F126" s="32"/>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A127" s="27">
-        <v>104</v>
-      </c>
-      <c r="B127" s="30" t="s">
-        <v>110</v>
-      </c>
-      <c r="C127" s="27" t="s">
-        <v>118</v>
-      </c>
-      <c r="D127" s="27" t="s">
-        <v>182</v>
-      </c>
-      <c r="E127" s="33" t="s">
-        <v>184</v>
-      </c>
-      <c r="F127" s="30" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="29"/>
-      <c r="B128" s="32"/>
-      <c r="C128" s="29"/>
-      <c r="D128" s="29"/>
-      <c r="E128" s="34"/>
-      <c r="F128" s="32"/>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A129" s="27">
-        <v>105</v>
-      </c>
-      <c r="B129" s="30" t="s">
-        <v>110</v>
-      </c>
-      <c r="C129" s="27" t="s">
-        <v>119</v>
-      </c>
-      <c r="D129" s="27" t="s">
-        <v>136</v>
-      </c>
-      <c r="E129" s="33" t="s">
-        <v>137</v>
-      </c>
-      <c r="F129" s="30" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="29"/>
-      <c r="B130" s="32"/>
-      <c r="C130" s="29"/>
-      <c r="D130" s="29"/>
-      <c r="E130" s="32"/>
-      <c r="F130" s="32"/>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A131" s="27">
-        <v>106</v>
-      </c>
-      <c r="B131" s="30" t="s">
-        <v>110</v>
-      </c>
-      <c r="C131" s="30" t="s">
-        <v>120</v>
-      </c>
-      <c r="D131" s="30" t="s">
-        <v>139</v>
-      </c>
-      <c r="E131" s="33" t="s">
-        <v>102</v>
-      </c>
-      <c r="F131" s="30" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="29"/>
-      <c r="B132" s="32"/>
-      <c r="C132" s="32"/>
-      <c r="D132" s="32"/>
-      <c r="E132" s="32"/>
-      <c r="F132" s="32"/>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A133" s="27">
-        <v>107</v>
-      </c>
-      <c r="B133" s="30" t="s">
-        <v>110</v>
-      </c>
-      <c r="C133" s="30" t="s">
-        <v>121</v>
-      </c>
-      <c r="D133" s="30" t="s">
-        <v>167</v>
-      </c>
-      <c r="E133" s="30" t="s">
-        <v>166</v>
-      </c>
-      <c r="F133" s="30" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="29"/>
-      <c r="B134" s="32"/>
-      <c r="C134" s="32"/>
-      <c r="D134" s="32"/>
-      <c r="E134" s="32"/>
-      <c r="F134" s="32"/>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A135" s="27">
-        <v>108</v>
-      </c>
-      <c r="B135" s="30" t="s">
-        <v>110</v>
-      </c>
-      <c r="C135" s="30" t="s">
-        <v>122</v>
-      </c>
-      <c r="D135" s="30" t="s">
-        <v>145</v>
-      </c>
-      <c r="E135" s="30" t="s">
-        <v>146</v>
-      </c>
-      <c r="F135" s="30" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="29"/>
-      <c r="B136" s="32"/>
-      <c r="C136" s="32"/>
-      <c r="D136" s="32"/>
-      <c r="E136" s="32"/>
-      <c r="F136" s="32"/>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A137" s="27">
-        <v>109</v>
-      </c>
-      <c r="B137" s="30" t="s">
-        <v>110</v>
-      </c>
-      <c r="C137" s="30" t="s">
-        <v>123</v>
-      </c>
-      <c r="D137" s="30" t="s">
-        <v>263</v>
-      </c>
-      <c r="E137" s="30" t="s">
-        <v>102</v>
-      </c>
-      <c r="F137" s="35" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="29"/>
-      <c r="B138" s="32"/>
-      <c r="C138" s="32"/>
-      <c r="D138" s="32"/>
-      <c r="E138" s="32"/>
-      <c r="F138" s="32"/>
-    </row>
-    <row r="139" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A139" s="27">
-        <v>110</v>
-      </c>
-      <c r="B139" s="30" t="s">
-        <v>110</v>
-      </c>
-      <c r="C139" s="30" t="s">
-        <v>124</v>
-      </c>
-      <c r="D139" s="30" t="s">
-        <v>188</v>
-      </c>
-      <c r="E139" s="30" t="s">
-        <v>102</v>
-      </c>
-      <c r="F139" s="30" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="29"/>
-      <c r="B140" s="32"/>
-      <c r="C140" s="32"/>
-      <c r="D140" s="32"/>
-      <c r="E140" s="32"/>
-      <c r="F140" s="32"/>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A141" s="27">
-        <v>111</v>
-      </c>
-      <c r="B141" s="30" t="s">
-        <v>110</v>
-      </c>
-      <c r="C141" s="30" t="s">
-        <v>125</v>
-      </c>
-      <c r="D141" s="30" t="s">
-        <v>189</v>
-      </c>
-      <c r="E141" s="30" t="s">
-        <v>102</v>
-      </c>
-      <c r="F141" s="30" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="29"/>
-      <c r="B142" s="32"/>
-      <c r="C142" s="32"/>
-      <c r="D142" s="32"/>
-      <c r="E142" s="32"/>
-      <c r="F142" s="32"/>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A143" s="27">
-        <v>112</v>
-      </c>
-      <c r="B143" s="30" t="s">
-        <v>110</v>
-      </c>
-      <c r="C143" s="27" t="s">
-        <v>126</v>
-      </c>
-      <c r="D143" s="30" t="s">
-        <v>190</v>
-      </c>
-      <c r="E143" s="30" t="s">
-        <v>102</v>
-      </c>
-      <c r="F143" s="30" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="29"/>
-      <c r="B144" s="32"/>
-      <c r="C144" s="29"/>
-      <c r="D144" s="32"/>
-      <c r="E144" s="32"/>
-      <c r="F144" s="32"/>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A145" s="27">
-        <v>113</v>
-      </c>
-      <c r="B145" s="30" t="s">
-        <v>110</v>
-      </c>
-      <c r="C145" s="27" t="s">
-        <v>127</v>
-      </c>
-      <c r="D145" s="30" t="s">
-        <v>191</v>
-      </c>
-      <c r="E145" s="30" t="s">
-        <v>102</v>
-      </c>
-      <c r="F145" s="30" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="29"/>
-      <c r="B146" s="32"/>
-      <c r="C146" s="29"/>
-      <c r="D146" s="32"/>
-      <c r="E146" s="32"/>
-      <c r="F146" s="32"/>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A147" s="27">
-        <v>114</v>
-      </c>
-      <c r="B147" s="30" t="s">
-        <v>110</v>
-      </c>
-      <c r="C147" s="27" t="s">
-        <v>128</v>
-      </c>
-      <c r="D147" s="30" t="s">
-        <v>193</v>
-      </c>
-      <c r="E147" s="30" t="s">
-        <v>102</v>
-      </c>
-      <c r="F147" s="30" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="29"/>
-      <c r="B148" s="32"/>
-      <c r="C148" s="29"/>
-      <c r="D148" s="32"/>
-      <c r="E148" s="32"/>
-      <c r="F148" s="32"/>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A149" s="27">
-        <v>115</v>
-      </c>
-      <c r="B149" s="30" t="s">
-        <v>110</v>
-      </c>
-      <c r="C149" s="27" t="s">
-        <v>129</v>
-      </c>
-      <c r="D149" s="30" t="s">
-        <v>194</v>
-      </c>
-      <c r="E149" s="33" t="s">
-        <v>102</v>
-      </c>
-      <c r="F149" s="30" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A150" s="29"/>
-      <c r="B150" s="32"/>
-      <c r="C150" s="29"/>
-      <c r="D150" s="32"/>
-      <c r="E150" s="32"/>
-      <c r="F150" s="32"/>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A151" s="27">
-        <v>116</v>
-      </c>
-      <c r="B151" s="30" t="s">
-        <v>110</v>
-      </c>
-      <c r="C151" s="27" t="s">
-        <v>130</v>
-      </c>
-      <c r="D151" s="30" t="s">
-        <v>195</v>
-      </c>
-      <c r="E151" s="30" t="s">
-        <v>102</v>
-      </c>
-      <c r="F151" s="30" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A152" s="29"/>
-      <c r="B152" s="32"/>
-      <c r="C152" s="29"/>
-      <c r="D152" s="32"/>
-      <c r="E152" s="32"/>
-      <c r="F152" s="32"/>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A153" s="27">
-        <v>117</v>
-      </c>
-      <c r="B153" s="30" t="s">
-        <v>110</v>
-      </c>
-      <c r="C153" s="27" t="s">
-        <v>131</v>
-      </c>
-      <c r="D153" s="30" t="s">
-        <v>270</v>
-      </c>
-      <c r="E153" s="33"/>
-      <c r="F153" s="30"/>
-    </row>
-    <row r="154" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A154" s="29"/>
-      <c r="B154" s="32"/>
-      <c r="C154" s="29"/>
-      <c r="D154" s="32"/>
-      <c r="E154" s="32"/>
-      <c r="F154" s="32"/>
-    </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A155" s="27">
-        <v>118</v>
-      </c>
-      <c r="B155" s="30" t="s">
-        <v>110</v>
-      </c>
-      <c r="C155" s="27" t="s">
-        <v>132</v>
-      </c>
-      <c r="D155" s="30" t="s">
-        <v>264</v>
-      </c>
-      <c r="E155" s="30"/>
-      <c r="F155" s="30"/>
-    </row>
-    <row r="156" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A156" s="29"/>
-      <c r="B156" s="32"/>
-      <c r="C156" s="29"/>
-      <c r="D156" s="32"/>
-      <c r="E156" s="32"/>
-      <c r="F156" s="32"/>
-    </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A157" s="27">
-        <v>119</v>
-      </c>
-      <c r="B157" s="30" t="s">
-        <v>110</v>
-      </c>
-      <c r="C157" s="27" t="s">
-        <v>133</v>
-      </c>
-      <c r="D157" s="30" t="s">
-        <v>264</v>
-      </c>
-      <c r="E157" s="30"/>
-      <c r="F157" s="30"/>
-    </row>
-    <row r="158" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A158" s="29"/>
-      <c r="B158" s="32"/>
-      <c r="C158" s="29"/>
-      <c r="D158" s="32"/>
-      <c r="E158" s="32"/>
-      <c r="F158" s="32"/>
-    </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A159" s="27">
-        <v>120</v>
-      </c>
-      <c r="B159" s="30" t="s">
-        <v>110</v>
-      </c>
-      <c r="C159" s="27" t="s">
-        <v>134</v>
-      </c>
-      <c r="D159" s="30" t="s">
-        <v>264</v>
-      </c>
-      <c r="E159" s="30"/>
-      <c r="F159" s="30"/>
-    </row>
-    <row r="160" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A160" s="28"/>
-      <c r="B160" s="31"/>
-      <c r="C160" s="28"/>
-      <c r="D160" s="32"/>
-      <c r="E160" s="31"/>
-      <c r="F160" s="31"/>
-    </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A161" s="48">
-        <v>121</v>
-      </c>
-      <c r="B161" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="C161" s="38" t="s">
-        <v>135</v>
-      </c>
-      <c r="D161" s="30" t="s">
-        <v>264</v>
-      </c>
-      <c r="E161" s="7"/>
-      <c r="F161" s="8"/>
-    </row>
-    <row r="162" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A162" s="48"/>
-      <c r="B162" s="7"/>
-      <c r="C162" s="38"/>
-      <c r="D162" s="32"/>
-      <c r="E162" s="7"/>
-      <c r="F162" s="8"/>
-    </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A163" s="36">
-        <v>122</v>
-      </c>
-      <c r="B163" s="33" t="s">
-        <v>110</v>
-      </c>
-      <c r="C163" s="36" t="s">
-        <v>143</v>
-      </c>
-      <c r="D163" s="30" t="s">
-        <v>264</v>
-      </c>
-      <c r="E163" s="33"/>
-      <c r="F163" s="33"/>
-    </row>
-    <row r="164" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A164" s="37"/>
-      <c r="B164" s="34"/>
-      <c r="C164" s="37"/>
-      <c r="D164" s="32"/>
-      <c r="E164" s="34"/>
-      <c r="F164" s="34"/>
-    </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A165" s="36">
-        <v>123</v>
-      </c>
-      <c r="B165" s="33" t="s">
-        <v>110</v>
-      </c>
-      <c r="C165" s="36" t="s">
-        <v>265</v>
-      </c>
-      <c r="D165" s="30" t="s">
-        <v>264</v>
-      </c>
-      <c r="E165" s="33"/>
-      <c r="F165" s="33"/>
-    </row>
-    <row r="166" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A166" s="37"/>
-      <c r="B166" s="34"/>
-      <c r="C166" s="37"/>
-      <c r="D166" s="32"/>
-      <c r="E166" s="34"/>
-      <c r="F166" s="34"/>
-    </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A167" s="36">
-        <v>124</v>
-      </c>
-      <c r="B167" s="33" t="s">
-        <v>110</v>
-      </c>
-      <c r="C167" s="36" t="s">
-        <v>266</v>
-      </c>
-      <c r="D167" s="30" t="s">
-        <v>264</v>
-      </c>
-      <c r="E167" s="33"/>
-      <c r="F167" s="33"/>
-    </row>
-    <row r="168" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A168" s="37"/>
-      <c r="B168" s="34"/>
-      <c r="C168" s="37"/>
-      <c r="D168" s="32"/>
-      <c r="E168" s="34"/>
-      <c r="F168" s="34"/>
-    </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A169" s="36">
-        <v>125</v>
-      </c>
-      <c r="B169" s="33" t="s">
-        <v>110</v>
-      </c>
-      <c r="C169" s="36" t="s">
-        <v>267</v>
-      </c>
-      <c r="D169" s="30" t="s">
-        <v>264</v>
-      </c>
-      <c r="E169" s="33"/>
-      <c r="F169" s="33"/>
-    </row>
-    <row r="170" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A170" s="37"/>
-      <c r="B170" s="34"/>
-      <c r="C170" s="37"/>
-      <c r="D170" s="32"/>
-      <c r="E170" s="34"/>
-      <c r="F170" s="34"/>
-    </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A171" s="36">
-        <v>126</v>
-      </c>
-      <c r="B171" s="33" t="s">
-        <v>110</v>
-      </c>
-      <c r="C171" s="36" t="s">
-        <v>268</v>
-      </c>
-      <c r="D171" s="30" t="s">
-        <v>264</v>
-      </c>
-      <c r="E171" s="33"/>
-      <c r="F171" s="33"/>
-    </row>
-    <row r="172" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A172" s="37"/>
-      <c r="B172" s="34"/>
-      <c r="C172" s="37"/>
-      <c r="D172" s="32"/>
-      <c r="E172" s="34"/>
-      <c r="F172" s="34"/>
-    </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A173" s="36">
-        <v>127</v>
-      </c>
-      <c r="B173" s="33" t="s">
-        <v>110</v>
-      </c>
-      <c r="C173" s="36" t="s">
-        <v>269</v>
-      </c>
-      <c r="D173" s="30" t="s">
-        <v>264</v>
-      </c>
-      <c r="E173" s="33"/>
-      <c r="F173" s="33"/>
-    </row>
-    <row r="174" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A174" s="29"/>
-      <c r="B174" s="32"/>
-      <c r="C174" s="29"/>
-      <c r="D174" s="32"/>
-      <c r="E174" s="32"/>
-      <c r="F174" s="32"/>
-    </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A175" s="42" t="s">
-        <v>257</v>
-      </c>
-      <c r="B175" s="43"/>
-      <c r="C175" s="43"/>
-      <c r="D175" s="43"/>
-      <c r="E175" s="43"/>
-      <c r="F175" s="44"/>
+      <c r="B175" s="46"/>
+      <c r="C175" s="46"/>
+      <c r="D175" s="46"/>
+      <c r="E175" s="46"/>
+      <c r="F175" s="47"/>
     </row>
     <row r="176" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A176" s="45"/>
-      <c r="B176" s="46"/>
-      <c r="C176" s="46"/>
-      <c r="D176" s="46"/>
-      <c r="E176" s="46"/>
-      <c r="F176" s="47"/>
+      <c r="A176" s="48"/>
+      <c r="B176" s="49"/>
+      <c r="C176" s="49"/>
+      <c r="D176" s="49"/>
+      <c r="E176" s="49"/>
+      <c r="F176" s="50"/>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A177" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="B177" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="B177" s="5" t="s">
+      <c r="C177" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="C177" s="5" t="s">
-        <v>201</v>
-      </c>
       <c r="D177" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="E177" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="E177" s="5" t="s">
-        <v>207</v>
-      </c>
       <c r="F177" s="5" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.2">
@@ -4293,16 +4316,16 @@
         <v>1010</v>
       </c>
       <c r="B178" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C178" s="5" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D178" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E178" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F178" s="5"/>
     </row>
@@ -4311,14 +4334,14 @@
         <v>1011</v>
       </c>
       <c r="B179" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C179" s="5"/>
       <c r="D179" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E179" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F179" s="5"/>
     </row>
@@ -4327,14 +4350,14 @@
         <v>1012</v>
       </c>
       <c r="B180" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C180" s="5"/>
       <c r="D180" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E180" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F180" s="5"/>
     </row>
@@ -4343,14 +4366,14 @@
         <v>1013</v>
       </c>
       <c r="B181" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C181" s="5"/>
       <c r="D181" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E181" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F181" s="5"/>
     </row>
@@ -4359,14 +4382,14 @@
         <v>1014</v>
       </c>
       <c r="B182" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C182" s="5"/>
       <c r="D182" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E182" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F182" s="5"/>
     </row>
@@ -4375,14 +4398,14 @@
         <v>1015</v>
       </c>
       <c r="B183" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C183" s="5"/>
       <c r="D183" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E183" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F183" s="5"/>
     </row>
@@ -4391,14 +4414,14 @@
         <v>1016</v>
       </c>
       <c r="B184" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C184" s="5"/>
       <c r="D184" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E184" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F184" s="5"/>
     </row>
@@ -4407,182 +4430,190 @@
         <v>1017</v>
       </c>
       <c r="B185" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C185" s="5"/>
       <c r="D185" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E185" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F185" s="5"/>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A186" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B186" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C186" s="5"/>
       <c r="D186" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="E186" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="F186" s="5"/>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A187" s="4">
+        <v>1091</v>
+      </c>
+      <c r="B187" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="C187" s="5"/>
+      <c r="D187" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="E186" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="F186" s="5"/>
-    </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A187" s="4"/>
-      <c r="B187" s="5"/>
-      <c r="C187" s="5"/>
-      <c r="D187" s="5"/>
-      <c r="E187" s="5"/>
+      <c r="E187" s="5" t="s">
+        <v>214</v>
+      </c>
       <c r="F187" s="5"/>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A188" s="4">
-        <v>1091</v>
+        <v>1092</v>
       </c>
       <c r="B188" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C188" s="5"/>
       <c r="D188" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E188" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F188" s="5"/>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A189" s="4">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="B189" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C189" s="5"/>
       <c r="D189" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E189" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F189" s="5"/>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A190" s="4">
-        <v>1093</v>
+        <v>1094</v>
       </c>
       <c r="B190" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C190" s="5"/>
       <c r="D190" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E190" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F190" s="5"/>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A191" s="4">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="B191" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C191" s="5"/>
       <c r="D191" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E191" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F191" s="5"/>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A192" s="4">
-        <v>1095</v>
+        <v>1096</v>
       </c>
       <c r="B192" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C192" s="5"/>
       <c r="D192" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E192" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F192" s="5"/>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A193" s="4">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="B193" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C193" s="5"/>
       <c r="D193" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E193" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F193" s="5"/>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A194" s="4">
-        <v>1097</v>
+        <v>1098</v>
       </c>
       <c r="B194" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C194" s="5"/>
       <c r="D194" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E194" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F194" s="5"/>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A195" s="4">
-        <v>1098</v>
+        <v>1099</v>
       </c>
       <c r="B195" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C195" s="5"/>
       <c r="D195" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E195" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F195" s="5"/>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A196" s="4">
-        <v>1099</v>
+      <c r="A196" s="4" t="s">
+        <v>208</v>
       </c>
       <c r="B196" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C196" s="5"/>
       <c r="D196" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E196" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F196" s="5"/>
     </row>
@@ -4591,188 +4622,196 @@
         <v>209</v>
       </c>
       <c r="B197" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C197" s="5"/>
       <c r="D197" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E197" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F197" s="5"/>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A198" s="4" t="s">
-        <v>210</v>
+      <c r="A198" s="4">
+        <v>1081</v>
       </c>
       <c r="B198" s="5" t="s">
         <v>203</v>
       </c>
       <c r="C198" s="5"/>
       <c r="D198" s="5" t="s">
-        <v>214</v>
+        <v>257</v>
       </c>
       <c r="E198" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F198" s="5"/>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A199" s="4"/>
-      <c r="B199" s="5"/>
+      <c r="A199" s="4">
+        <v>1082</v>
+      </c>
+      <c r="B199" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="C199" s="5"/>
-      <c r="D199" s="5"/>
-      <c r="E199" s="5"/>
+      <c r="D199" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="E199" s="5" t="s">
+        <v>214</v>
+      </c>
       <c r="F199" s="5"/>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A200" s="4">
-        <v>1081</v>
+        <v>1083</v>
       </c>
       <c r="B200" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C200" s="5"/>
       <c r="D200" s="5" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E200" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F200" s="5"/>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A201" s="4">
-        <v>1082</v>
+        <v>1084</v>
       </c>
       <c r="B201" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C201" s="5"/>
       <c r="D201" s="5" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E201" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F201" s="5"/>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A202" s="4">
-        <v>1083</v>
+        <v>1085</v>
       </c>
       <c r="B202" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C202" s="5"/>
       <c r="D202" s="5" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E202" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F202" s="5"/>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A203" s="4">
-        <v>1084</v>
+        <v>1086</v>
       </c>
       <c r="B203" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C203" s="5"/>
       <c r="D203" s="5" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E203" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F203" s="5"/>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A204" s="4">
-        <v>1085</v>
+        <v>1087</v>
       </c>
       <c r="B204" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C204" s="5"/>
       <c r="D204" s="5" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E204" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F204" s="5"/>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A205" s="4">
-        <v>1086</v>
+        <v>1088</v>
       </c>
       <c r="B205" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C205" s="5"/>
       <c r="D205" s="5" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E205" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F205" s="5"/>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A206" s="4">
-        <v>1087</v>
+        <v>1089</v>
       </c>
       <c r="B206" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C206" s="5"/>
       <c r="D206" s="5" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E206" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F206" s="5"/>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A207" s="4">
-        <v>1088</v>
+      <c r="A207" s="4" t="s">
+        <v>210</v>
       </c>
       <c r="B207" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C207" s="5"/>
       <c r="D207" s="5" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E207" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F207" s="5"/>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A208" s="4">
-        <v>1089</v>
+      <c r="A208" s="4" t="s">
+        <v>211</v>
       </c>
       <c r="B208" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C208" s="5"/>
       <c r="D208" s="5" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E208" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F208" s="5"/>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A209" s="4" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="B209" s="5" t="s">
         <v>204</v>
@@ -4782,13 +4821,13 @@
         <v>258</v>
       </c>
       <c r="E209" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F209" s="5"/>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A210" s="4" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="B210" s="5" t="s">
         <v>204</v>
@@ -4798,745 +4837,857 @@
         <v>258</v>
       </c>
       <c r="E210" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F210" s="5"/>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A211" s="4"/>
-      <c r="B211" s="5"/>
+      <c r="A211" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="B211" s="5" t="s">
+        <v>204</v>
+      </c>
       <c r="C211" s="5"/>
-      <c r="D211" s="5"/>
-      <c r="E211" s="5"/>
+      <c r="D211" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="E211" s="5" t="s">
+        <v>214</v>
+      </c>
       <c r="F211" s="5"/>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A212" s="4" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B212" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C212" s="5"/>
       <c r="D212" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E212" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F212" s="5"/>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A213" s="4" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B213" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C213" s="5"/>
       <c r="D213" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E213" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F213" s="5"/>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A214" s="4" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B214" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C214" s="5"/>
       <c r="D214" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E214" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F214" s="5"/>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A215" s="4" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B215" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C215" s="5"/>
       <c r="D215" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E215" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F215" s="5"/>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A216" s="4" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B216" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C216" s="5"/>
       <c r="D216" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E216" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F216" s="5"/>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A217" s="4" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B217" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C217" s="5"/>
       <c r="D217" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E217" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F217" s="5"/>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A218" s="4" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B218" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C218" s="5"/>
       <c r="D218" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E218" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F218" s="5"/>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A219" s="4" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B219" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C219" s="5"/>
       <c r="D219" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E219" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F219" s="5"/>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A220" s="4" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B220" s="5" t="s">
-        <v>205</v>
+        <v>237</v>
       </c>
       <c r="C220" s="5"/>
       <c r="D220" s="5" t="s">
         <v>259</v>
       </c>
       <c r="E220" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F220" s="5"/>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A221" s="4" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B221" s="5" t="s">
-        <v>205</v>
+        <v>237</v>
       </c>
       <c r="C221" s="5"/>
       <c r="D221" s="5" t="s">
         <v>259</v>
       </c>
       <c r="E221" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F221" s="5"/>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A222" s="4" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B222" s="5" t="s">
-        <v>205</v>
+        <v>237</v>
       </c>
       <c r="C222" s="5"/>
       <c r="D222" s="5" t="s">
         <v>259</v>
       </c>
       <c r="E222" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F222" s="5"/>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A223" s="4"/>
-      <c r="B223" s="5"/>
+      <c r="A223" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="B223" s="5" t="s">
+        <v>237</v>
+      </c>
       <c r="C223" s="5"/>
-      <c r="D223" s="5"/>
-      <c r="E223" s="5"/>
+      <c r="D223" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="E223" s="5" t="s">
+        <v>214</v>
+      </c>
       <c r="F223" s="5"/>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A224" s="4" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="B224" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C224" s="5"/>
       <c r="D224" s="5" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E224" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F224" s="5"/>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A225" s="4" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="B225" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C225" s="5"/>
       <c r="D225" s="5" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E225" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F225" s="5"/>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A226" s="4" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="B226" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C226" s="5"/>
       <c r="D226" s="5" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E226" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F226" s="5"/>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A227" s="4" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="B227" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C227" s="5"/>
       <c r="D227" s="5" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E227" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F227" s="5"/>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A228" s="4" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="B228" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C228" s="5"/>
       <c r="D228" s="5" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E228" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F228" s="5"/>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A229" s="4" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="B229" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C229" s="5"/>
       <c r="D229" s="5" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E229" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F229" s="5"/>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A230" s="4" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="B230" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C230" s="5"/>
       <c r="D230" s="5" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E230" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F230" s="5"/>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A231" s="4" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="B231" s="5" t="s">
-        <v>238</v>
+        <v>249</v>
       </c>
       <c r="C231" s="5"/>
       <c r="D231" s="5" t="s">
         <v>260</v>
       </c>
       <c r="E231" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F231" s="5"/>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A232" s="4" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="B232" s="5" t="s">
-        <v>238</v>
+        <v>249</v>
       </c>
       <c r="C232" s="5"/>
       <c r="D232" s="5" t="s">
         <v>260</v>
       </c>
       <c r="E232" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F232" s="5"/>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A233" s="4" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="B233" s="5" t="s">
-        <v>238</v>
+        <v>249</v>
       </c>
       <c r="C233" s="5"/>
       <c r="D233" s="5" t="s">
         <v>260</v>
       </c>
       <c r="E233" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F233" s="5"/>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A234" s="4" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="B234" s="5" t="s">
-        <v>238</v>
+        <v>249</v>
       </c>
       <c r="C234" s="5"/>
       <c r="D234" s="5" t="s">
         <v>260</v>
       </c>
       <c r="E234" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F234" s="5"/>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A235" s="4"/>
-      <c r="B235" s="5"/>
+      <c r="A235" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="B235" s="5" t="s">
+        <v>249</v>
+      </c>
       <c r="C235" s="5"/>
-      <c r="D235" s="5"/>
-      <c r="E235" s="5"/>
+      <c r="D235" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="E235" s="5" t="s">
+        <v>214</v>
+      </c>
       <c r="F235" s="5"/>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A236" s="4" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="B236" s="5" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C236" s="5"/>
       <c r="D236" s="5" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E236" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F236" s="5"/>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A237" s="4" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="B237" s="5" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C237" s="5"/>
       <c r="D237" s="5" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E237" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F237" s="5"/>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A238" s="4" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="B238" s="5" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C238" s="5"/>
       <c r="D238" s="5" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E238" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F238" s="5"/>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A239" s="4" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="B239" s="5" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C239" s="5"/>
       <c r="D239" s="5" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E239" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F239" s="5"/>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A240" s="4" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="B240" s="5" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C240" s="5"/>
       <c r="D240" s="5" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E240" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F240" s="5"/>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A241" s="4" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="B241" s="5" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C241" s="5"/>
       <c r="D241" s="5" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E241" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F241" s="5"/>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A242" s="4" t="s">
-        <v>245</v>
+      <c r="A242" s="4">
+        <v>1171</v>
       </c>
       <c r="B242" s="5" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="C242" s="5"/>
       <c r="D242" s="5" t="s">
         <v>261</v>
       </c>
       <c r="E242" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F242" s="5"/>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A243" s="4" t="s">
-        <v>246</v>
+      <c r="A243" s="4">
+        <v>1172</v>
       </c>
       <c r="B243" s="5" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="C243" s="5"/>
       <c r="D243" s="5" t="s">
         <v>261</v>
       </c>
       <c r="E243" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F243" s="5"/>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A244" s="4" t="s">
-        <v>247</v>
+      <c r="A244" s="4">
+        <v>1173</v>
       </c>
       <c r="B244" s="5" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="C244" s="5"/>
       <c r="D244" s="5" t="s">
         <v>261</v>
       </c>
       <c r="E244" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F244" s="5"/>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A245" s="4" t="s">
-        <v>248</v>
+      <c r="A245" s="4">
+        <v>1174</v>
       </c>
       <c r="B245" s="5" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="C245" s="5"/>
       <c r="D245" s="5" t="s">
         <v>261</v>
       </c>
       <c r="E245" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F245" s="5"/>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A246" s="4" t="s">
-        <v>249</v>
+      <c r="A246" s="4">
+        <v>1175</v>
       </c>
       <c r="B246" s="5" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="C246" s="5"/>
       <c r="D246" s="5" t="s">
         <v>261</v>
       </c>
       <c r="E246" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F246" s="5"/>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A247" s="4"/>
-      <c r="B247" s="5"/>
+      <c r="A247" s="4">
+        <v>1176</v>
+      </c>
+      <c r="B247" s="5" t="s">
+        <v>252</v>
+      </c>
       <c r="C247" s="5"/>
-      <c r="D247" s="5"/>
-      <c r="E247" s="5"/>
+      <c r="D247" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="E247" s="5" t="s">
+        <v>214</v>
+      </c>
       <c r="F247" s="5"/>
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A248" s="4">
-        <v>1171</v>
+        <v>1177</v>
       </c>
       <c r="B248" s="5" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C248" s="5"/>
       <c r="D248" s="5" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E248" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F248" s="5"/>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A249" s="4">
-        <v>1172</v>
+        <v>1178</v>
       </c>
       <c r="B249" s="5" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C249" s="5"/>
       <c r="D249" s="5" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E249" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F249" s="5"/>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A250" s="4">
-        <v>1173</v>
+        <v>1179</v>
       </c>
       <c r="B250" s="5" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C250" s="5"/>
       <c r="D250" s="5" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E250" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F250" s="5"/>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A251" s="4">
-        <v>1174</v>
+      <c r="A251" s="4" t="s">
+        <v>250</v>
       </c>
       <c r="B251" s="5" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C251" s="5"/>
       <c r="D251" s="5" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E251" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F251" s="5"/>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A252" s="4">
-        <v>1175</v>
+      <c r="A252" s="4" t="s">
+        <v>251</v>
       </c>
       <c r="B252" s="5" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C252" s="5"/>
       <c r="D252" s="5" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E252" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F252" s="5"/>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A253" s="4">
-        <v>1176</v>
+        <v>1271</v>
       </c>
       <c r="B253" s="5" t="s">
-        <v>253</v>
+        <v>276</v>
       </c>
       <c r="C253" s="5"/>
       <c r="D253" s="5" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="E253" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F253" s="5"/>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A254" s="4">
-        <v>1177</v>
+        <v>1272</v>
       </c>
       <c r="B254" s="5" t="s">
-        <v>253</v>
+        <v>276</v>
       </c>
       <c r="C254" s="5"/>
       <c r="D254" s="5" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="E254" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F254" s="5"/>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A255" s="4">
-        <v>1178</v>
+        <v>1273</v>
       </c>
       <c r="B255" s="5" t="s">
-        <v>253</v>
+        <v>276</v>
       </c>
       <c r="C255" s="5"/>
       <c r="D255" s="5" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="E255" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F255" s="5"/>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A256" s="4">
-        <v>1179</v>
+        <v>1274</v>
       </c>
       <c r="B256" s="5" t="s">
-        <v>253</v>
+        <v>276</v>
       </c>
       <c r="C256" s="5"/>
       <c r="D256" s="5" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="E256" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F256" s="5"/>
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A257" s="4" t="s">
-        <v>251</v>
+      <c r="A257" s="4">
+        <v>1275</v>
       </c>
       <c r="B257" s="5" t="s">
-        <v>253</v>
+        <v>276</v>
       </c>
       <c r="C257" s="5"/>
       <c r="D257" s="5" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="E257" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F257" s="5"/>
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A258" s="4" t="s">
-        <v>252</v>
+      <c r="A258" s="4">
+        <v>1276</v>
       </c>
       <c r="B258" s="5" t="s">
-        <v>253</v>
+        <v>276</v>
       </c>
       <c r="C258" s="5"/>
       <c r="D258" s="5" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="E258" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F258" s="5"/>
+    </row>
+    <row r="259" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A259" s="4">
+        <v>1277</v>
+      </c>
+      <c r="B259" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="C259" s="5"/>
+      <c r="D259" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="E259" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="F259" s="5"/>
+    </row>
+    <row r="260" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A260" s="4">
+        <v>1278</v>
+      </c>
+      <c r="B260" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="C260" s="5"/>
+      <c r="D260" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="E260" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="F260" s="5"/>
+    </row>
+    <row r="261" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A261" s="4">
+        <v>1279</v>
+      </c>
+      <c r="B261" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="C261" s="5"/>
+      <c r="D261" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="E261" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="F261" s="5"/>
+    </row>
+    <row r="262" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A262" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="B262" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="C262" s="5"/>
+      <c r="D262" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="E262" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="F262" s="5"/>
+    </row>
+    <row r="263" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A263" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="B263" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="C263" s="5"/>
+      <c r="D263" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="E263" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="F263" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="481">
@@ -5577,8 +5728,6 @@
     <mergeCell ref="B165:B166"/>
     <mergeCell ref="A167:A168"/>
     <mergeCell ref="B167:B168"/>
-    <mergeCell ref="E155:E156"/>
-    <mergeCell ref="E157:E158"/>
     <mergeCell ref="E159:E160"/>
     <mergeCell ref="E161:E162"/>
     <mergeCell ref="E125:E126"/>
@@ -5590,6 +5739,7 @@
     <mergeCell ref="E117:E118"/>
     <mergeCell ref="E119:E120"/>
     <mergeCell ref="E121:E122"/>
+    <mergeCell ref="E149:E150"/>
     <mergeCell ref="A107:F107"/>
     <mergeCell ref="E109:E112"/>
     <mergeCell ref="A159:A160"/>
@@ -5629,9 +5779,10 @@
     <mergeCell ref="C153:C154"/>
     <mergeCell ref="D153:D154"/>
     <mergeCell ref="F153:F154"/>
-    <mergeCell ref="E149:E150"/>
     <mergeCell ref="E151:E152"/>
     <mergeCell ref="E153:E154"/>
+    <mergeCell ref="E155:E156"/>
+    <mergeCell ref="E157:E158"/>
     <mergeCell ref="A145:A146"/>
     <mergeCell ref="B145:B146"/>
     <mergeCell ref="C145:C146"/>
@@ -5758,24 +5909,6 @@
     <mergeCell ref="E61:E62"/>
     <mergeCell ref="E3:E4"/>
     <mergeCell ref="E5:E6"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="A99:A100"/>
-    <mergeCell ref="B99:B100"/>
-    <mergeCell ref="C99:C100"/>
-    <mergeCell ref="D99:D100"/>
-    <mergeCell ref="A91:A92"/>
-    <mergeCell ref="B91:B92"/>
-    <mergeCell ref="C91:C92"/>
-    <mergeCell ref="D91:D92"/>
-    <mergeCell ref="A83:A84"/>
-    <mergeCell ref="B83:B84"/>
-    <mergeCell ref="C83:C84"/>
-    <mergeCell ref="D83:D84"/>
-    <mergeCell ref="A75:A76"/>
-    <mergeCell ref="B75:B76"/>
     <mergeCell ref="A103:A104"/>
     <mergeCell ref="B103:B104"/>
     <mergeCell ref="C103:C104"/>
@@ -5802,6 +5935,10 @@
     <mergeCell ref="C97:C98"/>
     <mergeCell ref="D97:D98"/>
     <mergeCell ref="F97:F98"/>
+    <mergeCell ref="A99:A100"/>
+    <mergeCell ref="B99:B100"/>
+    <mergeCell ref="C99:C100"/>
+    <mergeCell ref="D99:D100"/>
     <mergeCell ref="F91:F92"/>
     <mergeCell ref="A93:A94"/>
     <mergeCell ref="B93:B94"/>
@@ -5818,6 +5955,10 @@
     <mergeCell ref="C89:C90"/>
     <mergeCell ref="D89:D90"/>
     <mergeCell ref="F89:F90"/>
+    <mergeCell ref="A91:A92"/>
+    <mergeCell ref="B91:B92"/>
+    <mergeCell ref="C91:C92"/>
+    <mergeCell ref="D91:D92"/>
     <mergeCell ref="F83:F84"/>
     <mergeCell ref="A85:A86"/>
     <mergeCell ref="B85:B86"/>
@@ -5834,8 +5975,10 @@
     <mergeCell ref="C81:C82"/>
     <mergeCell ref="D81:D82"/>
     <mergeCell ref="F81:F82"/>
-    <mergeCell ref="C75:C76"/>
-    <mergeCell ref="D75:D76"/>
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="B83:B84"/>
+    <mergeCell ref="C83:C84"/>
+    <mergeCell ref="D83:D84"/>
     <mergeCell ref="F75:F76"/>
     <mergeCell ref="A77:A78"/>
     <mergeCell ref="B77:B78"/>
@@ -5853,10 +5996,10 @@
     <mergeCell ref="D73:D74"/>
     <mergeCell ref="F73:F74"/>
     <mergeCell ref="E71:E72"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="C67:C68"/>
-    <mergeCell ref="D67:D68"/>
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="C75:C76"/>
+    <mergeCell ref="D75:D76"/>
     <mergeCell ref="F67:F68"/>
     <mergeCell ref="A69:A70"/>
     <mergeCell ref="B69:B70"/>
@@ -5877,6 +6020,10 @@
     <mergeCell ref="F65:F66"/>
     <mergeCell ref="E63:E64"/>
     <mergeCell ref="E65:E66"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="C67:C68"/>
+    <mergeCell ref="D67:D68"/>
     <mergeCell ref="A59:A60"/>
     <mergeCell ref="B59:B60"/>
     <mergeCell ref="C59:C60"/>
@@ -5981,9 +6128,18 @@
     <mergeCell ref="F29:F30"/>
     <mergeCell ref="E27:E28"/>
     <mergeCell ref="E29:E30"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="B13:B22"/>
+    <mergeCell ref="C13:C22"/>
+    <mergeCell ref="F13:F22"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="A13:A22"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="E23:E24"/>
     <mergeCell ref="A23:A24"/>
     <mergeCell ref="B23:B24"/>
     <mergeCell ref="C23:C24"/>
@@ -5994,10 +6150,13 @@
     <mergeCell ref="C25:C26"/>
     <mergeCell ref="D25:D26"/>
     <mergeCell ref="F25:F26"/>
-    <mergeCell ref="B13:B22"/>
-    <mergeCell ref="C13:C22"/>
-    <mergeCell ref="F13:F22"/>
-    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="C3:C4"/>
@@ -6008,19 +6167,11 @@
     <mergeCell ref="C5:C6"/>
     <mergeCell ref="F5:F6"/>
     <mergeCell ref="D5:D6"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="A13:A22"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="E9:E10"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/复成6600项目通讯接口数据表V1.0.xlsx
+++ b/复成6600项目通讯接口数据表V1.0.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\60232\Desktop\Rehand6600\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6581C888-8405-4E31-92BD-5B51E41CA731}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E3B022B-487F-41CD-AED8-F66F63E89E36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30" yWindow="1110" windowWidth="28770" windowHeight="15090" xr2:uid="{D90371CC-6FC8-423E-8360-AE94A910F611}"/>
+    <workbookView xWindow="19090" yWindow="640" windowWidth="19420" windowHeight="10300" xr2:uid="{D90371CC-6FC8-423E-8360-AE94A910F611}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="699" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="701" uniqueCount="280">
   <si>
     <t>编号</t>
   </si>
@@ -604,10 +604,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>uint16； 0：静止 1：上旋 3：下旋 4;单独伸缩</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>int16； 0：关闭 1：一键站立 2;一键坐下</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1012,6 +1008,18 @@
   </si>
   <si>
     <t>ErrorID+Chassis motor Error</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>软件版本</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>uint16；</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>uint16； 0：静止 1：上旋 2：下旋 3;单独伸缩</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1489,108 +1497,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1608,6 +1514,108 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1925,8 +1933,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB0936CE-2BB3-46F3-BCDA-EC05AB030230}">
   <dimension ref="A1:F263"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7:E8"/>
+    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E53" sqref="E53:E54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1940,14 +1948,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="30" x14ac:dyDescent="0.2">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="27" t="s">
         <v>109</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="31"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="29"/>
     </row>
     <row r="2" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
@@ -1970,153 +1978,153 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="11">
+      <c r="A3" s="38">
         <v>0</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="35" t="s">
         <v>82</v>
       </c>
-      <c r="F3" s="13" t="s">
-        <v>270</v>
+      <c r="F3" s="33" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="11"/>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="13"/>
+      <c r="A4" s="38"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="33"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="11">
+      <c r="A5" s="38">
         <v>1</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="E5" s="35" t="s">
         <v>82</v>
       </c>
-      <c r="F5" s="13" t="s">
+      <c r="F5" s="33" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="11"/>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="13"/>
+      <c r="A6" s="38"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="33"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="11">
+      <c r="A7" s="38">
         <v>2</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="25" t="s">
         <v>81</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="E7" s="35" t="s">
         <v>85</v>
       </c>
-      <c r="F7" s="13" t="s">
+      <c r="F7" s="33" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="11"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="13"/>
+      <c r="A8" s="38"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="33"/>
     </row>
     <row r="9" spans="1:6" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="11">
+      <c r="A9" s="38">
         <v>3</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="25" t="s">
         <v>160</v>
       </c>
-      <c r="E9" s="14" t="s">
+      <c r="E9" s="35" t="s">
         <v>82</v>
       </c>
-      <c r="F9" s="13" t="s">
+      <c r="F9" s="33" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="11"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="13"/>
+      <c r="A10" s="38"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="33"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="11">
+      <c r="A11" s="38">
         <v>4</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="14" t="s">
+      <c r="D11" s="35" t="s">
         <v>83</v>
       </c>
-      <c r="E11" s="14" t="s">
+      <c r="E11" s="35" t="s">
         <v>87</v>
       </c>
-      <c r="F11" s="13" t="s">
+      <c r="F11" s="33" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="11"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="21"/>
+      <c r="A12" s="38"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="47"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="22">
+      <c r="A13" s="48">
         <v>5</v>
       </c>
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="14" t="s">
+      <c r="C13" s="35" t="s">
         <v>13</v>
       </c>
       <c r="D13" s="1" t="s">
@@ -2125,1261 +2133,1265 @@
       <c r="E13" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="F13" s="18" t="s">
+      <c r="F13" s="43" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="23"/>
-      <c r="B14" s="17"/>
-      <c r="C14" s="17"/>
+      <c r="A14" s="49"/>
+      <c r="B14" s="45"/>
+      <c r="C14" s="45"/>
       <c r="D14" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="F14" s="19"/>
+      <c r="F14" s="46"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="23"/>
-      <c r="B15" s="17"/>
-      <c r="C15" s="17"/>
+      <c r="A15" s="49"/>
+      <c r="B15" s="45"/>
+      <c r="C15" s="45"/>
       <c r="D15" s="1" t="s">
         <v>89</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F15" s="19"/>
+      <c r="F15" s="46"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="23"/>
-      <c r="B16" s="17"/>
-      <c r="C16" s="17"/>
+      <c r="A16" s="49"/>
+      <c r="B16" s="45"/>
+      <c r="C16" s="45"/>
       <c r="D16" s="1" t="s">
         <v>90</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F16" s="19"/>
+      <c r="F16" s="46"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="23"/>
-      <c r="B17" s="17"/>
-      <c r="C17" s="17"/>
+      <c r="A17" s="49"/>
+      <c r="B17" s="45"/>
+      <c r="C17" s="45"/>
       <c r="D17" s="1" t="s">
         <v>91</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F17" s="19"/>
+      <c r="F17" s="46"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="23"/>
-      <c r="B18" s="17"/>
-      <c r="C18" s="17"/>
+      <c r="A18" s="49"/>
+      <c r="B18" s="45"/>
+      <c r="C18" s="45"/>
       <c r="D18" s="1" t="s">
         <v>92</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F18" s="19"/>
+      <c r="F18" s="46"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="23"/>
-      <c r="B19" s="17"/>
-      <c r="C19" s="17"/>
+      <c r="A19" s="49"/>
+      <c r="B19" s="45"/>
+      <c r="C19" s="45"/>
       <c r="D19" s="1" t="s">
         <v>93</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F19" s="19"/>
+      <c r="F19" s="46"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="23"/>
-      <c r="B20" s="17"/>
-      <c r="C20" s="17"/>
+      <c r="A20" s="49"/>
+      <c r="B20" s="45"/>
+      <c r="C20" s="45"/>
       <c r="D20" s="1" t="s">
         <v>94</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F20" s="19"/>
+      <c r="F20" s="46"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="23"/>
-      <c r="B21" s="17"/>
-      <c r="C21" s="17"/>
+      <c r="A21" s="49"/>
+      <c r="B21" s="45"/>
+      <c r="C21" s="45"/>
       <c r="D21" s="1" t="s">
         <v>96</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F21" s="19"/>
+      <c r="F21" s="46"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="24"/>
-      <c r="B22" s="15"/>
-      <c r="C22" s="15"/>
+      <c r="A22" s="50"/>
+      <c r="B22" s="36"/>
+      <c r="C22" s="36"/>
       <c r="D22" s="1" t="s">
         <v>97</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F22" s="20"/>
+      <c r="F22" s="42"/>
     </row>
     <row r="23" spans="1:6" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="11">
+      <c r="A23" s="38">
         <v>6</v>
       </c>
-      <c r="B23" s="12" t="s">
+      <c r="B23" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="C23" s="12" t="s">
+      <c r="C23" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="D23" s="12" t="s">
+      <c r="D23" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="E23" s="14" t="s">
+      <c r="E23" s="35" t="s">
         <v>82</v>
       </c>
-      <c r="F23" s="16" t="s">
+      <c r="F23" s="37" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="11"/>
-      <c r="B24" s="12"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="16"/>
+      <c r="A24" s="38"/>
+      <c r="B24" s="25"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="36"/>
+      <c r="F24" s="37"/>
     </row>
     <row r="25" spans="1:6" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="11">
+      <c r="A25" s="38">
         <v>7</v>
       </c>
-      <c r="B25" s="12" t="s">
+      <c r="B25" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="C25" s="12" t="s">
+      <c r="C25" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="D25" s="12" t="s">
+      <c r="D25" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="E25" s="14" t="s">
+      <c r="E25" s="35" t="s">
         <v>82</v>
       </c>
-      <c r="F25" s="16" t="s">
+      <c r="F25" s="37" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="11"/>
-      <c r="B26" s="12"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="16"/>
+      <c r="A26" s="38"/>
+      <c r="B26" s="25"/>
+      <c r="C26" s="25"/>
+      <c r="D26" s="25"/>
+      <c r="E26" s="36"/>
+      <c r="F26" s="37"/>
     </row>
     <row r="27" spans="1:6" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="11">
+      <c r="A27" s="38">
         <v>8</v>
       </c>
-      <c r="B27" s="12" t="s">
+      <c r="B27" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="C27" s="12" t="s">
+      <c r="C27" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="D27" s="12" t="s">
+      <c r="D27" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="E27" s="14" t="s">
+      <c r="E27" s="35" t="s">
         <v>82</v>
       </c>
-      <c r="F27" s="16" t="s">
+      <c r="F27" s="37" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="11"/>
-      <c r="B28" s="12"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="16"/>
+      <c r="A28" s="38"/>
+      <c r="B28" s="25"/>
+      <c r="C28" s="25"/>
+      <c r="D28" s="25"/>
+      <c r="E28" s="36"/>
+      <c r="F28" s="37"/>
     </row>
     <row r="29" spans="1:6" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="11">
+      <c r="A29" s="38">
         <v>9</v>
       </c>
-      <c r="B29" s="12" t="s">
+      <c r="B29" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="C29" s="12" t="s">
+      <c r="C29" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="D29" s="12" t="s">
+      <c r="D29" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="E29" s="14" t="s">
+      <c r="E29" s="35" t="s">
         <v>82</v>
       </c>
-      <c r="F29" s="16" t="s">
+      <c r="F29" s="37" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" s="11"/>
-      <c r="B30" s="12"/>
-      <c r="C30" s="12"/>
-      <c r="D30" s="12"/>
-      <c r="E30" s="15"/>
-      <c r="F30" s="16"/>
+      <c r="A30" s="38"/>
+      <c r="B30" s="25"/>
+      <c r="C30" s="25"/>
+      <c r="D30" s="25"/>
+      <c r="E30" s="36"/>
+      <c r="F30" s="37"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" s="11">
+      <c r="A31" s="38">
         <v>10</v>
       </c>
-      <c r="B31" s="12" t="s">
+      <c r="B31" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="C31" s="12" t="s">
+      <c r="C31" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="D31" s="12" t="s">
+      <c r="D31" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="E31" s="14" t="s">
+      <c r="E31" s="35" t="s">
         <v>100</v>
       </c>
-      <c r="F31" s="13" t="s">
+      <c r="F31" s="33" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32" s="11"/>
-      <c r="B32" s="12"/>
-      <c r="C32" s="12"/>
-      <c r="D32" s="12"/>
-      <c r="E32" s="15"/>
-      <c r="F32" s="13"/>
+      <c r="A32" s="38"/>
+      <c r="B32" s="25"/>
+      <c r="C32" s="25"/>
+      <c r="D32" s="25"/>
+      <c r="E32" s="36"/>
+      <c r="F32" s="33"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" s="11">
+      <c r="A33" s="38">
         <v>11</v>
       </c>
-      <c r="B33" s="12" t="s">
+      <c r="B33" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="C33" s="12" t="s">
+      <c r="C33" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="D33" s="12" t="s">
+      <c r="D33" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="E33" s="14" t="s">
+      <c r="E33" s="35" t="s">
         <v>100</v>
       </c>
-      <c r="F33" s="13" t="s">
+      <c r="F33" s="33" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" s="11"/>
-      <c r="B34" s="12"/>
-      <c r="C34" s="12"/>
-      <c r="D34" s="12"/>
-      <c r="E34" s="15"/>
-      <c r="F34" s="13"/>
+      <c r="A34" s="38"/>
+      <c r="B34" s="25"/>
+      <c r="C34" s="25"/>
+      <c r="D34" s="25"/>
+      <c r="E34" s="36"/>
+      <c r="F34" s="33"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" s="11">
+      <c r="A35" s="38">
         <v>12</v>
       </c>
-      <c r="B35" s="12" t="s">
+      <c r="B35" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="C35" s="12" t="s">
+      <c r="C35" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D35" s="12" t="s">
+      <c r="D35" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="E35" s="14" t="s">
+      <c r="E35" s="35" t="s">
         <v>100</v>
       </c>
-      <c r="F35" s="13" t="s">
+      <c r="F35" s="33" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36" s="11"/>
-      <c r="B36" s="12"/>
-      <c r="C36" s="12"/>
-      <c r="D36" s="12"/>
-      <c r="E36" s="15"/>
-      <c r="F36" s="13"/>
+      <c r="A36" s="38"/>
+      <c r="B36" s="25"/>
+      <c r="C36" s="25"/>
+      <c r="D36" s="25"/>
+      <c r="E36" s="36"/>
+      <c r="F36" s="33"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37" s="11">
+      <c r="A37" s="38">
         <v>13</v>
       </c>
-      <c r="B37" s="12" t="s">
+      <c r="B37" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="C37" s="12" t="s">
+      <c r="C37" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="D37" s="12" t="s">
+      <c r="D37" s="35" t="s">
         <v>106</v>
       </c>
-      <c r="E37" s="14" t="s">
+      <c r="E37" s="35" t="s">
         <v>149</v>
       </c>
-      <c r="F37" s="13" t="s">
-        <v>185</v>
+      <c r="F37" s="43" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A38" s="11"/>
-      <c r="B38" s="12"/>
-      <c r="C38" s="12"/>
-      <c r="D38" s="12"/>
-      <c r="E38" s="15"/>
-      <c r="F38" s="13"/>
+      <c r="A38" s="38"/>
+      <c r="B38" s="25"/>
+      <c r="C38" s="25"/>
+      <c r="D38" s="36"/>
+      <c r="E38" s="36"/>
+      <c r="F38" s="44"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A39" s="11">
+      <c r="A39" s="38">
         <v>14</v>
       </c>
-      <c r="B39" s="12" t="s">
+      <c r="B39" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="C39" s="12" t="s">
+      <c r="C39" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="D39" s="12" t="s">
+      <c r="D39" s="35" t="s">
         <v>107</v>
       </c>
-      <c r="E39" s="14" t="s">
+      <c r="E39" s="35" t="s">
         <v>149</v>
       </c>
-      <c r="F39" s="13" t="s">
-        <v>185</v>
+      <c r="F39" s="43" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A40" s="11"/>
-      <c r="B40" s="12"/>
-      <c r="C40" s="12"/>
-      <c r="D40" s="12"/>
-      <c r="E40" s="15"/>
-      <c r="F40" s="13"/>
+      <c r="A40" s="38"/>
+      <c r="B40" s="25"/>
+      <c r="C40" s="25"/>
+      <c r="D40" s="36"/>
+      <c r="E40" s="36"/>
+      <c r="F40" s="44"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A41" s="11">
+      <c r="A41" s="38">
         <v>15</v>
       </c>
-      <c r="B41" s="12" t="s">
+      <c r="B41" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="C41" s="12" t="s">
+      <c r="C41" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="D41" s="12" t="s">
+      <c r="D41" s="25" t="s">
         <v>108</v>
       </c>
-      <c r="E41" s="14" t="s">
+      <c r="E41" s="35" t="s">
         <v>149</v>
       </c>
-      <c r="F41" s="13" t="s">
-        <v>185</v>
+      <c r="F41" s="33" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A42" s="11"/>
-      <c r="B42" s="12"/>
-      <c r="C42" s="12"/>
-      <c r="D42" s="12"/>
-      <c r="E42" s="15"/>
-      <c r="F42" s="13"/>
+      <c r="A42" s="38"/>
+      <c r="B42" s="25"/>
+      <c r="C42" s="25"/>
+      <c r="D42" s="25"/>
+      <c r="E42" s="36"/>
+      <c r="F42" s="33"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A43" s="11">
+      <c r="A43" s="38">
         <v>16</v>
       </c>
-      <c r="B43" s="12" t="s">
+      <c r="B43" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="C43" s="12" t="s">
+      <c r="C43" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="D43" s="12" t="s">
+      <c r="D43" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="E43" s="14" t="s">
+      <c r="E43" s="35" t="s">
         <v>150</v>
       </c>
-      <c r="F43" s="13" t="s">
-        <v>185</v>
+      <c r="F43" s="33" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A44" s="11"/>
-      <c r="B44" s="12"/>
-      <c r="C44" s="12"/>
-      <c r="D44" s="12"/>
-      <c r="E44" s="15"/>
-      <c r="F44" s="13"/>
+      <c r="A44" s="38"/>
+      <c r="B44" s="25"/>
+      <c r="C44" s="25"/>
+      <c r="D44" s="25"/>
+      <c r="E44" s="36"/>
+      <c r="F44" s="33"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A45" s="11">
+      <c r="A45" s="38">
         <v>17</v>
       </c>
-      <c r="B45" s="12" t="s">
+      <c r="B45" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="C45" s="12" t="s">
+      <c r="C45" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="D45" s="12" t="s">
+      <c r="D45" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="E45" s="14" t="s">
+      <c r="E45" s="35" t="s">
         <v>151</v>
       </c>
-      <c r="F45" s="13" t="s">
-        <v>185</v>
+      <c r="F45" s="33" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A46" s="11"/>
-      <c r="B46" s="12"/>
-      <c r="C46" s="12"/>
-      <c r="D46" s="12"/>
-      <c r="E46" s="15"/>
-      <c r="F46" s="13"/>
+      <c r="A46" s="38"/>
+      <c r="B46" s="25"/>
+      <c r="C46" s="25"/>
+      <c r="D46" s="25"/>
+      <c r="E46" s="36"/>
+      <c r="F46" s="33"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A47" s="11">
+      <c r="A47" s="38">
         <v>18</v>
       </c>
-      <c r="B47" s="12" t="s">
+      <c r="B47" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="C47" s="12" t="s">
+      <c r="C47" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="D47" s="12" t="s">
+      <c r="D47" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="E47" s="14" t="s">
+      <c r="E47" s="35" t="s">
         <v>152</v>
       </c>
-      <c r="F47" s="13" t="s">
-        <v>185</v>
+      <c r="F47" s="33" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A48" s="11"/>
-      <c r="B48" s="12"/>
-      <c r="C48" s="12"/>
-      <c r="D48" s="12"/>
-      <c r="E48" s="15"/>
-      <c r="F48" s="13"/>
+      <c r="A48" s="38"/>
+      <c r="B48" s="25"/>
+      <c r="C48" s="25"/>
+      <c r="D48" s="25"/>
+      <c r="E48" s="36"/>
+      <c r="F48" s="33"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A49" s="11">
+      <c r="A49" s="38">
         <v>19</v>
       </c>
-      <c r="B49" s="12" t="s">
+      <c r="B49" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="C49" s="12" t="s">
+      <c r="C49" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="D49" s="12" t="s">
+      <c r="D49" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="E49" s="14" t="s">
+      <c r="E49" s="35" t="s">
         <v>151</v>
       </c>
-      <c r="F49" s="13" t="s">
-        <v>185</v>
+      <c r="F49" s="33" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A50" s="11"/>
-      <c r="B50" s="12"/>
-      <c r="C50" s="12"/>
-      <c r="D50" s="12"/>
-      <c r="E50" s="15"/>
-      <c r="F50" s="13"/>
+      <c r="A50" s="38"/>
+      <c r="B50" s="25"/>
+      <c r="C50" s="25"/>
+      <c r="D50" s="25"/>
+      <c r="E50" s="36"/>
+      <c r="F50" s="33"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A51" s="11">
+      <c r="A51" s="38">
         <v>20</v>
       </c>
-      <c r="B51" s="12" t="s">
+      <c r="B51" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="C51" s="12" t="s">
+      <c r="C51" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="D51" s="14" t="s">
+      <c r="D51" s="35" t="s">
         <v>168</v>
       </c>
-      <c r="E51" s="14" t="s">
-        <v>169</v>
-      </c>
-      <c r="F51" s="13" t="s">
-        <v>185</v>
+      <c r="E51" s="35" t="s">
+        <v>279</v>
+      </c>
+      <c r="F51" s="33" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A52" s="11"/>
-      <c r="B52" s="12"/>
-      <c r="C52" s="12"/>
-      <c r="D52" s="15"/>
-      <c r="E52" s="15"/>
-      <c r="F52" s="13"/>
+      <c r="A52" s="38"/>
+      <c r="B52" s="25"/>
+      <c r="C52" s="25"/>
+      <c r="D52" s="36"/>
+      <c r="E52" s="36"/>
+      <c r="F52" s="33"/>
     </row>
     <row r="53" spans="1:6" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="11">
+      <c r="A53" s="38">
         <v>21</v>
       </c>
-      <c r="B53" s="12" t="s">
+      <c r="B53" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="C53" s="12" t="s">
+      <c r="C53" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="D53" s="14" t="s">
+      <c r="D53" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="E53" s="14" t="s">
+      <c r="E53" s="35" t="s">
         <v>82</v>
       </c>
-      <c r="F53" s="16" t="s">
+      <c r="F53" s="37" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="2.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="11"/>
-      <c r="B54" s="12"/>
-      <c r="C54" s="12"/>
-      <c r="D54" s="15"/>
-      <c r="E54" s="15"/>
-      <c r="F54" s="16"/>
+      <c r="A54" s="38"/>
+      <c r="B54" s="25"/>
+      <c r="C54" s="25"/>
+      <c r="D54" s="36"/>
+      <c r="E54" s="36"/>
+      <c r="F54" s="37"/>
     </row>
     <row r="55" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="11">
+      <c r="A55" s="38">
         <v>22</v>
       </c>
-      <c r="B55" s="12" t="s">
+      <c r="B55" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="C55" s="12" t="s">
+      <c r="C55" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="D55" s="14" t="s">
+      <c r="D55" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="E55" s="14" t="s">
+      <c r="E55" s="35" t="s">
         <v>82</v>
       </c>
-      <c r="F55" s="16" t="s">
+      <c r="F55" s="37" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A56" s="11"/>
-      <c r="B56" s="12"/>
-      <c r="C56" s="12"/>
-      <c r="D56" s="15"/>
-      <c r="E56" s="15"/>
-      <c r="F56" s="16"/>
+      <c r="A56" s="38"/>
+      <c r="B56" s="25"/>
+      <c r="C56" s="25"/>
+      <c r="D56" s="36"/>
+      <c r="E56" s="36"/>
+      <c r="F56" s="37"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A57" s="11">
+      <c r="A57" s="38">
         <v>23</v>
       </c>
-      <c r="B57" s="12" t="s">
+      <c r="B57" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="C57" s="12" t="s">
+      <c r="C57" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="D57" s="14" t="s">
+      <c r="D57" s="35" t="s">
         <v>62</v>
       </c>
-      <c r="E57" s="14" t="s">
+      <c r="E57" s="35" t="s">
         <v>82</v>
       </c>
-      <c r="F57" s="16" t="s">
+      <c r="F57" s="37" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A58" s="11"/>
-      <c r="B58" s="12"/>
-      <c r="C58" s="12"/>
-      <c r="D58" s="15"/>
-      <c r="E58" s="15"/>
-      <c r="F58" s="16"/>
+      <c r="A58" s="38"/>
+      <c r="B58" s="25"/>
+      <c r="C58" s="25"/>
+      <c r="D58" s="36"/>
+      <c r="E58" s="36"/>
+      <c r="F58" s="37"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A59" s="11">
+      <c r="A59" s="38">
         <v>24</v>
       </c>
-      <c r="B59" s="12" t="s">
+      <c r="B59" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="C59" s="12" t="s">
+      <c r="C59" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="D59" s="14" t="s">
+      <c r="D59" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="E59" s="14" t="s">
+      <c r="E59" s="35" t="s">
         <v>82</v>
       </c>
-      <c r="F59" s="16" t="s">
+      <c r="F59" s="37" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A60" s="11"/>
-      <c r="B60" s="12"/>
-      <c r="C60" s="12"/>
-      <c r="D60" s="15"/>
-      <c r="E60" s="15"/>
-      <c r="F60" s="16"/>
+      <c r="A60" s="38"/>
+      <c r="B60" s="25"/>
+      <c r="C60" s="25"/>
+      <c r="D60" s="36"/>
+      <c r="E60" s="36"/>
+      <c r="F60" s="37"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A61" s="11">
+      <c r="A61" s="38">
         <v>25</v>
       </c>
-      <c r="B61" s="12" t="s">
+      <c r="B61" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="C61" s="12" t="s">
+      <c r="C61" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="D61" s="14" t="s">
+      <c r="D61" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="E61" s="14" t="s">
+      <c r="E61" s="35" t="s">
         <v>82</v>
       </c>
-      <c r="F61" s="16" t="s">
+      <c r="F61" s="37" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A62" s="11"/>
-      <c r="B62" s="12"/>
-      <c r="C62" s="12"/>
-      <c r="D62" s="15"/>
-      <c r="E62" s="15"/>
-      <c r="F62" s="16"/>
+      <c r="A62" s="38"/>
+      <c r="B62" s="25"/>
+      <c r="C62" s="25"/>
+      <c r="D62" s="36"/>
+      <c r="E62" s="36"/>
+      <c r="F62" s="37"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A63" s="11">
+      <c r="A63" s="38">
         <v>26</v>
       </c>
-      <c r="B63" s="12" t="s">
+      <c r="B63" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="C63" s="12" t="s">
+      <c r="C63" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="D63" s="14" t="s">
+      <c r="D63" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="E63" s="14" t="s">
+      <c r="E63" s="35" t="s">
         <v>82</v>
       </c>
-      <c r="F63" s="16" t="s">
+      <c r="F63" s="37" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A64" s="11"/>
-      <c r="B64" s="12"/>
-      <c r="C64" s="12"/>
-      <c r="D64" s="15"/>
-      <c r="E64" s="15"/>
-      <c r="F64" s="16"/>
+      <c r="A64" s="38"/>
+      <c r="B64" s="25"/>
+      <c r="C64" s="25"/>
+      <c r="D64" s="36"/>
+      <c r="E64" s="36"/>
+      <c r="F64" s="37"/>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A65" s="11">
+      <c r="A65" s="38">
         <v>27</v>
       </c>
-      <c r="B65" s="12" t="s">
+      <c r="B65" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="C65" s="12" t="s">
+      <c r="C65" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="D65" s="14" t="s">
+      <c r="D65" s="35" t="s">
         <v>71</v>
       </c>
-      <c r="E65" s="14" t="s">
+      <c r="E65" s="35" t="s">
         <v>158</v>
       </c>
-      <c r="F65" s="16" t="s">
+      <c r="F65" s="37" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A66" s="11"/>
-      <c r="B66" s="12"/>
-      <c r="C66" s="12"/>
-      <c r="D66" s="15"/>
-      <c r="E66" s="15"/>
-      <c r="F66" s="16"/>
+      <c r="A66" s="38"/>
+      <c r="B66" s="25"/>
+      <c r="C66" s="25"/>
+      <c r="D66" s="36"/>
+      <c r="E66" s="36"/>
+      <c r="F66" s="37"/>
     </row>
     <row r="67" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="11">
+      <c r="A67" s="38">
         <v>28</v>
       </c>
-      <c r="B67" s="12" t="s">
+      <c r="B67" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="C67" s="12" t="s">
+      <c r="C67" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="D67" s="14" t="s">
+      <c r="D67" s="35" t="s">
         <v>73</v>
       </c>
-      <c r="E67" s="14" t="s">
+      <c r="E67" s="35" t="s">
         <v>158</v>
       </c>
-      <c r="F67" s="16" t="s">
+      <c r="F67" s="37" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A68" s="11"/>
-      <c r="B68" s="12"/>
-      <c r="C68" s="12"/>
-      <c r="D68" s="15"/>
-      <c r="E68" s="15"/>
-      <c r="F68" s="16"/>
+      <c r="A68" s="38"/>
+      <c r="B68" s="25"/>
+      <c r="C68" s="25"/>
+      <c r="D68" s="36"/>
+      <c r="E68" s="36"/>
+      <c r="F68" s="37"/>
     </row>
     <row r="69" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="11">
+      <c r="A69" s="38">
         <v>29</v>
       </c>
-      <c r="B69" s="12" t="s">
+      <c r="B69" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="C69" s="12" t="s">
+      <c r="C69" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="D69" s="14" t="s">
+      <c r="D69" s="35" t="s">
         <v>75</v>
       </c>
-      <c r="E69" s="14" t="s">
+      <c r="E69" s="35" t="s">
         <v>158</v>
       </c>
-      <c r="F69" s="16" t="s">
+      <c r="F69" s="37" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A70" s="11"/>
-      <c r="B70" s="12"/>
-      <c r="C70" s="12"/>
-      <c r="D70" s="15"/>
-      <c r="E70" s="15"/>
-      <c r="F70" s="16"/>
+      <c r="A70" s="38"/>
+      <c r="B70" s="25"/>
+      <c r="C70" s="25"/>
+      <c r="D70" s="36"/>
+      <c r="E70" s="36"/>
+      <c r="F70" s="37"/>
     </row>
     <row r="71" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="11">
+      <c r="A71" s="38">
         <v>30</v>
       </c>
-      <c r="B71" s="12" t="s">
+      <c r="B71" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="C71" s="12" t="s">
+      <c r="C71" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="D71" s="14" t="s">
+      <c r="D71" s="35" t="s">
         <v>77</v>
       </c>
-      <c r="E71" s="14" t="s">
+      <c r="E71" s="35" t="s">
         <v>158</v>
       </c>
-      <c r="F71" s="16" t="s">
+      <c r="F71" s="37" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A72" s="11"/>
-      <c r="B72" s="12"/>
-      <c r="C72" s="12"/>
-      <c r="D72" s="15"/>
-      <c r="E72" s="15"/>
-      <c r="F72" s="16"/>
+      <c r="A72" s="38"/>
+      <c r="B72" s="25"/>
+      <c r="C72" s="25"/>
+      <c r="D72" s="36"/>
+      <c r="E72" s="36"/>
+      <c r="F72" s="37"/>
     </row>
     <row r="73" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="11">
+      <c r="A73" s="38">
         <v>31</v>
       </c>
-      <c r="B73" s="12" t="s">
+      <c r="B73" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="C73" s="12" t="s">
+      <c r="C73" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="D73" s="14" t="s">
+      <c r="D73" s="35" t="s">
         <v>79</v>
       </c>
-      <c r="E73" s="14" t="s">
+      <c r="E73" s="35" t="s">
         <v>158</v>
       </c>
-      <c r="F73" s="16" t="s">
+      <c r="F73" s="37" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A74" s="11"/>
-      <c r="B74" s="12"/>
-      <c r="C74" s="12"/>
-      <c r="D74" s="15"/>
-      <c r="E74" s="15"/>
-      <c r="F74" s="16"/>
+      <c r="A74" s="38"/>
+      <c r="B74" s="25"/>
+      <c r="C74" s="25"/>
+      <c r="D74" s="36"/>
+      <c r="E74" s="36"/>
+      <c r="F74" s="37"/>
     </row>
     <row r="75" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="11">
+      <c r="A75" s="38">
         <v>32</v>
       </c>
-      <c r="B75" s="12" t="s">
+      <c r="B75" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="C75" s="12" t="s">
+      <c r="C75" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="D75" s="14" t="s">
+      <c r="D75" s="35" t="s">
         <v>103</v>
       </c>
-      <c r="E75" s="14" t="s">
+      <c r="E75" s="35" t="s">
         <v>158</v>
       </c>
-      <c r="F75" s="16" t="s">
+      <c r="F75" s="37" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A76" s="11"/>
-      <c r="B76" s="12"/>
-      <c r="C76" s="12"/>
-      <c r="D76" s="15"/>
-      <c r="E76" s="15"/>
-      <c r="F76" s="16"/>
+      <c r="A76" s="38"/>
+      <c r="B76" s="25"/>
+      <c r="C76" s="25"/>
+      <c r="D76" s="36"/>
+      <c r="E76" s="36"/>
+      <c r="F76" s="37"/>
     </row>
     <row r="77" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="11">
+      <c r="A77" s="38">
         <v>33</v>
       </c>
-      <c r="B77" s="12" t="s">
+      <c r="B77" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="C77" s="12" t="s">
+      <c r="C77" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="D77" s="14" t="s">
+      <c r="D77" s="35" t="s">
         <v>156</v>
       </c>
-      <c r="E77" s="14" t="s">
+      <c r="E77" s="35" t="s">
         <v>159</v>
       </c>
-      <c r="F77" s="13" t="s">
-        <v>185</v>
+      <c r="F77" s="33" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A78" s="11"/>
-      <c r="B78" s="12"/>
-      <c r="C78" s="12"/>
-      <c r="D78" s="15"/>
-      <c r="E78" s="15"/>
-      <c r="F78" s="13"/>
+      <c r="A78" s="38"/>
+      <c r="B78" s="25"/>
+      <c r="C78" s="25"/>
+      <c r="D78" s="36"/>
+      <c r="E78" s="36"/>
+      <c r="F78" s="33"/>
     </row>
     <row r="79" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="11">
+      <c r="A79" s="38">
         <v>34</v>
       </c>
-      <c r="B79" s="12" t="s">
+      <c r="B79" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="C79" s="12" t="s">
+      <c r="C79" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="D79" s="14" t="s">
+      <c r="D79" s="35" t="s">
         <v>157</v>
       </c>
-      <c r="E79" s="14" t="s">
+      <c r="E79" s="35" t="s">
         <v>159</v>
       </c>
-      <c r="F79" s="13" t="s">
-        <v>185</v>
+      <c r="F79" s="33" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A80" s="11"/>
-      <c r="B80" s="12"/>
-      <c r="C80" s="12"/>
-      <c r="D80" s="15"/>
-      <c r="E80" s="15"/>
-      <c r="F80" s="13"/>
+      <c r="A80" s="38"/>
+      <c r="B80" s="25"/>
+      <c r="C80" s="25"/>
+      <c r="D80" s="36"/>
+      <c r="E80" s="36"/>
+      <c r="F80" s="33"/>
     </row>
     <row r="81" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="11">
+      <c r="A81" s="38">
         <v>35</v>
       </c>
-      <c r="B81" s="12" t="s">
+      <c r="B81" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="C81" s="12" t="s">
+      <c r="C81" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="D81" s="14" t="s">
+      <c r="D81" s="35" t="s">
         <v>104</v>
       </c>
-      <c r="E81" s="14" t="s">
+      <c r="E81" s="35" t="s">
         <v>153</v>
       </c>
-      <c r="F81" s="14" t="s">
+      <c r="F81" s="35" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A82" s="11"/>
-      <c r="B82" s="12"/>
-      <c r="C82" s="12"/>
-      <c r="D82" s="15"/>
-      <c r="E82" s="15"/>
-      <c r="F82" s="15"/>
+      <c r="A82" s="38"/>
+      <c r="B82" s="25"/>
+      <c r="C82" s="25"/>
+      <c r="D82" s="36"/>
+      <c r="E82" s="36"/>
+      <c r="F82" s="36"/>
     </row>
     <row r="83" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="11">
+      <c r="A83" s="38">
         <v>36</v>
       </c>
-      <c r="B83" s="12" t="s">
+      <c r="B83" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="C83" s="12" t="s">
+      <c r="C83" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="D83" s="14" t="s">
+      <c r="D83" s="35" t="s">
         <v>105</v>
       </c>
-      <c r="E83" s="14" t="s">
+      <c r="E83" s="35" t="s">
         <v>154</v>
       </c>
-      <c r="F83" s="18" t="s">
+      <c r="F83" s="43" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A84" s="11"/>
-      <c r="B84" s="12"/>
-      <c r="C84" s="12"/>
-      <c r="D84" s="15"/>
-      <c r="E84" s="15"/>
-      <c r="F84" s="25"/>
+      <c r="A84" s="38"/>
+      <c r="B84" s="25"/>
+      <c r="C84" s="25"/>
+      <c r="D84" s="36"/>
+      <c r="E84" s="36"/>
+      <c r="F84" s="44"/>
     </row>
     <row r="85" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="11">
+      <c r="A85" s="38">
         <v>37</v>
       </c>
-      <c r="B85" s="12" t="s">
+      <c r="B85" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="C85" s="12" t="s">
+      <c r="C85" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="D85" s="14" t="s">
-        <v>197</v>
-      </c>
-      <c r="E85" s="14" t="s">
-        <v>255</v>
-      </c>
-      <c r="F85" s="18"/>
+      <c r="D85" s="35" t="s">
+        <v>277</v>
+      </c>
+      <c r="E85" s="35" t="s">
+        <v>278</v>
+      </c>
+      <c r="F85" s="43" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A86" s="11"/>
-      <c r="B86" s="12"/>
-      <c r="C86" s="12"/>
-      <c r="D86" s="15"/>
-      <c r="E86" s="15"/>
-      <c r="F86" s="25"/>
+      <c r="A86" s="38"/>
+      <c r="B86" s="25"/>
+      <c r="C86" s="25"/>
+      <c r="D86" s="36"/>
+      <c r="E86" s="36"/>
+      <c r="F86" s="44"/>
     </row>
     <row r="87" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="11">
+      <c r="A87" s="38">
         <v>38</v>
       </c>
-      <c r="B87" s="12" t="s">
+      <c r="B87" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="C87" s="12" t="s">
+      <c r="C87" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="D87" s="14" t="s">
+      <c r="D87" s="35" t="s">
         <v>196</v>
       </c>
-      <c r="E87" s="14"/>
-      <c r="F87" s="18"/>
+      <c r="E87" s="35" t="s">
+        <v>254</v>
+      </c>
+      <c r="F87" s="43"/>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A88" s="11"/>
-      <c r="B88" s="12"/>
-      <c r="C88" s="12"/>
-      <c r="D88" s="15"/>
-      <c r="E88" s="15"/>
-      <c r="F88" s="25"/>
+      <c r="A88" s="38"/>
+      <c r="B88" s="25"/>
+      <c r="C88" s="25"/>
+      <c r="D88" s="36"/>
+      <c r="E88" s="36"/>
+      <c r="F88" s="44"/>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A89" s="11">
+      <c r="A89" s="38">
         <v>39</v>
       </c>
-      <c r="B89" s="12" t="s">
+      <c r="B89" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="C89" s="12" t="s">
+      <c r="C89" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="D89" s="14" t="s">
-        <v>196</v>
-      </c>
-      <c r="E89" s="14"/>
-      <c r="F89" s="18"/>
+      <c r="D89" s="35" t="s">
+        <v>195</v>
+      </c>
+      <c r="E89" s="35"/>
+      <c r="F89" s="43"/>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A90" s="11"/>
-      <c r="B90" s="12"/>
-      <c r="C90" s="12"/>
-      <c r="D90" s="15"/>
-      <c r="E90" s="15"/>
-      <c r="F90" s="25"/>
+      <c r="A90" s="38"/>
+      <c r="B90" s="25"/>
+      <c r="C90" s="25"/>
+      <c r="D90" s="36"/>
+      <c r="E90" s="36"/>
+      <c r="F90" s="44"/>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A91" s="11">
+      <c r="A91" s="38">
         <v>40</v>
       </c>
-      <c r="B91" s="12" t="s">
+      <c r="B91" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="C91" s="12" t="s">
+      <c r="C91" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="D91" s="14" t="s">
-        <v>196</v>
-      </c>
-      <c r="E91" s="14"/>
-      <c r="F91" s="18"/>
+      <c r="D91" s="35" t="s">
+        <v>195</v>
+      </c>
+      <c r="E91" s="35"/>
+      <c r="F91" s="43"/>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A92" s="11"/>
-      <c r="B92" s="12"/>
-      <c r="C92" s="12"/>
-      <c r="D92" s="15"/>
-      <c r="E92" s="15"/>
-      <c r="F92" s="25"/>
+      <c r="A92" s="38"/>
+      <c r="B92" s="25"/>
+      <c r="C92" s="25"/>
+      <c r="D92" s="36"/>
+      <c r="E92" s="36"/>
+      <c r="F92" s="44"/>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A93" s="11">
+      <c r="A93" s="38">
         <v>41</v>
       </c>
-      <c r="B93" s="12" t="s">
+      <c r="B93" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="C93" s="12" t="s">
+      <c r="C93" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="D93" s="14" t="s">
-        <v>196</v>
-      </c>
-      <c r="E93" s="14"/>
-      <c r="F93" s="18"/>
+      <c r="D93" s="35" t="s">
+        <v>195</v>
+      </c>
+      <c r="E93" s="35"/>
+      <c r="F93" s="43"/>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A94" s="11"/>
-      <c r="B94" s="12"/>
-      <c r="C94" s="12"/>
-      <c r="D94" s="15"/>
-      <c r="E94" s="15"/>
-      <c r="F94" s="25"/>
+      <c r="A94" s="38"/>
+      <c r="B94" s="25"/>
+      <c r="C94" s="25"/>
+      <c r="D94" s="36"/>
+      <c r="E94" s="36"/>
+      <c r="F94" s="44"/>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A95" s="11">
+      <c r="A95" s="38">
         <v>42</v>
       </c>
-      <c r="B95" s="12" t="s">
+      <c r="B95" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="C95" s="12" t="s">
+      <c r="C95" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="D95" s="14" t="s">
-        <v>196</v>
-      </c>
-      <c r="E95" s="14"/>
-      <c r="F95" s="28"/>
+      <c r="D95" s="35" t="s">
+        <v>195</v>
+      </c>
+      <c r="E95" s="35"/>
+      <c r="F95" s="41"/>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A96" s="11"/>
-      <c r="B96" s="12"/>
-      <c r="C96" s="12"/>
-      <c r="D96" s="15"/>
-      <c r="E96" s="15"/>
-      <c r="F96" s="20"/>
+      <c r="A96" s="38"/>
+      <c r="B96" s="25"/>
+      <c r="C96" s="25"/>
+      <c r="D96" s="36"/>
+      <c r="E96" s="36"/>
+      <c r="F96" s="42"/>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A97" s="11">
+      <c r="A97" s="38">
         <v>43</v>
       </c>
-      <c r="B97" s="12" t="s">
+      <c r="B97" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="C97" s="12" t="s">
+      <c r="C97" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="D97" s="14" t="s">
-        <v>196</v>
-      </c>
-      <c r="E97" s="14"/>
-      <c r="F97" s="26"/>
+      <c r="D97" s="35" t="s">
+        <v>195</v>
+      </c>
+      <c r="E97" s="35"/>
+      <c r="F97" s="39"/>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A98" s="11"/>
-      <c r="B98" s="12"/>
-      <c r="C98" s="12"/>
-      <c r="D98" s="15"/>
-      <c r="E98" s="15"/>
-      <c r="F98" s="27"/>
+      <c r="A98" s="38"/>
+      <c r="B98" s="25"/>
+      <c r="C98" s="25"/>
+      <c r="D98" s="36"/>
+      <c r="E98" s="36"/>
+      <c r="F98" s="40"/>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A99" s="11">
+      <c r="A99" s="38">
         <v>44</v>
       </c>
-      <c r="B99" s="12" t="s">
+      <c r="B99" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="C99" s="12" t="s">
+      <c r="C99" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="D99" s="14" t="s">
-        <v>196</v>
-      </c>
-      <c r="E99" s="14"/>
-      <c r="F99" s="26"/>
+      <c r="D99" s="35" t="s">
+        <v>195</v>
+      </c>
+      <c r="E99" s="35"/>
+      <c r="F99" s="39"/>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A100" s="11"/>
-      <c r="B100" s="12"/>
-      <c r="C100" s="12"/>
-      <c r="D100" s="15"/>
-      <c r="E100" s="15"/>
-      <c r="F100" s="27"/>
+      <c r="A100" s="38"/>
+      <c r="B100" s="25"/>
+      <c r="C100" s="25"/>
+      <c r="D100" s="36"/>
+      <c r="E100" s="36"/>
+      <c r="F100" s="40"/>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A101" s="11">
+      <c r="A101" s="38">
         <v>45</v>
       </c>
-      <c r="B101" s="12" t="s">
+      <c r="B101" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="C101" s="12" t="s">
+      <c r="C101" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="D101" s="14" t="s">
-        <v>196</v>
-      </c>
-      <c r="E101" s="14"/>
-      <c r="F101" s="26"/>
+      <c r="D101" s="35" t="s">
+        <v>195</v>
+      </c>
+      <c r="E101" s="35"/>
+      <c r="F101" s="39"/>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A102" s="11"/>
-      <c r="B102" s="12"/>
-      <c r="C102" s="12"/>
-      <c r="D102" s="15"/>
-      <c r="E102" s="15"/>
-      <c r="F102" s="27"/>
+      <c r="A102" s="38"/>
+      <c r="B102" s="25"/>
+      <c r="C102" s="25"/>
+      <c r="D102" s="36"/>
+      <c r="E102" s="36"/>
+      <c r="F102" s="40"/>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A103" s="11">
+      <c r="A103" s="38">
         <v>46</v>
       </c>
-      <c r="B103" s="12" t="s">
+      <c r="B103" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="C103" s="12" t="s">
+      <c r="C103" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="D103" s="14" t="s">
-        <v>196</v>
-      </c>
-      <c r="E103" s="14"/>
-      <c r="F103" s="26"/>
+      <c r="D103" s="35" t="s">
+        <v>195</v>
+      </c>
+      <c r="E103" s="35"/>
+      <c r="F103" s="39"/>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A104" s="11"/>
-      <c r="B104" s="12"/>
-      <c r="C104" s="12"/>
-      <c r="D104" s="15"/>
-      <c r="E104" s="15"/>
-      <c r="F104" s="27"/>
+      <c r="A104" s="38"/>
+      <c r="B104" s="25"/>
+      <c r="C104" s="25"/>
+      <c r="D104" s="36"/>
+      <c r="E104" s="36"/>
+      <c r="F104" s="40"/>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A105" s="11">
+      <c r="A105" s="38">
         <v>47</v>
       </c>
-      <c r="B105" s="12" t="s">
+      <c r="B105" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="C105" s="12" t="s">
+      <c r="C105" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="D105" s="14" t="s">
-        <v>196</v>
-      </c>
-      <c r="E105" s="14"/>
-      <c r="F105" s="26"/>
+      <c r="D105" s="35" t="s">
+        <v>195</v>
+      </c>
+      <c r="E105" s="35"/>
+      <c r="F105" s="39"/>
     </row>
     <row r="106" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="11"/>
-      <c r="B106" s="12"/>
-      <c r="C106" s="12"/>
-      <c r="D106" s="15"/>
-      <c r="E106" s="15"/>
-      <c r="F106" s="27"/>
+      <c r="A106" s="38"/>
+      <c r="B106" s="25"/>
+      <c r="C106" s="25"/>
+      <c r="D106" s="36"/>
+      <c r="E106" s="36"/>
+      <c r="F106" s="40"/>
     </row>
     <row r="107" spans="1:6" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="29" t="s">
-        <v>254</v>
-      </c>
-      <c r="B107" s="30"/>
-      <c r="C107" s="30"/>
-      <c r="D107" s="30"/>
-      <c r="E107" s="30"/>
-      <c r="F107" s="31"/>
+      <c r="A107" s="27" t="s">
+        <v>253</v>
+      </c>
+      <c r="B107" s="28"/>
+      <c r="C107" s="28"/>
+      <c r="D107" s="28"/>
+      <c r="E107" s="28"/>
+      <c r="F107" s="29"/>
     </row>
     <row r="108" spans="1:6" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A108" s="9" t="s">
@@ -3402,913 +3414,913 @@
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A109" s="32">
+      <c r="A109" s="26">
         <v>96</v>
       </c>
-      <c r="B109" s="35" t="s">
+      <c r="B109" s="17" t="s">
         <v>110</v>
       </c>
-      <c r="C109" s="32" t="s">
+      <c r="C109" s="26" t="s">
         <v>155</v>
       </c>
-      <c r="D109" s="35" t="s">
+      <c r="D109" s="17" t="s">
         <v>164</v>
       </c>
-      <c r="E109" s="35" t="s">
+      <c r="E109" s="17" t="s">
         <v>163</v>
       </c>
-      <c r="F109" s="35" t="s">
+      <c r="F109" s="17" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A110" s="33"/>
-      <c r="B110" s="36"/>
-      <c r="C110" s="33"/>
-      <c r="D110" s="36"/>
-      <c r="E110" s="36"/>
-      <c r="F110" s="36"/>
+      <c r="A110" s="30"/>
+      <c r="B110" s="24"/>
+      <c r="C110" s="30"/>
+      <c r="D110" s="24"/>
+      <c r="E110" s="24"/>
+      <c r="F110" s="24"/>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A111" s="33"/>
-      <c r="B111" s="36"/>
-      <c r="C111" s="33"/>
-      <c r="D111" s="36"/>
-      <c r="E111" s="36"/>
-      <c r="F111" s="36"/>
+      <c r="A111" s="30"/>
+      <c r="B111" s="24"/>
+      <c r="C111" s="30"/>
+      <c r="D111" s="24"/>
+      <c r="E111" s="24"/>
+      <c r="F111" s="24"/>
     </row>
     <row r="112" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="34"/>
-      <c r="B112" s="37"/>
-      <c r="C112" s="34"/>
-      <c r="D112" s="37"/>
-      <c r="E112" s="37"/>
-      <c r="F112" s="37"/>
+      <c r="A112" s="22"/>
+      <c r="B112" s="18"/>
+      <c r="C112" s="22"/>
+      <c r="D112" s="18"/>
+      <c r="E112" s="18"/>
+      <c r="F112" s="18"/>
     </row>
     <row r="113" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="32">
+      <c r="A113" s="26">
         <v>97</v>
       </c>
-      <c r="B113" s="35" t="s">
+      <c r="B113" s="17" t="s">
         <v>110</v>
       </c>
-      <c r="C113" s="32" t="s">
+      <c r="C113" s="26" t="s">
         <v>111</v>
       </c>
-      <c r="D113" s="35" t="s">
+      <c r="D113" s="17" t="s">
+        <v>190</v>
+      </c>
+      <c r="E113" s="35" t="s">
+        <v>102</v>
+      </c>
+      <c r="F113" s="17" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="22"/>
+      <c r="B114" s="18"/>
+      <c r="C114" s="22"/>
+      <c r="D114" s="18"/>
+      <c r="E114" s="36"/>
+      <c r="F114" s="18"/>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A115" s="26">
+        <v>98</v>
+      </c>
+      <c r="B115" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="C115" s="26" t="s">
+        <v>112</v>
+      </c>
+      <c r="D115" s="26" t="s">
+        <v>172</v>
+      </c>
+      <c r="E115" s="26" t="s">
+        <v>169</v>
+      </c>
+      <c r="F115" s="17" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="22"/>
+      <c r="B116" s="18"/>
+      <c r="C116" s="22"/>
+      <c r="D116" s="22"/>
+      <c r="E116" s="22"/>
+      <c r="F116" s="18"/>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A117" s="26">
+        <v>99</v>
+      </c>
+      <c r="B117" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="C117" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="D117" s="26" t="s">
+        <v>173</v>
+      </c>
+      <c r="E117" s="26" t="s">
+        <v>170</v>
+      </c>
+      <c r="F117" s="17" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="22"/>
+      <c r="B118" s="18"/>
+      <c r="C118" s="22"/>
+      <c r="D118" s="22"/>
+      <c r="E118" s="22"/>
+      <c r="F118" s="18"/>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A119" s="26">
+        <v>100</v>
+      </c>
+      <c r="B119" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="C119" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="D119" s="26" t="s">
+        <v>174</v>
+      </c>
+      <c r="E119" s="26" t="s">
+        <v>171</v>
+      </c>
+      <c r="F119" s="17" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="22"/>
+      <c r="B120" s="18"/>
+      <c r="C120" s="22"/>
+      <c r="D120" s="22"/>
+      <c r="E120" s="22"/>
+      <c r="F120" s="18"/>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A121" s="26">
+        <v>101</v>
+      </c>
+      <c r="B121" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="C121" s="26" t="s">
+        <v>115</v>
+      </c>
+      <c r="D121" s="26" t="s">
+        <v>179</v>
+      </c>
+      <c r="E121" s="26" t="s">
+        <v>181</v>
+      </c>
+      <c r="F121" s="17" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="22"/>
+      <c r="B122" s="18"/>
+      <c r="C122" s="22"/>
+      <c r="D122" s="22"/>
+      <c r="E122" s="22"/>
+      <c r="F122" s="18"/>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A123" s="26">
+        <v>102</v>
+      </c>
+      <c r="B123" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="C123" s="26" t="s">
+        <v>116</v>
+      </c>
+      <c r="D123" s="26" t="s">
+        <v>175</v>
+      </c>
+      <c r="E123" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="F123" s="17" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="22"/>
+      <c r="B124" s="18"/>
+      <c r="C124" s="22"/>
+      <c r="D124" s="22"/>
+      <c r="E124" s="20"/>
+      <c r="F124" s="18"/>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A125" s="26">
+        <v>103</v>
+      </c>
+      <c r="B125" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="C125" s="26" t="s">
+        <v>117</v>
+      </c>
+      <c r="D125" s="26" t="s">
+        <v>176</v>
+      </c>
+      <c r="E125" s="19" t="s">
+        <v>178</v>
+      </c>
+      <c r="F125" s="17" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="22"/>
+      <c r="B126" s="18"/>
+      <c r="C126" s="22"/>
+      <c r="D126" s="22"/>
+      <c r="E126" s="20"/>
+      <c r="F126" s="18"/>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A127" s="26">
+        <v>104</v>
+      </c>
+      <c r="B127" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="C127" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="D127" s="26" t="s">
+        <v>180</v>
+      </c>
+      <c r="E127" s="19" t="s">
+        <v>182</v>
+      </c>
+      <c r="F127" s="17" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="22"/>
+      <c r="B128" s="18"/>
+      <c r="C128" s="22"/>
+      <c r="D128" s="22"/>
+      <c r="E128" s="20"/>
+      <c r="F128" s="18"/>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A129" s="26">
+        <v>105</v>
+      </c>
+      <c r="B129" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="C129" s="26" t="s">
+        <v>119</v>
+      </c>
+      <c r="D129" s="26" t="s">
+        <v>136</v>
+      </c>
+      <c r="E129" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="F129" s="17" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="22"/>
+      <c r="B130" s="18"/>
+      <c r="C130" s="22"/>
+      <c r="D130" s="22"/>
+      <c r="E130" s="18"/>
+      <c r="F130" s="18"/>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A131" s="26">
+        <v>106</v>
+      </c>
+      <c r="B131" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="C131" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="D131" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="E131" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="F131" s="17" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="22"/>
+      <c r="B132" s="18"/>
+      <c r="C132" s="18"/>
+      <c r="D132" s="18"/>
+      <c r="E132" s="18"/>
+      <c r="F132" s="18"/>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A133" s="26">
+        <v>107</v>
+      </c>
+      <c r="B133" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="C133" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="D133" s="17" t="s">
+        <v>166</v>
+      </c>
+      <c r="E133" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="F133" s="17" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A134" s="22"/>
+      <c r="B134" s="18"/>
+      <c r="C134" s="18"/>
+      <c r="D134" s="18"/>
+      <c r="E134" s="18"/>
+      <c r="F134" s="18"/>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A135" s="26">
+        <v>108</v>
+      </c>
+      <c r="B135" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="C135" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="D135" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="E135" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="F135" s="17" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="22"/>
+      <c r="B136" s="18"/>
+      <c r="C136" s="18"/>
+      <c r="D136" s="18"/>
+      <c r="E136" s="18"/>
+      <c r="F136" s="18"/>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A137" s="26">
+        <v>109</v>
+      </c>
+      <c r="B137" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="C137" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="D137" s="17" t="s">
+        <v>261</v>
+      </c>
+      <c r="E137" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="F137" s="34" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A138" s="22"/>
+      <c r="B138" s="18"/>
+      <c r="C138" s="18"/>
+      <c r="D138" s="18"/>
+      <c r="E138" s="18"/>
+      <c r="F138" s="18"/>
+    </row>
+    <row r="139" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A139" s="26">
+        <v>110</v>
+      </c>
+      <c r="B139" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="C139" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="D139" s="17" t="s">
+        <v>186</v>
+      </c>
+      <c r="E139" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="F139" s="17" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A140" s="22"/>
+      <c r="B140" s="18"/>
+      <c r="C140" s="18"/>
+      <c r="D140" s="18"/>
+      <c r="E140" s="18"/>
+      <c r="F140" s="18"/>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A141" s="26">
+        <v>111</v>
+      </c>
+      <c r="B141" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="C141" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="D141" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="E141" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="F141" s="17" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A142" s="22"/>
+      <c r="B142" s="18"/>
+      <c r="C142" s="18"/>
+      <c r="D142" s="18"/>
+      <c r="E142" s="18"/>
+      <c r="F142" s="18"/>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A143" s="26">
+        <v>112</v>
+      </c>
+      <c r="B143" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="C143" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="D143" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="E143" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="F143" s="17" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A144" s="22"/>
+      <c r="B144" s="18"/>
+      <c r="C144" s="22"/>
+      <c r="D144" s="18"/>
+      <c r="E144" s="18"/>
+      <c r="F144" s="18"/>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A145" s="26">
+        <v>113</v>
+      </c>
+      <c r="B145" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="C145" s="26" t="s">
+        <v>127</v>
+      </c>
+      <c r="D145" s="17" t="s">
+        <v>189</v>
+      </c>
+      <c r="E145" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="F145" s="17" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A146" s="22"/>
+      <c r="B146" s="18"/>
+      <c r="C146" s="22"/>
+      <c r="D146" s="18"/>
+      <c r="E146" s="18"/>
+      <c r="F146" s="18"/>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A147" s="26">
+        <v>114</v>
+      </c>
+      <c r="B147" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="C147" s="26" t="s">
+        <v>128</v>
+      </c>
+      <c r="D147" s="17" t="s">
         <v>191</v>
       </c>
-      <c r="E113" s="14" t="s">
+      <c r="E147" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="F113" s="35" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="34"/>
-      <c r="B114" s="37"/>
-      <c r="C114" s="34"/>
-      <c r="D114" s="37"/>
-      <c r="E114" s="15"/>
-      <c r="F114" s="37"/>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A115" s="32">
-        <v>98</v>
-      </c>
-      <c r="B115" s="35" t="s">
+      <c r="F147" s="17" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A148" s="22"/>
+      <c r="B148" s="18"/>
+      <c r="C148" s="22"/>
+      <c r="D148" s="18"/>
+      <c r="E148" s="18"/>
+      <c r="F148" s="18"/>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A149" s="26">
+        <v>115</v>
+      </c>
+      <c r="B149" s="17" t="s">
         <v>110</v>
       </c>
-      <c r="C115" s="32" t="s">
-        <v>112</v>
-      </c>
-      <c r="D115" s="32" t="s">
-        <v>173</v>
-      </c>
-      <c r="E115" s="32" t="s">
-        <v>170</v>
-      </c>
-      <c r="F115" s="35" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="34"/>
-      <c r="B116" s="37"/>
-      <c r="C116" s="34"/>
-      <c r="D116" s="34"/>
-      <c r="E116" s="34"/>
-      <c r="F116" s="37"/>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A117" s="32">
-        <v>99</v>
-      </c>
-      <c r="B117" s="35" t="s">
+      <c r="C149" s="26" t="s">
+        <v>129</v>
+      </c>
+      <c r="D149" s="17" t="s">
+        <v>192</v>
+      </c>
+      <c r="E149" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="F149" s="17" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A150" s="22"/>
+      <c r="B150" s="18"/>
+      <c r="C150" s="22"/>
+      <c r="D150" s="18"/>
+      <c r="E150" s="18"/>
+      <c r="F150" s="18"/>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A151" s="26">
+        <v>116</v>
+      </c>
+      <c r="B151" s="17" t="s">
         <v>110</v>
       </c>
-      <c r="C117" s="32" t="s">
-        <v>113</v>
-      </c>
-      <c r="D117" s="32" t="s">
-        <v>174</v>
-      </c>
-      <c r="E117" s="32" t="s">
-        <v>171</v>
-      </c>
-      <c r="F117" s="35" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="34"/>
-      <c r="B118" s="37"/>
-      <c r="C118" s="34"/>
-      <c r="D118" s="34"/>
-      <c r="E118" s="34"/>
-      <c r="F118" s="37"/>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A119" s="32">
-        <v>100</v>
-      </c>
-      <c r="B119" s="35" t="s">
+      <c r="C151" s="26" t="s">
+        <v>130</v>
+      </c>
+      <c r="D151" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="E151" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="F151" s="17" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A152" s="22"/>
+      <c r="B152" s="18"/>
+      <c r="C152" s="22"/>
+      <c r="D152" s="18"/>
+      <c r="E152" s="18"/>
+      <c r="F152" s="18"/>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A153" s="26">
+        <v>117</v>
+      </c>
+      <c r="B153" s="17" t="s">
         <v>110</v>
       </c>
-      <c r="C119" s="32" t="s">
-        <v>114</v>
-      </c>
-      <c r="D119" s="32" t="s">
-        <v>175</v>
-      </c>
-      <c r="E119" s="32" t="s">
-        <v>172</v>
-      </c>
-      <c r="F119" s="35" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="34"/>
-      <c r="B120" s="37"/>
-      <c r="C120" s="34"/>
-      <c r="D120" s="34"/>
-      <c r="E120" s="34"/>
-      <c r="F120" s="37"/>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A121" s="32">
-        <v>101</v>
-      </c>
-      <c r="B121" s="35" t="s">
+      <c r="C153" s="26" t="s">
+        <v>131</v>
+      </c>
+      <c r="D153" s="17" t="s">
+        <v>270</v>
+      </c>
+      <c r="E153" s="17" t="s">
+        <v>271</v>
+      </c>
+      <c r="F153" s="17" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A154" s="22"/>
+      <c r="B154" s="18"/>
+      <c r="C154" s="22"/>
+      <c r="D154" s="18"/>
+      <c r="E154" s="18"/>
+      <c r="F154" s="18"/>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A155" s="26">
+        <v>118</v>
+      </c>
+      <c r="B155" s="17" t="s">
         <v>110</v>
       </c>
-      <c r="C121" s="32" t="s">
-        <v>115</v>
-      </c>
-      <c r="D121" s="32" t="s">
-        <v>180</v>
-      </c>
-      <c r="E121" s="32" t="s">
-        <v>182</v>
-      </c>
-      <c r="F121" s="35" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="34"/>
-      <c r="B122" s="37"/>
-      <c r="C122" s="34"/>
-      <c r="D122" s="34"/>
-      <c r="E122" s="34"/>
-      <c r="F122" s="37"/>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A123" s="32">
-        <v>102</v>
-      </c>
-      <c r="B123" s="35" t="s">
+      <c r="C155" s="26" t="s">
+        <v>132</v>
+      </c>
+      <c r="D155" s="17" t="s">
+        <v>262</v>
+      </c>
+      <c r="E155" s="17"/>
+      <c r="F155" s="17"/>
+    </row>
+    <row r="156" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A156" s="22"/>
+      <c r="B156" s="18"/>
+      <c r="C156" s="22"/>
+      <c r="D156" s="18"/>
+      <c r="E156" s="18"/>
+      <c r="F156" s="18"/>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A157" s="26">
+        <v>119</v>
+      </c>
+      <c r="B157" s="17" t="s">
         <v>110</v>
       </c>
-      <c r="C123" s="32" t="s">
-        <v>116</v>
-      </c>
-      <c r="D123" s="32" t="s">
-        <v>176</v>
-      </c>
-      <c r="E123" s="38" t="s">
-        <v>178</v>
-      </c>
-      <c r="F123" s="35" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="34"/>
-      <c r="B124" s="37"/>
-      <c r="C124" s="34"/>
-      <c r="D124" s="34"/>
-      <c r="E124" s="39"/>
-      <c r="F124" s="37"/>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A125" s="32">
-        <v>103</v>
-      </c>
-      <c r="B125" s="35" t="s">
+      <c r="C157" s="26" t="s">
+        <v>133</v>
+      </c>
+      <c r="D157" s="17" t="s">
+        <v>262</v>
+      </c>
+      <c r="E157" s="17"/>
+      <c r="F157" s="17"/>
+    </row>
+    <row r="158" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A158" s="22"/>
+      <c r="B158" s="18"/>
+      <c r="C158" s="22"/>
+      <c r="D158" s="18"/>
+      <c r="E158" s="18"/>
+      <c r="F158" s="18"/>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A159" s="26">
+        <v>120</v>
+      </c>
+      <c r="B159" s="17" t="s">
         <v>110</v>
       </c>
-      <c r="C125" s="32" t="s">
-        <v>117</v>
-      </c>
-      <c r="D125" s="32" t="s">
-        <v>177</v>
-      </c>
-      <c r="E125" s="38" t="s">
-        <v>179</v>
-      </c>
-      <c r="F125" s="35" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="34"/>
-      <c r="B126" s="37"/>
-      <c r="C126" s="34"/>
-      <c r="D126" s="34"/>
-      <c r="E126" s="39"/>
-      <c r="F126" s="37"/>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A127" s="32">
-        <v>104</v>
-      </c>
-      <c r="B127" s="35" t="s">
+      <c r="C159" s="26" t="s">
+        <v>134</v>
+      </c>
+      <c r="D159" s="17" t="s">
+        <v>262</v>
+      </c>
+      <c r="E159" s="17"/>
+      <c r="F159" s="17"/>
+    </row>
+    <row r="160" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A160" s="30"/>
+      <c r="B160" s="24"/>
+      <c r="C160" s="30"/>
+      <c r="D160" s="18"/>
+      <c r="E160" s="24"/>
+      <c r="F160" s="24"/>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A161" s="31">
+        <v>121</v>
+      </c>
+      <c r="B161" s="25" t="s">
         <v>110</v>
       </c>
-      <c r="C127" s="32" t="s">
-        <v>118</v>
-      </c>
-      <c r="D127" s="32" t="s">
-        <v>181</v>
-      </c>
-      <c r="E127" s="38" t="s">
-        <v>183</v>
-      </c>
-      <c r="F127" s="35" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="34"/>
-      <c r="B128" s="37"/>
-      <c r="C128" s="34"/>
-      <c r="D128" s="34"/>
-      <c r="E128" s="39"/>
-      <c r="F128" s="37"/>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A129" s="32">
-        <v>105</v>
-      </c>
-      <c r="B129" s="35" t="s">
+      <c r="C161" s="32" t="s">
+        <v>135</v>
+      </c>
+      <c r="D161" s="17" t="s">
+        <v>262</v>
+      </c>
+      <c r="E161" s="25"/>
+      <c r="F161" s="33"/>
+    </row>
+    <row r="162" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A162" s="31"/>
+      <c r="B162" s="25"/>
+      <c r="C162" s="32"/>
+      <c r="D162" s="18"/>
+      <c r="E162" s="25"/>
+      <c r="F162" s="33"/>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A163" s="21">
+        <v>122</v>
+      </c>
+      <c r="B163" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="C129" s="32" t="s">
-        <v>119</v>
-      </c>
-      <c r="D129" s="32" t="s">
-        <v>136</v>
-      </c>
-      <c r="E129" s="38" t="s">
-        <v>137</v>
-      </c>
-      <c r="F129" s="35" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="34"/>
-      <c r="B130" s="37"/>
-      <c r="C130" s="34"/>
-      <c r="D130" s="34"/>
-      <c r="E130" s="37"/>
-      <c r="F130" s="37"/>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A131" s="32">
-        <v>106</v>
-      </c>
-      <c r="B131" s="35" t="s">
+      <c r="C163" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="D163" s="17" t="s">
+        <v>262</v>
+      </c>
+      <c r="E163" s="19"/>
+      <c r="F163" s="19"/>
+    </row>
+    <row r="164" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A164" s="23"/>
+      <c r="B164" s="20"/>
+      <c r="C164" s="23"/>
+      <c r="D164" s="18"/>
+      <c r="E164" s="20"/>
+      <c r="F164" s="20"/>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A165" s="21">
+        <v>123</v>
+      </c>
+      <c r="B165" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="C131" s="35" t="s">
-        <v>120</v>
-      </c>
-      <c r="D131" s="35" t="s">
-        <v>139</v>
-      </c>
-      <c r="E131" s="38" t="s">
-        <v>102</v>
-      </c>
-      <c r="F131" s="35" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="34"/>
-      <c r="B132" s="37"/>
-      <c r="C132" s="37"/>
-      <c r="D132" s="37"/>
-      <c r="E132" s="37"/>
-      <c r="F132" s="37"/>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A133" s="32">
-        <v>107</v>
-      </c>
-      <c r="B133" s="35" t="s">
+      <c r="C165" s="21" t="s">
+        <v>263</v>
+      </c>
+      <c r="D165" s="17" t="s">
+        <v>262</v>
+      </c>
+      <c r="E165" s="19"/>
+      <c r="F165" s="19"/>
+    </row>
+    <row r="166" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A166" s="23"/>
+      <c r="B166" s="20"/>
+      <c r="C166" s="23"/>
+      <c r="D166" s="18"/>
+      <c r="E166" s="20"/>
+      <c r="F166" s="20"/>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A167" s="21">
+        <v>124</v>
+      </c>
+      <c r="B167" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="C133" s="35" t="s">
-        <v>121</v>
-      </c>
-      <c r="D133" s="35" t="s">
-        <v>166</v>
-      </c>
-      <c r="E133" s="35" t="s">
-        <v>165</v>
-      </c>
-      <c r="F133" s="35" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="34"/>
-      <c r="B134" s="37"/>
-      <c r="C134" s="37"/>
-      <c r="D134" s="37"/>
-      <c r="E134" s="37"/>
-      <c r="F134" s="37"/>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A135" s="32">
-        <v>108</v>
-      </c>
-      <c r="B135" s="35" t="s">
+      <c r="C167" s="21" t="s">
+        <v>264</v>
+      </c>
+      <c r="D167" s="17" t="s">
+        <v>262</v>
+      </c>
+      <c r="E167" s="19"/>
+      <c r="F167" s="19"/>
+    </row>
+    <row r="168" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A168" s="23"/>
+      <c r="B168" s="20"/>
+      <c r="C168" s="23"/>
+      <c r="D168" s="18"/>
+      <c r="E168" s="20"/>
+      <c r="F168" s="20"/>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A169" s="21">
+        <v>125</v>
+      </c>
+      <c r="B169" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="C135" s="35" t="s">
-        <v>122</v>
-      </c>
-      <c r="D135" s="35" t="s">
-        <v>144</v>
-      </c>
-      <c r="E135" s="35" t="s">
-        <v>145</v>
-      </c>
-      <c r="F135" s="35" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="34"/>
-      <c r="B136" s="37"/>
-      <c r="C136" s="37"/>
-      <c r="D136" s="37"/>
-      <c r="E136" s="37"/>
-      <c r="F136" s="37"/>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A137" s="32">
-        <v>109</v>
-      </c>
-      <c r="B137" s="35" t="s">
+      <c r="C169" s="21" t="s">
+        <v>265</v>
+      </c>
+      <c r="D169" s="17" t="s">
+        <v>262</v>
+      </c>
+      <c r="E169" s="19"/>
+      <c r="F169" s="19"/>
+    </row>
+    <row r="170" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A170" s="23"/>
+      <c r="B170" s="20"/>
+      <c r="C170" s="23"/>
+      <c r="D170" s="18"/>
+      <c r="E170" s="20"/>
+      <c r="F170" s="20"/>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A171" s="21">
+        <v>126</v>
+      </c>
+      <c r="B171" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="C137" s="35" t="s">
-        <v>123</v>
-      </c>
-      <c r="D137" s="35" t="s">
+      <c r="C171" s="21" t="s">
+        <v>266</v>
+      </c>
+      <c r="D171" s="17" t="s">
         <v>262</v>
       </c>
-      <c r="E137" s="35" t="s">
-        <v>102</v>
-      </c>
-      <c r="F137" s="40" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="34"/>
-      <c r="B138" s="37"/>
-      <c r="C138" s="37"/>
-      <c r="D138" s="37"/>
-      <c r="E138" s="37"/>
-      <c r="F138" s="37"/>
-    </row>
-    <row r="139" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A139" s="32">
+      <c r="E171" s="19"/>
+      <c r="F171" s="19"/>
+    </row>
+    <row r="172" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A172" s="23"/>
+      <c r="B172" s="20"/>
+      <c r="C172" s="23"/>
+      <c r="D172" s="18"/>
+      <c r="E172" s="20"/>
+      <c r="F172" s="20"/>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A173" s="21">
+        <v>127</v>
+      </c>
+      <c r="B173" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="B139" s="35" t="s">
-        <v>110</v>
-      </c>
-      <c r="C139" s="35" t="s">
-        <v>124</v>
-      </c>
-      <c r="D139" s="35" t="s">
-        <v>187</v>
-      </c>
-      <c r="E139" s="35" t="s">
-        <v>102</v>
-      </c>
-      <c r="F139" s="35" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="34"/>
-      <c r="B140" s="37"/>
-      <c r="C140" s="37"/>
-      <c r="D140" s="37"/>
-      <c r="E140" s="37"/>
-      <c r="F140" s="37"/>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A141" s="32">
-        <v>111</v>
-      </c>
-      <c r="B141" s="35" t="s">
-        <v>110</v>
-      </c>
-      <c r="C141" s="35" t="s">
-        <v>125</v>
-      </c>
-      <c r="D141" s="35" t="s">
-        <v>188</v>
-      </c>
-      <c r="E141" s="35" t="s">
-        <v>102</v>
-      </c>
-      <c r="F141" s="35" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="34"/>
-      <c r="B142" s="37"/>
-      <c r="C142" s="37"/>
-      <c r="D142" s="37"/>
-      <c r="E142" s="37"/>
-      <c r="F142" s="37"/>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A143" s="32">
-        <v>112</v>
-      </c>
-      <c r="B143" s="35" t="s">
-        <v>110</v>
-      </c>
-      <c r="C143" s="32" t="s">
-        <v>126</v>
-      </c>
-      <c r="D143" s="35" t="s">
-        <v>189</v>
-      </c>
-      <c r="E143" s="35" t="s">
-        <v>102</v>
-      </c>
-      <c r="F143" s="35" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="34"/>
-      <c r="B144" s="37"/>
-      <c r="C144" s="34"/>
-      <c r="D144" s="37"/>
-      <c r="E144" s="37"/>
-      <c r="F144" s="37"/>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A145" s="32">
-        <v>113</v>
-      </c>
-      <c r="B145" s="35" t="s">
-        <v>110</v>
-      </c>
-      <c r="C145" s="32" t="s">
-        <v>127</v>
-      </c>
-      <c r="D145" s="35" t="s">
-        <v>190</v>
-      </c>
-      <c r="E145" s="35" t="s">
-        <v>102</v>
-      </c>
-      <c r="F145" s="35" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="34"/>
-      <c r="B146" s="37"/>
-      <c r="C146" s="34"/>
-      <c r="D146" s="37"/>
-      <c r="E146" s="37"/>
-      <c r="F146" s="37"/>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A147" s="32">
-        <v>114</v>
-      </c>
-      <c r="B147" s="35" t="s">
-        <v>110</v>
-      </c>
-      <c r="C147" s="32" t="s">
-        <v>128</v>
-      </c>
-      <c r="D147" s="35" t="s">
-        <v>192</v>
-      </c>
-      <c r="E147" s="35" t="s">
-        <v>102</v>
-      </c>
-      <c r="F147" s="35" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="34"/>
-      <c r="B148" s="37"/>
-      <c r="C148" s="34"/>
-      <c r="D148" s="37"/>
-      <c r="E148" s="37"/>
-      <c r="F148" s="37"/>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A149" s="32">
-        <v>115</v>
-      </c>
-      <c r="B149" s="35" t="s">
-        <v>110</v>
-      </c>
-      <c r="C149" s="32" t="s">
-        <v>129</v>
-      </c>
-      <c r="D149" s="35" t="s">
-        <v>193</v>
-      </c>
-      <c r="E149" s="38" t="s">
-        <v>102</v>
-      </c>
-      <c r="F149" s="35" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A150" s="34"/>
-      <c r="B150" s="37"/>
-      <c r="C150" s="34"/>
-      <c r="D150" s="37"/>
-      <c r="E150" s="37"/>
-      <c r="F150" s="37"/>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A151" s="32">
-        <v>116</v>
-      </c>
-      <c r="B151" s="35" t="s">
-        <v>110</v>
-      </c>
-      <c r="C151" s="32" t="s">
-        <v>130</v>
-      </c>
-      <c r="D151" s="35" t="s">
-        <v>194</v>
-      </c>
-      <c r="E151" s="35" t="s">
-        <v>102</v>
-      </c>
-      <c r="F151" s="35" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A152" s="34"/>
-      <c r="B152" s="37"/>
-      <c r="C152" s="34"/>
-      <c r="D152" s="37"/>
-      <c r="E152" s="37"/>
-      <c r="F152" s="37"/>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A153" s="32">
-        <v>117</v>
-      </c>
-      <c r="B153" s="35" t="s">
-        <v>110</v>
-      </c>
-      <c r="C153" s="32" t="s">
-        <v>131</v>
-      </c>
-      <c r="D153" s="35" t="s">
-        <v>271</v>
-      </c>
-      <c r="E153" s="35" t="s">
-        <v>272</v>
-      </c>
-      <c r="F153" s="35" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A154" s="34"/>
-      <c r="B154" s="37"/>
-      <c r="C154" s="34"/>
-      <c r="D154" s="37"/>
-      <c r="E154" s="37"/>
-      <c r="F154" s="37"/>
-    </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A155" s="32">
-        <v>118</v>
-      </c>
-      <c r="B155" s="35" t="s">
-        <v>110</v>
-      </c>
-      <c r="C155" s="32" t="s">
-        <v>132</v>
-      </c>
-      <c r="D155" s="35" t="s">
-        <v>263</v>
-      </c>
-      <c r="E155" s="35"/>
-      <c r="F155" s="35"/>
-    </row>
-    <row r="156" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A156" s="34"/>
-      <c r="B156" s="37"/>
-      <c r="C156" s="34"/>
-      <c r="D156" s="37"/>
-      <c r="E156" s="37"/>
-      <c r="F156" s="37"/>
-    </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A157" s="32">
-        <v>119</v>
-      </c>
-      <c r="B157" s="35" t="s">
-        <v>110</v>
-      </c>
-      <c r="C157" s="32" t="s">
-        <v>133</v>
-      </c>
-      <c r="D157" s="35" t="s">
-        <v>263</v>
-      </c>
-      <c r="E157" s="35"/>
-      <c r="F157" s="35"/>
-    </row>
-    <row r="158" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A158" s="34"/>
-      <c r="B158" s="37"/>
-      <c r="C158" s="34"/>
-      <c r="D158" s="37"/>
-      <c r="E158" s="37"/>
-      <c r="F158" s="37"/>
-    </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A159" s="32">
-        <v>120</v>
-      </c>
-      <c r="B159" s="35" t="s">
-        <v>110</v>
-      </c>
-      <c r="C159" s="32" t="s">
-        <v>134</v>
-      </c>
-      <c r="D159" s="35" t="s">
-        <v>263</v>
-      </c>
-      <c r="E159" s="35"/>
-      <c r="F159" s="35"/>
-    </row>
-    <row r="160" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A160" s="33"/>
-      <c r="B160" s="36"/>
-      <c r="C160" s="33"/>
-      <c r="D160" s="37"/>
-      <c r="E160" s="36"/>
-      <c r="F160" s="36"/>
-    </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A161" s="41">
-        <v>121</v>
-      </c>
-      <c r="B161" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="C161" s="42" t="s">
-        <v>135</v>
-      </c>
-      <c r="D161" s="35" t="s">
-        <v>263</v>
-      </c>
-      <c r="E161" s="12"/>
-      <c r="F161" s="13"/>
-    </row>
-    <row r="162" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A162" s="41"/>
-      <c r="B162" s="12"/>
-      <c r="C162" s="42"/>
-      <c r="D162" s="37"/>
-      <c r="E162" s="12"/>
-      <c r="F162" s="13"/>
-    </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A163" s="43">
-        <v>122</v>
-      </c>
-      <c r="B163" s="38" t="s">
-        <v>110</v>
-      </c>
-      <c r="C163" s="43" t="s">
-        <v>142</v>
-      </c>
-      <c r="D163" s="35" t="s">
-        <v>263</v>
-      </c>
-      <c r="E163" s="38"/>
-      <c r="F163" s="38"/>
-    </row>
-    <row r="164" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A164" s="44"/>
-      <c r="B164" s="39"/>
-      <c r="C164" s="44"/>
-      <c r="D164" s="37"/>
-      <c r="E164" s="39"/>
-      <c r="F164" s="39"/>
-    </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A165" s="43">
-        <v>123</v>
-      </c>
-      <c r="B165" s="38" t="s">
-        <v>110</v>
-      </c>
-      <c r="C165" s="43" t="s">
-        <v>264</v>
-      </c>
-      <c r="D165" s="35" t="s">
-        <v>263</v>
-      </c>
-      <c r="E165" s="38"/>
-      <c r="F165" s="38"/>
-    </row>
-    <row r="166" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A166" s="44"/>
-      <c r="B166" s="39"/>
-      <c r="C166" s="44"/>
-      <c r="D166" s="37"/>
-      <c r="E166" s="39"/>
-      <c r="F166" s="39"/>
-    </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A167" s="43">
-        <v>124</v>
-      </c>
-      <c r="B167" s="38" t="s">
-        <v>110</v>
-      </c>
-      <c r="C167" s="43" t="s">
-        <v>265</v>
-      </c>
-      <c r="D167" s="35" t="s">
-        <v>263</v>
-      </c>
-      <c r="E167" s="38"/>
-      <c r="F167" s="38"/>
-    </row>
-    <row r="168" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A168" s="44"/>
-      <c r="B168" s="39"/>
-      <c r="C168" s="44"/>
-      <c r="D168" s="37"/>
-      <c r="E168" s="39"/>
-      <c r="F168" s="39"/>
-    </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A169" s="43">
-        <v>125</v>
-      </c>
-      <c r="B169" s="38" t="s">
-        <v>110</v>
-      </c>
-      <c r="C169" s="43" t="s">
-        <v>266</v>
-      </c>
-      <c r="D169" s="35" t="s">
-        <v>263</v>
-      </c>
-      <c r="E169" s="38"/>
-      <c r="F169" s="38"/>
-    </row>
-    <row r="170" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A170" s="44"/>
-      <c r="B170" s="39"/>
-      <c r="C170" s="44"/>
-      <c r="D170" s="37"/>
-      <c r="E170" s="39"/>
-      <c r="F170" s="39"/>
-    </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A171" s="43">
-        <v>126</v>
-      </c>
-      <c r="B171" s="38" t="s">
-        <v>110</v>
-      </c>
-      <c r="C171" s="43" t="s">
+      <c r="C173" s="21" t="s">
         <v>267</v>
       </c>
-      <c r="D171" s="35" t="s">
-        <v>263</v>
-      </c>
-      <c r="E171" s="38"/>
-      <c r="F171" s="38"/>
-    </row>
-    <row r="172" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A172" s="44"/>
-      <c r="B172" s="39"/>
-      <c r="C172" s="44"/>
-      <c r="D172" s="37"/>
-      <c r="E172" s="39"/>
-      <c r="F172" s="39"/>
-    </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A173" s="43">
-        <v>127</v>
-      </c>
-      <c r="B173" s="38" t="s">
-        <v>110</v>
-      </c>
-      <c r="C173" s="43" t="s">
-        <v>268</v>
-      </c>
-      <c r="D173" s="35" t="s">
-        <v>263</v>
-      </c>
-      <c r="E173" s="38"/>
-      <c r="F173" s="38"/>
+      <c r="D173" s="17" t="s">
+        <v>262</v>
+      </c>
+      <c r="E173" s="19"/>
+      <c r="F173" s="19"/>
     </row>
     <row r="174" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A174" s="34"/>
-      <c r="B174" s="37"/>
-      <c r="C174" s="34"/>
-      <c r="D174" s="37"/>
-      <c r="E174" s="37"/>
-      <c r="F174" s="37"/>
+      <c r="A174" s="22"/>
+      <c r="B174" s="18"/>
+      <c r="C174" s="22"/>
+      <c r="D174" s="18"/>
+      <c r="E174" s="18"/>
+      <c r="F174" s="18"/>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A175" s="45" t="s">
-        <v>256</v>
-      </c>
-      <c r="B175" s="46"/>
-      <c r="C175" s="46"/>
-      <c r="D175" s="46"/>
-      <c r="E175" s="46"/>
-      <c r="F175" s="47"/>
+      <c r="A175" s="11" t="s">
+        <v>255</v>
+      </c>
+      <c r="B175" s="12"/>
+      <c r="C175" s="12"/>
+      <c r="D175" s="12"/>
+      <c r="E175" s="12"/>
+      <c r="F175" s="13"/>
     </row>
     <row r="176" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A176" s="48"/>
-      <c r="B176" s="49"/>
-      <c r="C176" s="49"/>
-      <c r="D176" s="49"/>
-      <c r="E176" s="49"/>
-      <c r="F176" s="50"/>
+      <c r="A176" s="14"/>
+      <c r="B176" s="15"/>
+      <c r="C176" s="15"/>
+      <c r="D176" s="15"/>
+      <c r="E176" s="15"/>
+      <c r="F176" s="16"/>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A177" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="B177" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="B177" s="5" t="s">
+      <c r="C177" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="C177" s="5" t="s">
-        <v>200</v>
-      </c>
       <c r="D177" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="E177" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="E177" s="5" t="s">
-        <v>206</v>
-      </c>
       <c r="F177" s="5" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.2">
@@ -4316,16 +4328,16 @@
         <v>1010</v>
       </c>
       <c r="B178" s="5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C178" s="5" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D178" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E178" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F178" s="5"/>
     </row>
@@ -4334,14 +4346,14 @@
         <v>1011</v>
       </c>
       <c r="B179" s="5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C179" s="5"/>
       <c r="D179" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E179" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F179" s="5"/>
     </row>
@@ -4350,14 +4362,14 @@
         <v>1012</v>
       </c>
       <c r="B180" s="5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C180" s="5"/>
       <c r="D180" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E180" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F180" s="5"/>
     </row>
@@ -4366,14 +4378,14 @@
         <v>1013</v>
       </c>
       <c r="B181" s="5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C181" s="5"/>
       <c r="D181" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E181" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F181" s="5"/>
     </row>
@@ -4382,14 +4394,14 @@
         <v>1014</v>
       </c>
       <c r="B182" s="5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C182" s="5"/>
       <c r="D182" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E182" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F182" s="5"/>
     </row>
@@ -4398,14 +4410,14 @@
         <v>1015</v>
       </c>
       <c r="B183" s="5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C183" s="5"/>
       <c r="D183" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E183" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F183" s="5"/>
     </row>
@@ -4414,14 +4426,14 @@
         <v>1016</v>
       </c>
       <c r="B184" s="5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C184" s="5"/>
       <c r="D184" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E184" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F184" s="5"/>
     </row>
@@ -4430,30 +4442,30 @@
         <v>1017</v>
       </c>
       <c r="B185" s="5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C185" s="5"/>
       <c r="D185" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E185" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F185" s="5"/>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A186" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B186" s="5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C186" s="5"/>
       <c r="D186" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E186" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F186" s="5"/>
     </row>
@@ -4462,14 +4474,14 @@
         <v>1091</v>
       </c>
       <c r="B187" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C187" s="5"/>
       <c r="D187" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E187" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F187" s="5"/>
     </row>
@@ -4478,14 +4490,14 @@
         <v>1092</v>
       </c>
       <c r="B188" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C188" s="5"/>
       <c r="D188" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E188" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F188" s="5"/>
     </row>
@@ -4494,14 +4506,14 @@
         <v>1093</v>
       </c>
       <c r="B189" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C189" s="5"/>
       <c r="D189" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E189" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F189" s="5"/>
     </row>
@@ -4510,14 +4522,14 @@
         <v>1094</v>
       </c>
       <c r="B190" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C190" s="5"/>
       <c r="D190" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E190" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F190" s="5"/>
     </row>
@@ -4526,14 +4538,14 @@
         <v>1095</v>
       </c>
       <c r="B191" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C191" s="5"/>
       <c r="D191" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E191" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F191" s="5"/>
     </row>
@@ -4542,14 +4554,14 @@
         <v>1096</v>
       </c>
       <c r="B192" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C192" s="5"/>
       <c r="D192" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E192" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F192" s="5"/>
     </row>
@@ -4558,14 +4570,14 @@
         <v>1097</v>
       </c>
       <c r="B193" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C193" s="5"/>
       <c r="D193" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E193" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F193" s="5"/>
     </row>
@@ -4574,14 +4586,14 @@
         <v>1098</v>
       </c>
       <c r="B194" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C194" s="5"/>
       <c r="D194" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E194" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F194" s="5"/>
     </row>
@@ -4590,46 +4602,46 @@
         <v>1099</v>
       </c>
       <c r="B195" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C195" s="5"/>
       <c r="D195" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E195" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F195" s="5"/>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A196" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B196" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C196" s="5"/>
       <c r="D196" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E196" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F196" s="5"/>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A197" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B197" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C197" s="5"/>
       <c r="D197" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E197" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F197" s="5"/>
     </row>
@@ -4638,14 +4650,14 @@
         <v>1081</v>
       </c>
       <c r="B198" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C198" s="5"/>
       <c r="D198" s="5" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E198" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F198" s="5"/>
     </row>
@@ -4654,14 +4666,14 @@
         <v>1082</v>
       </c>
       <c r="B199" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C199" s="5"/>
       <c r="D199" s="5" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E199" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F199" s="5"/>
     </row>
@@ -4670,14 +4682,14 @@
         <v>1083</v>
       </c>
       <c r="B200" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C200" s="5"/>
       <c r="D200" s="5" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E200" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F200" s="5"/>
     </row>
@@ -4686,14 +4698,14 @@
         <v>1084</v>
       </c>
       <c r="B201" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C201" s="5"/>
       <c r="D201" s="5" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E201" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F201" s="5"/>
     </row>
@@ -4702,14 +4714,14 @@
         <v>1085</v>
       </c>
       <c r="B202" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C202" s="5"/>
       <c r="D202" s="5" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E202" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F202" s="5"/>
     </row>
@@ -4718,14 +4730,14 @@
         <v>1086</v>
       </c>
       <c r="B203" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C203" s="5"/>
       <c r="D203" s="5" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E203" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F203" s="5"/>
     </row>
@@ -4734,14 +4746,14 @@
         <v>1087</v>
       </c>
       <c r="B204" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C204" s="5"/>
       <c r="D204" s="5" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E204" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F204" s="5"/>
     </row>
@@ -4750,14 +4762,14 @@
         <v>1088</v>
       </c>
       <c r="B205" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C205" s="5"/>
       <c r="D205" s="5" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E205" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F205" s="5"/>
     </row>
@@ -4766,574 +4778,574 @@
         <v>1089</v>
       </c>
       <c r="B206" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C206" s="5"/>
       <c r="D206" s="5" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E206" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F206" s="5"/>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A207" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B207" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C207" s="5"/>
       <c r="D207" s="5" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E207" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F207" s="5"/>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A208" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B208" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C208" s="5"/>
       <c r="D208" s="5" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E208" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F208" s="5"/>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A209" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B209" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C209" s="5"/>
       <c r="D209" s="5" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E209" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F209" s="5"/>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A210" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B210" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C210" s="5"/>
       <c r="D210" s="5" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E210" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F210" s="5"/>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A211" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B211" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C211" s="5"/>
       <c r="D211" s="5" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E211" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F211" s="5"/>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A212" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B212" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C212" s="5"/>
       <c r="D212" s="5" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E212" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F212" s="5"/>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A213" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B213" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C213" s="5"/>
       <c r="D213" s="5" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E213" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F213" s="5"/>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A214" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B214" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C214" s="5"/>
       <c r="D214" s="5" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E214" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F214" s="5"/>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A215" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B215" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C215" s="5"/>
       <c r="D215" s="5" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E215" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F215" s="5"/>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A216" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B216" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C216" s="5"/>
       <c r="D216" s="5" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E216" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F216" s="5"/>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A217" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B217" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C217" s="5"/>
       <c r="D217" s="5" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E217" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F217" s="5"/>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A218" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B218" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C218" s="5"/>
       <c r="D218" s="5" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E218" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F218" s="5"/>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A219" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B219" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C219" s="5"/>
       <c r="D219" s="5" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E219" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F219" s="5"/>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A220" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B220" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C220" s="5"/>
       <c r="D220" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E220" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F220" s="5"/>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A221" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B221" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C221" s="5"/>
       <c r="D221" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E221" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F221" s="5"/>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A222" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B222" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C222" s="5"/>
       <c r="D222" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E222" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F222" s="5"/>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A223" s="4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B223" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C223" s="5"/>
       <c r="D223" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E223" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F223" s="5"/>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A224" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B224" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C224" s="5"/>
       <c r="D224" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E224" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F224" s="5"/>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A225" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B225" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C225" s="5"/>
       <c r="D225" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E225" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F225" s="5"/>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A226" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B226" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C226" s="5"/>
       <c r="D226" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E226" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F226" s="5"/>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A227" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B227" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C227" s="5"/>
       <c r="D227" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E227" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F227" s="5"/>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A228" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B228" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C228" s="5"/>
       <c r="D228" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E228" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F228" s="5"/>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A229" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B229" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C229" s="5"/>
       <c r="D229" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E229" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F229" s="5"/>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A230" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="B230" s="5" t="s">
         <v>236</v>
-      </c>
-      <c r="B230" s="5" t="s">
-        <v>237</v>
       </c>
       <c r="C230" s="5"/>
       <c r="D230" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E230" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F230" s="5"/>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A231" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B231" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C231" s="5"/>
       <c r="D231" s="5" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E231" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F231" s="5"/>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A232" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B232" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C232" s="5"/>
       <c r="D232" s="5" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E232" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F232" s="5"/>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A233" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B233" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C233" s="5"/>
       <c r="D233" s="5" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E233" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F233" s="5"/>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A234" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B234" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C234" s="5"/>
       <c r="D234" s="5" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E234" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F234" s="5"/>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A235" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B235" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C235" s="5"/>
       <c r="D235" s="5" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E235" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F235" s="5"/>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A236" s="4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B236" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C236" s="5"/>
       <c r="D236" s="5" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E236" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F236" s="5"/>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A237" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B237" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C237" s="5"/>
       <c r="D237" s="5" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E237" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F237" s="5"/>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A238" s="4" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B238" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C238" s="5"/>
       <c r="D238" s="5" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E238" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F238" s="5"/>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A239" s="4" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B239" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C239" s="5"/>
       <c r="D239" s="5" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E239" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F239" s="5"/>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A240" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B240" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C240" s="5"/>
       <c r="D240" s="5" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E240" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F240" s="5"/>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A241" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="B241" s="5" t="s">
         <v>248</v>
-      </c>
-      <c r="B241" s="5" t="s">
-        <v>249</v>
       </c>
       <c r="C241" s="5"/>
       <c r="D241" s="5" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E241" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F241" s="5"/>
     </row>
@@ -5342,14 +5354,14 @@
         <v>1171</v>
       </c>
       <c r="B242" s="5" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C242" s="5"/>
       <c r="D242" s="5" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E242" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F242" s="5"/>
     </row>
@@ -5358,14 +5370,14 @@
         <v>1172</v>
       </c>
       <c r="B243" s="5" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C243" s="5"/>
       <c r="D243" s="5" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E243" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F243" s="5"/>
     </row>
@@ -5374,14 +5386,14 @@
         <v>1173</v>
       </c>
       <c r="B244" s="5" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C244" s="5"/>
       <c r="D244" s="5" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E244" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F244" s="5"/>
     </row>
@@ -5390,14 +5402,14 @@
         <v>1174</v>
       </c>
       <c r="B245" s="5" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C245" s="5"/>
       <c r="D245" s="5" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E245" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F245" s="5"/>
     </row>
@@ -5406,14 +5418,14 @@
         <v>1175</v>
       </c>
       <c r="B246" s="5" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C246" s="5"/>
       <c r="D246" s="5" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E246" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F246" s="5"/>
     </row>
@@ -5422,14 +5434,14 @@
         <v>1176</v>
       </c>
       <c r="B247" s="5" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C247" s="5"/>
       <c r="D247" s="5" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E247" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F247" s="5"/>
     </row>
@@ -5438,14 +5450,14 @@
         <v>1177</v>
       </c>
       <c r="B248" s="5" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C248" s="5"/>
       <c r="D248" s="5" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E248" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F248" s="5"/>
     </row>
@@ -5454,14 +5466,14 @@
         <v>1178</v>
       </c>
       <c r="B249" s="5" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C249" s="5"/>
       <c r="D249" s="5" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E249" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F249" s="5"/>
     </row>
@@ -5470,46 +5482,46 @@
         <v>1179</v>
       </c>
       <c r="B250" s="5" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C250" s="5"/>
       <c r="D250" s="5" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E250" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F250" s="5"/>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A251" s="4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B251" s="5" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C251" s="5"/>
       <c r="D251" s="5" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E251" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F251" s="5"/>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A252" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="B252" s="5" t="s">
         <v>251</v>
-      </c>
-      <c r="B252" s="5" t="s">
-        <v>252</v>
       </c>
       <c r="C252" s="5"/>
       <c r="D252" s="5" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E252" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F252" s="5"/>
     </row>
@@ -5518,14 +5530,14 @@
         <v>1271</v>
       </c>
       <c r="B253" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C253" s="5"/>
       <c r="D253" s="5" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E253" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F253" s="5"/>
     </row>
@@ -5534,14 +5546,14 @@
         <v>1272</v>
       </c>
       <c r="B254" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C254" s="5"/>
       <c r="D254" s="5" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E254" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F254" s="5"/>
     </row>
@@ -5550,14 +5562,14 @@
         <v>1273</v>
       </c>
       <c r="B255" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C255" s="5"/>
       <c r="D255" s="5" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E255" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F255" s="5"/>
     </row>
@@ -5566,14 +5578,14 @@
         <v>1274</v>
       </c>
       <c r="B256" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C256" s="5"/>
       <c r="D256" s="5" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E256" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F256" s="5"/>
     </row>
@@ -5582,14 +5594,14 @@
         <v>1275</v>
       </c>
       <c r="B257" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C257" s="5"/>
       <c r="D257" s="5" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E257" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F257" s="5"/>
     </row>
@@ -5598,14 +5610,14 @@
         <v>1276</v>
       </c>
       <c r="B258" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C258" s="5"/>
       <c r="D258" s="5" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E258" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F258" s="5"/>
     </row>
@@ -5614,14 +5626,14 @@
         <v>1277</v>
       </c>
       <c r="B259" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C259" s="5"/>
       <c r="D259" s="5" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E259" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F259" s="5"/>
     </row>
@@ -5630,14 +5642,14 @@
         <v>1278</v>
       </c>
       <c r="B260" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C260" s="5"/>
       <c r="D260" s="5" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E260" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F260" s="5"/>
     </row>
@@ -5646,100 +5658,459 @@
         <v>1279</v>
       </c>
       <c r="B261" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C261" s="5"/>
       <c r="D261" s="5" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E261" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F261" s="5"/>
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A262" s="4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B262" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C262" s="5"/>
       <c r="D262" s="5" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E262" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F262" s="5"/>
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A263" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="B263" s="5" t="s">
         <v>275</v>
-      </c>
-      <c r="B263" s="5" t="s">
-        <v>276</v>
       </c>
       <c r="C263" s="5"/>
       <c r="D263" s="5" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E263" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F263" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="481">
-    <mergeCell ref="A175:F176"/>
-    <mergeCell ref="D173:D174"/>
-    <mergeCell ref="E165:E166"/>
-    <mergeCell ref="E167:E168"/>
-    <mergeCell ref="E169:E170"/>
-    <mergeCell ref="E173:E174"/>
-    <mergeCell ref="F165:F166"/>
-    <mergeCell ref="F167:F168"/>
-    <mergeCell ref="F169:F170"/>
-    <mergeCell ref="F173:F174"/>
-    <mergeCell ref="A173:A174"/>
-    <mergeCell ref="B169:B170"/>
-    <mergeCell ref="B173:B174"/>
-    <mergeCell ref="C165:C166"/>
-    <mergeCell ref="C167:C168"/>
-    <mergeCell ref="C169:C170"/>
-    <mergeCell ref="C173:C174"/>
-    <mergeCell ref="A171:A172"/>
-    <mergeCell ref="B171:B172"/>
-    <mergeCell ref="C171:C172"/>
-    <mergeCell ref="D171:D172"/>
-    <mergeCell ref="E171:E172"/>
-    <mergeCell ref="F171:F172"/>
-    <mergeCell ref="A163:A164"/>
-    <mergeCell ref="B163:B164"/>
-    <mergeCell ref="C163:C164"/>
-    <mergeCell ref="D163:D164"/>
-    <mergeCell ref="E163:E164"/>
-    <mergeCell ref="F163:F164"/>
-    <mergeCell ref="A169:A170"/>
-    <mergeCell ref="D165:D166"/>
-    <mergeCell ref="D167:D168"/>
-    <mergeCell ref="D169:D170"/>
-    <mergeCell ref="A165:A166"/>
-    <mergeCell ref="B165:B166"/>
-    <mergeCell ref="A167:A168"/>
-    <mergeCell ref="B167:B168"/>
-    <mergeCell ref="E159:E160"/>
-    <mergeCell ref="E161:E162"/>
-    <mergeCell ref="E125:E126"/>
-    <mergeCell ref="D115:D116"/>
-    <mergeCell ref="D117:D118"/>
-    <mergeCell ref="D119:D120"/>
-    <mergeCell ref="D121:D122"/>
-    <mergeCell ref="E115:E116"/>
-    <mergeCell ref="E117:E118"/>
-    <mergeCell ref="E119:E120"/>
-    <mergeCell ref="E121:E122"/>
-    <mergeCell ref="E149:E150"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="B13:B22"/>
+    <mergeCell ref="C13:C22"/>
+    <mergeCell ref="F13:F22"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="A13:A22"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="F53:F54"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="D57:D58"/>
+    <mergeCell ref="F57:F58"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="D59:D60"/>
+    <mergeCell ref="F59:F60"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="C61:C62"/>
+    <mergeCell ref="D61:D62"/>
+    <mergeCell ref="F61:F62"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="F67:F68"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="C69:C70"/>
+    <mergeCell ref="D69:D70"/>
+    <mergeCell ref="F69:F70"/>
+    <mergeCell ref="E67:E68"/>
+    <mergeCell ref="E69:E70"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="D63:D64"/>
+    <mergeCell ref="F63:F64"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="C65:C66"/>
+    <mergeCell ref="D65:D66"/>
+    <mergeCell ref="F65:F66"/>
+    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="C67:C68"/>
+    <mergeCell ref="D67:D68"/>
+    <mergeCell ref="F75:F76"/>
+    <mergeCell ref="A77:A78"/>
+    <mergeCell ref="B77:B78"/>
+    <mergeCell ref="C77:C78"/>
+    <mergeCell ref="D77:D78"/>
+    <mergeCell ref="F77:F78"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="C71:C72"/>
+    <mergeCell ref="D71:D72"/>
+    <mergeCell ref="F71:F72"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="C73:C74"/>
+    <mergeCell ref="D73:D74"/>
+    <mergeCell ref="F73:F74"/>
+    <mergeCell ref="E71:E72"/>
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="C75:C76"/>
+    <mergeCell ref="D75:D76"/>
+    <mergeCell ref="F83:F84"/>
+    <mergeCell ref="A85:A86"/>
+    <mergeCell ref="B85:B86"/>
+    <mergeCell ref="C85:C86"/>
+    <mergeCell ref="D87:D88"/>
+    <mergeCell ref="F85:F86"/>
+    <mergeCell ref="A79:A80"/>
+    <mergeCell ref="B79:B80"/>
+    <mergeCell ref="C79:C80"/>
+    <mergeCell ref="D79:D80"/>
+    <mergeCell ref="F79:F80"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="B81:B82"/>
+    <mergeCell ref="C81:C82"/>
+    <mergeCell ref="D81:D82"/>
+    <mergeCell ref="F81:F82"/>
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="B83:B84"/>
+    <mergeCell ref="C83:C84"/>
+    <mergeCell ref="D83:D84"/>
+    <mergeCell ref="D85:D86"/>
+    <mergeCell ref="E85:E86"/>
+    <mergeCell ref="F91:F92"/>
+    <mergeCell ref="A93:A94"/>
+    <mergeCell ref="B93:B94"/>
+    <mergeCell ref="C93:C94"/>
+    <mergeCell ref="D93:D94"/>
+    <mergeCell ref="F93:F94"/>
+    <mergeCell ref="A87:A88"/>
+    <mergeCell ref="B87:B88"/>
+    <mergeCell ref="C87:C88"/>
+    <mergeCell ref="F87:F88"/>
+    <mergeCell ref="A89:A90"/>
+    <mergeCell ref="B89:B90"/>
+    <mergeCell ref="C89:C90"/>
+    <mergeCell ref="D89:D90"/>
+    <mergeCell ref="F89:F90"/>
+    <mergeCell ref="A91:A92"/>
+    <mergeCell ref="B91:B92"/>
+    <mergeCell ref="C91:C92"/>
+    <mergeCell ref="D91:D92"/>
+    <mergeCell ref="F99:F100"/>
+    <mergeCell ref="A101:A102"/>
+    <mergeCell ref="B101:B102"/>
+    <mergeCell ref="C101:C102"/>
+    <mergeCell ref="D101:D102"/>
+    <mergeCell ref="F101:F102"/>
+    <mergeCell ref="A95:A96"/>
+    <mergeCell ref="B95:B96"/>
+    <mergeCell ref="C95:C96"/>
+    <mergeCell ref="D95:D96"/>
+    <mergeCell ref="F95:F96"/>
+    <mergeCell ref="A97:A98"/>
+    <mergeCell ref="B97:B98"/>
+    <mergeCell ref="C97:C98"/>
+    <mergeCell ref="D97:D98"/>
+    <mergeCell ref="F97:F98"/>
+    <mergeCell ref="A99:A100"/>
+    <mergeCell ref="B99:B100"/>
+    <mergeCell ref="C99:C100"/>
+    <mergeCell ref="D99:D100"/>
+    <mergeCell ref="A103:A104"/>
+    <mergeCell ref="B103:B104"/>
+    <mergeCell ref="C103:C104"/>
+    <mergeCell ref="D103:D104"/>
+    <mergeCell ref="F103:F104"/>
+    <mergeCell ref="A105:A106"/>
+    <mergeCell ref="B105:B106"/>
+    <mergeCell ref="C105:C106"/>
+    <mergeCell ref="D105:D106"/>
+    <mergeCell ref="F105:F106"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="E97:E98"/>
+    <mergeCell ref="E99:E100"/>
+    <mergeCell ref="E101:E102"/>
+    <mergeCell ref="E103:E104"/>
+    <mergeCell ref="E105:E106"/>
+    <mergeCell ref="E87:E88"/>
+    <mergeCell ref="E89:E90"/>
+    <mergeCell ref="E91:E92"/>
+    <mergeCell ref="E93:E94"/>
+    <mergeCell ref="E95:E96"/>
+    <mergeCell ref="E73:E74"/>
+    <mergeCell ref="E75:E76"/>
+    <mergeCell ref="E77:E78"/>
+    <mergeCell ref="E79:E80"/>
+    <mergeCell ref="E81:E82"/>
+    <mergeCell ref="E83:E84"/>
+    <mergeCell ref="E61:E62"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="A109:A112"/>
+    <mergeCell ref="B109:B112"/>
+    <mergeCell ref="C109:C112"/>
+    <mergeCell ref="F109:F112"/>
+    <mergeCell ref="A113:A114"/>
+    <mergeCell ref="B113:B114"/>
+    <mergeCell ref="C113:C114"/>
+    <mergeCell ref="D113:D114"/>
+    <mergeCell ref="F113:F114"/>
+    <mergeCell ref="E113:E114"/>
+    <mergeCell ref="A115:A116"/>
+    <mergeCell ref="B115:B116"/>
+    <mergeCell ref="C115:C116"/>
+    <mergeCell ref="F115:F116"/>
+    <mergeCell ref="A117:A118"/>
+    <mergeCell ref="B117:B118"/>
+    <mergeCell ref="C117:C118"/>
+    <mergeCell ref="F117:F118"/>
+    <mergeCell ref="A119:A120"/>
+    <mergeCell ref="B119:B120"/>
+    <mergeCell ref="C119:C120"/>
+    <mergeCell ref="F119:F120"/>
+    <mergeCell ref="A121:A122"/>
+    <mergeCell ref="B121:B122"/>
+    <mergeCell ref="C121:C122"/>
+    <mergeCell ref="F121:F122"/>
+    <mergeCell ref="A123:A124"/>
+    <mergeCell ref="B123:B124"/>
+    <mergeCell ref="C123:C124"/>
+    <mergeCell ref="D123:D124"/>
+    <mergeCell ref="F123:F124"/>
+    <mergeCell ref="E123:E124"/>
+    <mergeCell ref="A125:A126"/>
+    <mergeCell ref="B125:B126"/>
+    <mergeCell ref="C125:C126"/>
+    <mergeCell ref="D125:D126"/>
+    <mergeCell ref="F125:F126"/>
+    <mergeCell ref="A127:A128"/>
+    <mergeCell ref="B127:B128"/>
+    <mergeCell ref="C127:C128"/>
+    <mergeCell ref="D127:D128"/>
+    <mergeCell ref="F127:F128"/>
+    <mergeCell ref="E127:E128"/>
+    <mergeCell ref="A129:A130"/>
+    <mergeCell ref="B129:B130"/>
+    <mergeCell ref="C129:C130"/>
+    <mergeCell ref="D129:D130"/>
+    <mergeCell ref="F129:F130"/>
+    <mergeCell ref="A131:A132"/>
+    <mergeCell ref="B131:B132"/>
+    <mergeCell ref="C131:C132"/>
+    <mergeCell ref="D131:D132"/>
+    <mergeCell ref="F131:F132"/>
+    <mergeCell ref="E129:E130"/>
+    <mergeCell ref="E131:E132"/>
+    <mergeCell ref="A133:A134"/>
+    <mergeCell ref="B133:B134"/>
+    <mergeCell ref="C133:C134"/>
+    <mergeCell ref="D133:D134"/>
+    <mergeCell ref="F133:F134"/>
+    <mergeCell ref="A135:A136"/>
+    <mergeCell ref="B135:B136"/>
+    <mergeCell ref="C135:C136"/>
+    <mergeCell ref="D135:D136"/>
+    <mergeCell ref="F135:F136"/>
+    <mergeCell ref="E133:E134"/>
+    <mergeCell ref="E135:E136"/>
+    <mergeCell ref="A137:A138"/>
+    <mergeCell ref="B137:B138"/>
+    <mergeCell ref="C137:C138"/>
+    <mergeCell ref="D137:D138"/>
+    <mergeCell ref="F137:F138"/>
+    <mergeCell ref="A139:A140"/>
+    <mergeCell ref="B139:B140"/>
+    <mergeCell ref="C139:C140"/>
+    <mergeCell ref="D139:D140"/>
+    <mergeCell ref="F139:F140"/>
+    <mergeCell ref="E137:E138"/>
+    <mergeCell ref="E139:E140"/>
+    <mergeCell ref="A141:A142"/>
+    <mergeCell ref="B141:B142"/>
+    <mergeCell ref="C141:C142"/>
+    <mergeCell ref="D141:D142"/>
+    <mergeCell ref="F141:F142"/>
+    <mergeCell ref="A143:A144"/>
+    <mergeCell ref="B143:B144"/>
+    <mergeCell ref="C143:C144"/>
+    <mergeCell ref="D143:D144"/>
+    <mergeCell ref="F143:F144"/>
+    <mergeCell ref="E141:E142"/>
+    <mergeCell ref="A145:A146"/>
+    <mergeCell ref="B145:B146"/>
+    <mergeCell ref="C145:C146"/>
+    <mergeCell ref="D145:D146"/>
+    <mergeCell ref="F145:F146"/>
+    <mergeCell ref="A147:A148"/>
+    <mergeCell ref="B147:B148"/>
+    <mergeCell ref="C147:C148"/>
+    <mergeCell ref="D147:D148"/>
+    <mergeCell ref="F147:F148"/>
+    <mergeCell ref="E145:E146"/>
+    <mergeCell ref="E147:E148"/>
+    <mergeCell ref="A157:A158"/>
+    <mergeCell ref="B157:B158"/>
+    <mergeCell ref="C157:C158"/>
+    <mergeCell ref="D157:D158"/>
+    <mergeCell ref="F157:F158"/>
+    <mergeCell ref="A151:A152"/>
+    <mergeCell ref="B151:B152"/>
+    <mergeCell ref="C151:C152"/>
+    <mergeCell ref="D151:D152"/>
+    <mergeCell ref="F151:F152"/>
+    <mergeCell ref="A153:A154"/>
+    <mergeCell ref="B153:B154"/>
+    <mergeCell ref="C153:C154"/>
+    <mergeCell ref="D153:D154"/>
+    <mergeCell ref="F153:F154"/>
+    <mergeCell ref="E151:E152"/>
+    <mergeCell ref="E153:E154"/>
+    <mergeCell ref="E155:E156"/>
+    <mergeCell ref="E157:E158"/>
     <mergeCell ref="A107:F107"/>
     <mergeCell ref="E109:E112"/>
     <mergeCell ref="A159:A160"/>
@@ -5764,414 +6135,55 @@
     <mergeCell ref="D149:D150"/>
     <mergeCell ref="F149:F150"/>
     <mergeCell ref="F155:F156"/>
-    <mergeCell ref="A157:A158"/>
-    <mergeCell ref="B157:B158"/>
-    <mergeCell ref="C157:C158"/>
-    <mergeCell ref="D157:D158"/>
-    <mergeCell ref="F157:F158"/>
-    <mergeCell ref="A151:A152"/>
-    <mergeCell ref="B151:B152"/>
-    <mergeCell ref="C151:C152"/>
-    <mergeCell ref="D151:D152"/>
-    <mergeCell ref="F151:F152"/>
-    <mergeCell ref="A153:A154"/>
-    <mergeCell ref="B153:B154"/>
-    <mergeCell ref="C153:C154"/>
-    <mergeCell ref="D153:D154"/>
-    <mergeCell ref="F153:F154"/>
-    <mergeCell ref="E151:E152"/>
-    <mergeCell ref="E153:E154"/>
-    <mergeCell ref="E155:E156"/>
-    <mergeCell ref="E157:E158"/>
-    <mergeCell ref="A145:A146"/>
-    <mergeCell ref="B145:B146"/>
-    <mergeCell ref="C145:C146"/>
-    <mergeCell ref="D145:D146"/>
-    <mergeCell ref="F145:F146"/>
-    <mergeCell ref="A147:A148"/>
-    <mergeCell ref="B147:B148"/>
-    <mergeCell ref="C147:C148"/>
-    <mergeCell ref="D147:D148"/>
-    <mergeCell ref="F147:F148"/>
-    <mergeCell ref="E145:E146"/>
-    <mergeCell ref="E147:E148"/>
-    <mergeCell ref="A141:A142"/>
-    <mergeCell ref="B141:B142"/>
-    <mergeCell ref="C141:C142"/>
-    <mergeCell ref="D141:D142"/>
-    <mergeCell ref="F141:F142"/>
-    <mergeCell ref="A143:A144"/>
-    <mergeCell ref="B143:B144"/>
-    <mergeCell ref="C143:C144"/>
-    <mergeCell ref="D143:D144"/>
-    <mergeCell ref="F143:F144"/>
-    <mergeCell ref="E141:E142"/>
-    <mergeCell ref="A137:A138"/>
-    <mergeCell ref="B137:B138"/>
-    <mergeCell ref="C137:C138"/>
-    <mergeCell ref="D137:D138"/>
-    <mergeCell ref="F137:F138"/>
-    <mergeCell ref="A139:A140"/>
-    <mergeCell ref="B139:B140"/>
-    <mergeCell ref="C139:C140"/>
-    <mergeCell ref="D139:D140"/>
-    <mergeCell ref="F139:F140"/>
-    <mergeCell ref="E137:E138"/>
-    <mergeCell ref="E139:E140"/>
-    <mergeCell ref="A133:A134"/>
-    <mergeCell ref="B133:B134"/>
-    <mergeCell ref="C133:C134"/>
-    <mergeCell ref="D133:D134"/>
-    <mergeCell ref="F133:F134"/>
-    <mergeCell ref="A135:A136"/>
-    <mergeCell ref="B135:B136"/>
-    <mergeCell ref="C135:C136"/>
-    <mergeCell ref="D135:D136"/>
-    <mergeCell ref="F135:F136"/>
-    <mergeCell ref="E133:E134"/>
-    <mergeCell ref="E135:E136"/>
-    <mergeCell ref="A129:A130"/>
-    <mergeCell ref="B129:B130"/>
-    <mergeCell ref="C129:C130"/>
-    <mergeCell ref="D129:D130"/>
-    <mergeCell ref="F129:F130"/>
-    <mergeCell ref="A131:A132"/>
-    <mergeCell ref="B131:B132"/>
-    <mergeCell ref="C131:C132"/>
-    <mergeCell ref="D131:D132"/>
-    <mergeCell ref="F131:F132"/>
-    <mergeCell ref="E129:E130"/>
-    <mergeCell ref="E131:E132"/>
-    <mergeCell ref="A125:A126"/>
-    <mergeCell ref="B125:B126"/>
-    <mergeCell ref="C125:C126"/>
-    <mergeCell ref="D125:D126"/>
-    <mergeCell ref="F125:F126"/>
-    <mergeCell ref="A127:A128"/>
-    <mergeCell ref="B127:B128"/>
-    <mergeCell ref="C127:C128"/>
-    <mergeCell ref="D127:D128"/>
-    <mergeCell ref="F127:F128"/>
-    <mergeCell ref="E127:E128"/>
-    <mergeCell ref="A121:A122"/>
-    <mergeCell ref="B121:B122"/>
-    <mergeCell ref="C121:C122"/>
-    <mergeCell ref="F121:F122"/>
-    <mergeCell ref="A123:A124"/>
-    <mergeCell ref="B123:B124"/>
-    <mergeCell ref="C123:C124"/>
-    <mergeCell ref="D123:D124"/>
-    <mergeCell ref="F123:F124"/>
-    <mergeCell ref="E123:E124"/>
-    <mergeCell ref="A115:A116"/>
-    <mergeCell ref="B115:B116"/>
-    <mergeCell ref="C115:C116"/>
-    <mergeCell ref="F115:F116"/>
-    <mergeCell ref="A117:A118"/>
-    <mergeCell ref="B117:B118"/>
-    <mergeCell ref="C117:C118"/>
-    <mergeCell ref="F117:F118"/>
-    <mergeCell ref="A119:A120"/>
-    <mergeCell ref="B119:B120"/>
-    <mergeCell ref="C119:C120"/>
-    <mergeCell ref="F119:F120"/>
-    <mergeCell ref="A109:A112"/>
-    <mergeCell ref="B109:B112"/>
-    <mergeCell ref="C109:C112"/>
-    <mergeCell ref="F109:F112"/>
-    <mergeCell ref="A113:A114"/>
-    <mergeCell ref="B113:B114"/>
-    <mergeCell ref="C113:C114"/>
-    <mergeCell ref="D113:D114"/>
-    <mergeCell ref="F113:F114"/>
-    <mergeCell ref="E113:E114"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="F55:F56"/>
-    <mergeCell ref="E97:E98"/>
-    <mergeCell ref="E99:E100"/>
-    <mergeCell ref="E101:E102"/>
-    <mergeCell ref="E103:E104"/>
-    <mergeCell ref="E105:E106"/>
-    <mergeCell ref="E85:E86"/>
-    <mergeCell ref="E87:E88"/>
-    <mergeCell ref="E89:E90"/>
-    <mergeCell ref="E91:E92"/>
-    <mergeCell ref="E93:E94"/>
-    <mergeCell ref="E95:E96"/>
-    <mergeCell ref="E73:E74"/>
-    <mergeCell ref="E75:E76"/>
-    <mergeCell ref="E77:E78"/>
-    <mergeCell ref="E79:E80"/>
-    <mergeCell ref="E81:E82"/>
-    <mergeCell ref="E83:E84"/>
-    <mergeCell ref="E61:E62"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="A103:A104"/>
-    <mergeCell ref="B103:B104"/>
-    <mergeCell ref="C103:C104"/>
-    <mergeCell ref="D103:D104"/>
-    <mergeCell ref="F103:F104"/>
-    <mergeCell ref="A105:A106"/>
-    <mergeCell ref="B105:B106"/>
-    <mergeCell ref="C105:C106"/>
-    <mergeCell ref="D105:D106"/>
-    <mergeCell ref="F105:F106"/>
-    <mergeCell ref="F99:F100"/>
-    <mergeCell ref="A101:A102"/>
-    <mergeCell ref="B101:B102"/>
-    <mergeCell ref="C101:C102"/>
-    <mergeCell ref="D101:D102"/>
-    <mergeCell ref="F101:F102"/>
-    <mergeCell ref="A95:A96"/>
-    <mergeCell ref="B95:B96"/>
-    <mergeCell ref="C95:C96"/>
-    <mergeCell ref="D95:D96"/>
-    <mergeCell ref="F95:F96"/>
-    <mergeCell ref="A97:A98"/>
-    <mergeCell ref="B97:B98"/>
-    <mergeCell ref="C97:C98"/>
-    <mergeCell ref="D97:D98"/>
-    <mergeCell ref="F97:F98"/>
-    <mergeCell ref="A99:A100"/>
-    <mergeCell ref="B99:B100"/>
-    <mergeCell ref="C99:C100"/>
-    <mergeCell ref="D99:D100"/>
-    <mergeCell ref="F91:F92"/>
-    <mergeCell ref="A93:A94"/>
-    <mergeCell ref="B93:B94"/>
-    <mergeCell ref="C93:C94"/>
-    <mergeCell ref="D93:D94"/>
-    <mergeCell ref="F93:F94"/>
-    <mergeCell ref="A87:A88"/>
-    <mergeCell ref="B87:B88"/>
-    <mergeCell ref="C87:C88"/>
-    <mergeCell ref="D87:D88"/>
-    <mergeCell ref="F87:F88"/>
-    <mergeCell ref="A89:A90"/>
-    <mergeCell ref="B89:B90"/>
-    <mergeCell ref="C89:C90"/>
-    <mergeCell ref="D89:D90"/>
-    <mergeCell ref="F89:F90"/>
-    <mergeCell ref="A91:A92"/>
-    <mergeCell ref="B91:B92"/>
-    <mergeCell ref="C91:C92"/>
-    <mergeCell ref="D91:D92"/>
-    <mergeCell ref="F83:F84"/>
-    <mergeCell ref="A85:A86"/>
-    <mergeCell ref="B85:B86"/>
-    <mergeCell ref="C85:C86"/>
-    <mergeCell ref="D85:D86"/>
-    <mergeCell ref="F85:F86"/>
-    <mergeCell ref="A79:A80"/>
-    <mergeCell ref="B79:B80"/>
-    <mergeCell ref="C79:C80"/>
-    <mergeCell ref="D79:D80"/>
-    <mergeCell ref="F79:F80"/>
-    <mergeCell ref="A81:A82"/>
-    <mergeCell ref="B81:B82"/>
-    <mergeCell ref="C81:C82"/>
-    <mergeCell ref="D81:D82"/>
-    <mergeCell ref="F81:F82"/>
-    <mergeCell ref="A83:A84"/>
-    <mergeCell ref="B83:B84"/>
-    <mergeCell ref="C83:C84"/>
-    <mergeCell ref="D83:D84"/>
-    <mergeCell ref="F75:F76"/>
-    <mergeCell ref="A77:A78"/>
-    <mergeCell ref="B77:B78"/>
-    <mergeCell ref="C77:C78"/>
-    <mergeCell ref="D77:D78"/>
-    <mergeCell ref="F77:F78"/>
-    <mergeCell ref="A71:A72"/>
-    <mergeCell ref="B71:B72"/>
-    <mergeCell ref="C71:C72"/>
-    <mergeCell ref="D71:D72"/>
-    <mergeCell ref="F71:F72"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="C73:C74"/>
-    <mergeCell ref="D73:D74"/>
-    <mergeCell ref="F73:F74"/>
-    <mergeCell ref="E71:E72"/>
-    <mergeCell ref="A75:A76"/>
-    <mergeCell ref="B75:B76"/>
-    <mergeCell ref="C75:C76"/>
-    <mergeCell ref="D75:D76"/>
-    <mergeCell ref="F67:F68"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="B69:B70"/>
-    <mergeCell ref="C69:C70"/>
-    <mergeCell ref="D69:D70"/>
-    <mergeCell ref="F69:F70"/>
-    <mergeCell ref="E67:E68"/>
-    <mergeCell ref="E69:E70"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="D63:D64"/>
-    <mergeCell ref="F63:F64"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="C65:C66"/>
-    <mergeCell ref="D65:D66"/>
-    <mergeCell ref="F65:F66"/>
-    <mergeCell ref="E63:E64"/>
-    <mergeCell ref="E65:E66"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="C67:C68"/>
-    <mergeCell ref="D67:D68"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="D59:D60"/>
-    <mergeCell ref="F59:F60"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="C61:C62"/>
-    <mergeCell ref="D61:D62"/>
-    <mergeCell ref="F61:F62"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="F53:F54"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="C57:C58"/>
-    <mergeCell ref="D57:D58"/>
-    <mergeCell ref="F57:F58"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="E57:E58"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="F51:F52"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="F47:F48"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="F49:F50"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="D45:D46"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="B13:B22"/>
-    <mergeCell ref="C13:C22"/>
-    <mergeCell ref="F13:F22"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="A13:A22"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="E159:E160"/>
+    <mergeCell ref="E161:E162"/>
+    <mergeCell ref="E125:E126"/>
+    <mergeCell ref="D115:D116"/>
+    <mergeCell ref="D117:D118"/>
+    <mergeCell ref="D119:D120"/>
+    <mergeCell ref="D121:D122"/>
+    <mergeCell ref="E115:E116"/>
+    <mergeCell ref="E117:E118"/>
+    <mergeCell ref="E119:E120"/>
+    <mergeCell ref="E121:E122"/>
+    <mergeCell ref="E149:E150"/>
+    <mergeCell ref="A163:A164"/>
+    <mergeCell ref="B163:B164"/>
+    <mergeCell ref="C163:C164"/>
+    <mergeCell ref="D163:D164"/>
+    <mergeCell ref="E163:E164"/>
+    <mergeCell ref="F163:F164"/>
+    <mergeCell ref="A169:A170"/>
+    <mergeCell ref="D165:D166"/>
+    <mergeCell ref="D167:D168"/>
+    <mergeCell ref="D169:D170"/>
+    <mergeCell ref="A165:A166"/>
+    <mergeCell ref="B165:B166"/>
+    <mergeCell ref="A167:A168"/>
+    <mergeCell ref="B167:B168"/>
+    <mergeCell ref="A175:F176"/>
+    <mergeCell ref="D173:D174"/>
+    <mergeCell ref="E165:E166"/>
+    <mergeCell ref="E167:E168"/>
+    <mergeCell ref="E169:E170"/>
+    <mergeCell ref="E173:E174"/>
+    <mergeCell ref="F165:F166"/>
+    <mergeCell ref="F167:F168"/>
+    <mergeCell ref="F169:F170"/>
+    <mergeCell ref="F173:F174"/>
+    <mergeCell ref="A173:A174"/>
+    <mergeCell ref="B169:B170"/>
+    <mergeCell ref="B173:B174"/>
+    <mergeCell ref="C165:C166"/>
+    <mergeCell ref="C167:C168"/>
+    <mergeCell ref="C169:C170"/>
+    <mergeCell ref="C173:C174"/>
+    <mergeCell ref="A171:A172"/>
+    <mergeCell ref="B171:B172"/>
+    <mergeCell ref="C171:C172"/>
+    <mergeCell ref="D171:D172"/>
+    <mergeCell ref="E171:E172"/>
+    <mergeCell ref="F171:F172"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/复成6600项目通讯接口数据表V1.0.xlsx
+++ b/复成6600项目通讯接口数据表V1.0.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\60232\Desktop\Rehand6600\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E3B022B-487F-41CD-AED8-F66F63E89E36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{421FFC94-F23F-4A02-ACCC-DBDF84C1EC2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="640" windowWidth="19420" windowHeight="10300" xr2:uid="{D90371CC-6FC8-423E-8360-AE94A910F611}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D90371CC-6FC8-423E-8360-AE94A910F611}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1116,7 +1116,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="28">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -1409,7 +1409,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right/>
@@ -1419,7 +1428,7 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top/>
@@ -1427,7 +1436,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right/>
@@ -1439,7 +1448,9 @@
     </border>
     <border>
       <left/>
-      <right/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom style="thin">
         <color indexed="64"/>
@@ -1447,12 +1458,46 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="thin">
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -1463,7 +1508,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1474,9 +1519,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
@@ -1497,76 +1539,13 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1575,34 +1554,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1616,6 +1577,102 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1931,10 +1988,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB0936CE-2BB3-46F3-BCDA-EC05AB030230}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:F263"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E53" sqref="E53:E54"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9:D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1948,183 +2008,183 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="30" x14ac:dyDescent="0.2">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="28" t="s">
         <v>109</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="29"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="30"/>
     </row>
     <row r="2" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="38">
+      <c r="A3" s="10">
         <v>0</v>
       </c>
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="C3" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="25" t="s">
+      <c r="D3" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="35" t="s">
+      <c r="E3" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="F3" s="33" t="s">
+      <c r="F3" s="12" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="38"/>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="33"/>
+      <c r="A4" s="10"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="12"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="38">
+      <c r="A5" s="10">
         <v>1</v>
       </c>
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="25" t="s">
+      <c r="C5" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="35" t="s">
+      <c r="D5" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="E5" s="35" t="s">
+      <c r="E5" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="F5" s="33" t="s">
+      <c r="F5" s="12" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="38"/>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="33"/>
+      <c r="A6" s="10"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="12"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="38">
+      <c r="A7" s="10">
         <v>2</v>
       </c>
-      <c r="B7" s="25" t="s">
+      <c r="B7" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="25" t="s">
+      <c r="C7" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="25" t="s">
+      <c r="D7" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="E7" s="35" t="s">
+      <c r="E7" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="F7" s="33" t="s">
+      <c r="F7" s="12" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="38"/>
-      <c r="B8" s="25"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="33"/>
+      <c r="A8" s="10"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="12"/>
     </row>
     <row r="9" spans="1:6" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="38">
+      <c r="A9" s="10">
         <v>3</v>
       </c>
-      <c r="B9" s="25" t="s">
+      <c r="B9" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="25" t="s">
+      <c r="C9" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="25" t="s">
+      <c r="D9" s="11" t="s">
         <v>160</v>
       </c>
-      <c r="E9" s="35" t="s">
+      <c r="E9" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="F9" s="33" t="s">
+      <c r="F9" s="12" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="38"/>
-      <c r="B10" s="25"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="36"/>
-      <c r="F10" s="33"/>
+      <c r="A10" s="10"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="12"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="38">
+      <c r="A11" s="10">
         <v>4</v>
       </c>
-      <c r="B11" s="25" t="s">
+      <c r="B11" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="25" t="s">
+      <c r="C11" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="35" t="s">
+      <c r="D11" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="E11" s="35" t="s">
+      <c r="E11" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="F11" s="33" t="s">
+      <c r="F11" s="12" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="38"/>
-      <c r="B12" s="25"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="36"/>
-      <c r="E12" s="36"/>
-      <c r="F12" s="47"/>
+      <c r="A12" s="10"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="19"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="48">
+      <c r="A13" s="20">
         <v>5</v>
       </c>
-      <c r="B13" s="35" t="s">
+      <c r="B13" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="35" t="s">
+      <c r="C13" s="13" t="s">
         <v>13</v>
       </c>
       <c r="D13" s="1" t="s">
@@ -2133,3724 +2193,3885 @@
       <c r="E13" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="F13" s="43" t="s">
+      <c r="F13" s="16" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="49"/>
-      <c r="B14" s="45"/>
-      <c r="C14" s="45"/>
+      <c r="A14" s="21"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
       <c r="D14" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="F14" s="46"/>
+      <c r="F14" s="17"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="49"/>
-      <c r="B15" s="45"/>
-      <c r="C15" s="45"/>
+      <c r="A15" s="21"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="15"/>
       <c r="D15" s="1" t="s">
         <v>89</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F15" s="46"/>
+      <c r="F15" s="17"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="49"/>
-      <c r="B16" s="45"/>
-      <c r="C16" s="45"/>
+      <c r="A16" s="21"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="15"/>
       <c r="D16" s="1" t="s">
         <v>90</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F16" s="46"/>
+      <c r="F16" s="17"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="49"/>
-      <c r="B17" s="45"/>
-      <c r="C17" s="45"/>
+      <c r="A17" s="21"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="15"/>
       <c r="D17" s="1" t="s">
         <v>91</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F17" s="46"/>
+      <c r="F17" s="17"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="49"/>
-      <c r="B18" s="45"/>
-      <c r="C18" s="45"/>
+      <c r="A18" s="21"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="15"/>
       <c r="D18" s="1" t="s">
         <v>92</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F18" s="46"/>
+      <c r="F18" s="17"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="49"/>
-      <c r="B19" s="45"/>
-      <c r="C19" s="45"/>
+      <c r="A19" s="21"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="15"/>
       <c r="D19" s="1" t="s">
         <v>93</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F19" s="46"/>
+      <c r="F19" s="17"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="49"/>
-      <c r="B20" s="45"/>
-      <c r="C20" s="45"/>
+      <c r="A20" s="21"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="15"/>
       <c r="D20" s="1" t="s">
         <v>94</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F20" s="46"/>
+      <c r="F20" s="17"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="49"/>
-      <c r="B21" s="45"/>
-      <c r="C21" s="45"/>
+      <c r="A21" s="21"/>
+      <c r="B21" s="15"/>
+      <c r="C21" s="15"/>
       <c r="D21" s="1" t="s">
         <v>96</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F21" s="46"/>
+      <c r="F21" s="17"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="50"/>
-      <c r="B22" s="36"/>
-      <c r="C22" s="36"/>
+      <c r="A22" s="22"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
       <c r="D22" s="1" t="s">
         <v>97</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F22" s="42"/>
+      <c r="F22" s="18"/>
     </row>
     <row r="23" spans="1:6" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="38">
+      <c r="A23" s="10">
         <v>6</v>
       </c>
-      <c r="B23" s="25" t="s">
+      <c r="B23" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C23" s="25" t="s">
+      <c r="C23" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D23" s="25" t="s">
+      <c r="D23" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E23" s="35" t="s">
+      <c r="E23" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="F23" s="37" t="s">
+      <c r="F23" s="23" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="38"/>
-      <c r="B24" s="25"/>
-      <c r="C24" s="25"/>
-      <c r="D24" s="25"/>
-      <c r="E24" s="36"/>
-      <c r="F24" s="37"/>
+      <c r="A24" s="10"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="23"/>
     </row>
     <row r="25" spans="1:6" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="38">
+      <c r="A25" s="10">
         <v>7</v>
       </c>
-      <c r="B25" s="25" t="s">
+      <c r="B25" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C25" s="25" t="s">
+      <c r="C25" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D25" s="25" t="s">
+      <c r="D25" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="E25" s="35" t="s">
+      <c r="E25" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="F25" s="37" t="s">
+      <c r="F25" s="23" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="38"/>
-      <c r="B26" s="25"/>
-      <c r="C26" s="25"/>
-      <c r="D26" s="25"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="37"/>
+      <c r="A26" s="10"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="23"/>
     </row>
     <row r="27" spans="1:6" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="38">
+      <c r="A27" s="10">
         <v>8</v>
       </c>
-      <c r="B27" s="25" t="s">
+      <c r="B27" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C27" s="25" t="s">
+      <c r="C27" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D27" s="25" t="s">
+      <c r="D27" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E27" s="35" t="s">
+      <c r="E27" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="F27" s="37" t="s">
+      <c r="F27" s="23" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="38"/>
-      <c r="B28" s="25"/>
-      <c r="C28" s="25"/>
-      <c r="D28" s="25"/>
-      <c r="E28" s="36"/>
-      <c r="F28" s="37"/>
+      <c r="A28" s="10"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="23"/>
     </row>
     <row r="29" spans="1:6" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="38">
+      <c r="A29" s="10">
         <v>9</v>
       </c>
-      <c r="B29" s="25" t="s">
+      <c r="B29" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C29" s="25" t="s">
+      <c r="C29" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D29" s="25" t="s">
+      <c r="D29" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="E29" s="35" t="s">
+      <c r="E29" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="F29" s="37" t="s">
+      <c r="F29" s="23" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" s="38"/>
-      <c r="B30" s="25"/>
-      <c r="C30" s="25"/>
-      <c r="D30" s="25"/>
-      <c r="E30" s="36"/>
-      <c r="F30" s="37"/>
+      <c r="A30" s="10"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="23"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" s="38">
+      <c r="A31" s="10">
         <v>10</v>
       </c>
-      <c r="B31" s="25" t="s">
+      <c r="B31" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C31" s="25" t="s">
+      <c r="C31" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D31" s="25" t="s">
+      <c r="D31" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="E31" s="35" t="s">
+      <c r="E31" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="F31" s="33" t="s">
+      <c r="F31" s="12" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32" s="38"/>
-      <c r="B32" s="25"/>
-      <c r="C32" s="25"/>
-      <c r="D32" s="25"/>
-      <c r="E32" s="36"/>
-      <c r="F32" s="33"/>
+      <c r="A32" s="10"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="12"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" s="38">
+      <c r="A33" s="10">
         <v>11</v>
       </c>
-      <c r="B33" s="25" t="s">
+      <c r="B33" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C33" s="25" t="s">
+      <c r="C33" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="D33" s="25" t="s">
+      <c r="D33" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="E33" s="35" t="s">
+      <c r="E33" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="F33" s="33" t="s">
+      <c r="F33" s="12" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" s="38"/>
-      <c r="B34" s="25"/>
-      <c r="C34" s="25"/>
-      <c r="D34" s="25"/>
-      <c r="E34" s="36"/>
-      <c r="F34" s="33"/>
+      <c r="A34" s="10"/>
+      <c r="B34" s="11"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="12"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" s="38">
+      <c r="A35" s="10">
         <v>12</v>
       </c>
-      <c r="B35" s="25" t="s">
+      <c r="B35" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C35" s="25" t="s">
+      <c r="C35" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="D35" s="25" t="s">
+      <c r="D35" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="E35" s="35" t="s">
+      <c r="E35" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="F35" s="33" t="s">
+      <c r="F35" s="12" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36" s="38"/>
-      <c r="B36" s="25"/>
-      <c r="C36" s="25"/>
-      <c r="D36" s="25"/>
-      <c r="E36" s="36"/>
-      <c r="F36" s="33"/>
+      <c r="A36" s="10"/>
+      <c r="B36" s="11"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="12"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37" s="38">
+      <c r="A37" s="10">
         <v>13</v>
       </c>
-      <c r="B37" s="25" t="s">
+      <c r="B37" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C37" s="25" t="s">
+      <c r="C37" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D37" s="35" t="s">
+      <c r="D37" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="E37" s="35" t="s">
+      <c r="E37" s="13" t="s">
         <v>149</v>
       </c>
-      <c r="F37" s="43" t="s">
+      <c r="F37" s="16" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A38" s="38"/>
-      <c r="B38" s="25"/>
-      <c r="C38" s="25"/>
-      <c r="D38" s="36"/>
-      <c r="E38" s="36"/>
-      <c r="F38" s="44"/>
+      <c r="A38" s="10"/>
+      <c r="B38" s="11"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="24"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A39" s="38">
+      <c r="A39" s="10">
         <v>14</v>
       </c>
-      <c r="B39" s="25" t="s">
+      <c r="B39" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C39" s="25" t="s">
+      <c r="C39" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="D39" s="35" t="s">
+      <c r="D39" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="E39" s="35" t="s">
+      <c r="E39" s="13" t="s">
         <v>149</v>
       </c>
-      <c r="F39" s="43" t="s">
+      <c r="F39" s="16" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A40" s="38"/>
-      <c r="B40" s="25"/>
-      <c r="C40" s="25"/>
-      <c r="D40" s="36"/>
-      <c r="E40" s="36"/>
-      <c r="F40" s="44"/>
+      <c r="A40" s="10"/>
+      <c r="B40" s="11"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="24"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A41" s="38">
+      <c r="A41" s="10">
         <v>15</v>
       </c>
-      <c r="B41" s="25" t="s">
+      <c r="B41" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C41" s="25" t="s">
+      <c r="C41" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="D41" s="25" t="s">
+      <c r="D41" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="E41" s="35" t="s">
+      <c r="E41" s="13" t="s">
         <v>149</v>
       </c>
-      <c r="F41" s="33" t="s">
+      <c r="F41" s="12" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A42" s="38"/>
-      <c r="B42" s="25"/>
-      <c r="C42" s="25"/>
-      <c r="D42" s="25"/>
-      <c r="E42" s="36"/>
-      <c r="F42" s="33"/>
+      <c r="A42" s="10"/>
+      <c r="B42" s="11"/>
+      <c r="C42" s="11"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="14"/>
+      <c r="F42" s="12"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A43" s="38">
+      <c r="A43" s="10">
         <v>16</v>
       </c>
-      <c r="B43" s="25" t="s">
+      <c r="B43" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C43" s="25" t="s">
+      <c r="C43" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="D43" s="25" t="s">
+      <c r="D43" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="E43" s="35" t="s">
+      <c r="E43" s="13" t="s">
         <v>150</v>
       </c>
-      <c r="F43" s="33" t="s">
+      <c r="F43" s="12" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A44" s="38"/>
-      <c r="B44" s="25"/>
-      <c r="C44" s="25"/>
-      <c r="D44" s="25"/>
-      <c r="E44" s="36"/>
-      <c r="F44" s="33"/>
+      <c r="A44" s="10"/>
+      <c r="B44" s="11"/>
+      <c r="C44" s="11"/>
+      <c r="D44" s="11"/>
+      <c r="E44" s="14"/>
+      <c r="F44" s="12"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A45" s="38">
+      <c r="A45" s="10">
         <v>17</v>
       </c>
-      <c r="B45" s="25" t="s">
+      <c r="B45" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C45" s="25" t="s">
+      <c r="C45" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="D45" s="25" t="s">
+      <c r="D45" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="E45" s="35" t="s">
+      <c r="E45" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="F45" s="33" t="s">
+      <c r="F45" s="12" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A46" s="38"/>
-      <c r="B46" s="25"/>
-      <c r="C46" s="25"/>
-      <c r="D46" s="25"/>
-      <c r="E46" s="36"/>
-      <c r="F46" s="33"/>
+      <c r="A46" s="10"/>
+      <c r="B46" s="11"/>
+      <c r="C46" s="11"/>
+      <c r="D46" s="11"/>
+      <c r="E46" s="14"/>
+      <c r="F46" s="12"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A47" s="38">
+      <c r="A47" s="10">
         <v>18</v>
       </c>
-      <c r="B47" s="25" t="s">
+      <c r="B47" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C47" s="25" t="s">
+      <c r="C47" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="D47" s="25" t="s">
+      <c r="D47" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E47" s="35" t="s">
+      <c r="E47" s="13" t="s">
         <v>152</v>
       </c>
-      <c r="F47" s="33" t="s">
+      <c r="F47" s="12" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A48" s="38"/>
-      <c r="B48" s="25"/>
-      <c r="C48" s="25"/>
-      <c r="D48" s="25"/>
-      <c r="E48" s="36"/>
-      <c r="F48" s="33"/>
+      <c r="A48" s="10"/>
+      <c r="B48" s="11"/>
+      <c r="C48" s="11"/>
+      <c r="D48" s="11"/>
+      <c r="E48" s="14"/>
+      <c r="F48" s="12"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A49" s="38">
+      <c r="A49" s="10">
         <v>19</v>
       </c>
-      <c r="B49" s="25" t="s">
+      <c r="B49" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C49" s="25" t="s">
+      <c r="C49" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="D49" s="25" t="s">
+      <c r="D49" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="E49" s="35" t="s">
+      <c r="E49" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="F49" s="33" t="s">
+      <c r="F49" s="12" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A50" s="38"/>
-      <c r="B50" s="25"/>
-      <c r="C50" s="25"/>
-      <c r="D50" s="25"/>
-      <c r="E50" s="36"/>
-      <c r="F50" s="33"/>
+      <c r="A50" s="10"/>
+      <c r="B50" s="11"/>
+      <c r="C50" s="11"/>
+      <c r="D50" s="11"/>
+      <c r="E50" s="14"/>
+      <c r="F50" s="12"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A51" s="38">
+      <c r="A51" s="10">
         <v>20</v>
       </c>
-      <c r="B51" s="25" t="s">
+      <c r="B51" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C51" s="25" t="s">
+      <c r="C51" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="D51" s="35" t="s">
+      <c r="D51" s="13" t="s">
         <v>168</v>
       </c>
-      <c r="E51" s="35" t="s">
+      <c r="E51" s="13" t="s">
         <v>279</v>
       </c>
-      <c r="F51" s="33" t="s">
+      <c r="F51" s="12" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A52" s="38"/>
-      <c r="B52" s="25"/>
-      <c r="C52" s="25"/>
-      <c r="D52" s="36"/>
-      <c r="E52" s="36"/>
-      <c r="F52" s="33"/>
+      <c r="A52" s="10"/>
+      <c r="B52" s="11"/>
+      <c r="C52" s="11"/>
+      <c r="D52" s="14"/>
+      <c r="E52" s="14"/>
+      <c r="F52" s="12"/>
     </row>
     <row r="53" spans="1:6" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="38">
+      <c r="A53" s="10">
         <v>21</v>
       </c>
-      <c r="B53" s="25" t="s">
+      <c r="B53" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C53" s="25" t="s">
+      <c r="C53" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="D53" s="35" t="s">
+      <c r="D53" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="E53" s="35" t="s">
+      <c r="E53" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="F53" s="37" t="s">
+      <c r="F53" s="23" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="2.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="38"/>
-      <c r="B54" s="25"/>
-      <c r="C54" s="25"/>
-      <c r="D54" s="36"/>
-      <c r="E54" s="36"/>
-      <c r="F54" s="37"/>
+      <c r="A54" s="10"/>
+      <c r="B54" s="11"/>
+      <c r="C54" s="11"/>
+      <c r="D54" s="14"/>
+      <c r="E54" s="14"/>
+      <c r="F54" s="23"/>
     </row>
     <row r="55" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="38">
+      <c r="A55" s="10">
         <v>22</v>
       </c>
-      <c r="B55" s="25" t="s">
+      <c r="B55" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C55" s="25" t="s">
+      <c r="C55" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="D55" s="35" t="s">
+      <c r="D55" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="E55" s="35" t="s">
+      <c r="E55" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="F55" s="37" t="s">
+      <c r="F55" s="23" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A56" s="38"/>
-      <c r="B56" s="25"/>
-      <c r="C56" s="25"/>
-      <c r="D56" s="36"/>
-      <c r="E56" s="36"/>
-      <c r="F56" s="37"/>
+      <c r="A56" s="10"/>
+      <c r="B56" s="11"/>
+      <c r="C56" s="11"/>
+      <c r="D56" s="14"/>
+      <c r="E56" s="14"/>
+      <c r="F56" s="23"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A57" s="38">
+      <c r="A57" s="10">
         <v>23</v>
       </c>
-      <c r="B57" s="25" t="s">
+      <c r="B57" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C57" s="25" t="s">
+      <c r="C57" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="D57" s="35" t="s">
+      <c r="D57" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="E57" s="35" t="s">
+      <c r="E57" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="F57" s="37" t="s">
+      <c r="F57" s="23" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A58" s="38"/>
-      <c r="B58" s="25"/>
-      <c r="C58" s="25"/>
-      <c r="D58" s="36"/>
-      <c r="E58" s="36"/>
-      <c r="F58" s="37"/>
+      <c r="A58" s="10"/>
+      <c r="B58" s="11"/>
+      <c r="C58" s="11"/>
+      <c r="D58" s="14"/>
+      <c r="E58" s="14"/>
+      <c r="F58" s="23"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A59" s="38">
+      <c r="A59" s="10">
         <v>24</v>
       </c>
-      <c r="B59" s="25" t="s">
+      <c r="B59" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C59" s="25" t="s">
+      <c r="C59" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="D59" s="35" t="s">
+      <c r="D59" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="E59" s="35" t="s">
+      <c r="E59" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="F59" s="37" t="s">
+      <c r="F59" s="23" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A60" s="38"/>
-      <c r="B60" s="25"/>
-      <c r="C60" s="25"/>
-      <c r="D60" s="36"/>
-      <c r="E60" s="36"/>
-      <c r="F60" s="37"/>
+      <c r="A60" s="10"/>
+      <c r="B60" s="11"/>
+      <c r="C60" s="11"/>
+      <c r="D60" s="14"/>
+      <c r="E60" s="14"/>
+      <c r="F60" s="23"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A61" s="38">
+      <c r="A61" s="10">
         <v>25</v>
       </c>
-      <c r="B61" s="25" t="s">
+      <c r="B61" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C61" s="25" t="s">
+      <c r="C61" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="D61" s="35" t="s">
+      <c r="D61" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="E61" s="35" t="s">
+      <c r="E61" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="F61" s="37" t="s">
+      <c r="F61" s="23" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A62" s="38"/>
-      <c r="B62" s="25"/>
-      <c r="C62" s="25"/>
-      <c r="D62" s="36"/>
-      <c r="E62" s="36"/>
-      <c r="F62" s="37"/>
+      <c r="A62" s="10"/>
+      <c r="B62" s="11"/>
+      <c r="C62" s="11"/>
+      <c r="D62" s="14"/>
+      <c r="E62" s="14"/>
+      <c r="F62" s="23"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A63" s="38">
+      <c r="A63" s="10">
         <v>26</v>
       </c>
-      <c r="B63" s="25" t="s">
+      <c r="B63" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C63" s="25" t="s">
+      <c r="C63" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="D63" s="35" t="s">
+      <c r="D63" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="E63" s="35" t="s">
+      <c r="E63" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="F63" s="37" t="s">
+      <c r="F63" s="23" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A64" s="38"/>
-      <c r="B64" s="25"/>
-      <c r="C64" s="25"/>
-      <c r="D64" s="36"/>
-      <c r="E64" s="36"/>
-      <c r="F64" s="37"/>
+      <c r="A64" s="10"/>
+      <c r="B64" s="11"/>
+      <c r="C64" s="11"/>
+      <c r="D64" s="14"/>
+      <c r="E64" s="14"/>
+      <c r="F64" s="23"/>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A65" s="38">
+      <c r="A65" s="10">
         <v>27</v>
       </c>
-      <c r="B65" s="25" t="s">
+      <c r="B65" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C65" s="25" t="s">
+      <c r="C65" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="D65" s="35" t="s">
+      <c r="D65" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="E65" s="35" t="s">
+      <c r="E65" s="13" t="s">
         <v>158</v>
       </c>
-      <c r="F65" s="37" t="s">
+      <c r="F65" s="23" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A66" s="38"/>
-      <c r="B66" s="25"/>
-      <c r="C66" s="25"/>
-      <c r="D66" s="36"/>
-      <c r="E66" s="36"/>
-      <c r="F66" s="37"/>
+      <c r="A66" s="10"/>
+      <c r="B66" s="11"/>
+      <c r="C66" s="11"/>
+      <c r="D66" s="14"/>
+      <c r="E66" s="14"/>
+      <c r="F66" s="23"/>
     </row>
     <row r="67" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="38">
+      <c r="A67" s="10">
         <v>28</v>
       </c>
-      <c r="B67" s="25" t="s">
+      <c r="B67" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C67" s="25" t="s">
+      <c r="C67" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="D67" s="35" t="s">
+      <c r="D67" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="E67" s="35" t="s">
+      <c r="E67" s="13" t="s">
         <v>158</v>
       </c>
-      <c r="F67" s="37" t="s">
+      <c r="F67" s="23" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A68" s="38"/>
-      <c r="B68" s="25"/>
-      <c r="C68" s="25"/>
-      <c r="D68" s="36"/>
-      <c r="E68" s="36"/>
-      <c r="F68" s="37"/>
+      <c r="A68" s="10"/>
+      <c r="B68" s="11"/>
+      <c r="C68" s="11"/>
+      <c r="D68" s="14"/>
+      <c r="E68" s="14"/>
+      <c r="F68" s="23"/>
     </row>
     <row r="69" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="38">
+      <c r="A69" s="10">
         <v>29</v>
       </c>
-      <c r="B69" s="25" t="s">
+      <c r="B69" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C69" s="25" t="s">
+      <c r="C69" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="D69" s="35" t="s">
+      <c r="D69" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="E69" s="35" t="s">
+      <c r="E69" s="13" t="s">
         <v>158</v>
       </c>
-      <c r="F69" s="37" t="s">
+      <c r="F69" s="23" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A70" s="38"/>
-      <c r="B70" s="25"/>
-      <c r="C70" s="25"/>
-      <c r="D70" s="36"/>
-      <c r="E70" s="36"/>
-      <c r="F70" s="37"/>
+      <c r="A70" s="10"/>
+      <c r="B70" s="11"/>
+      <c r="C70" s="11"/>
+      <c r="D70" s="14"/>
+      <c r="E70" s="14"/>
+      <c r="F70" s="23"/>
     </row>
     <row r="71" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="38">
+      <c r="A71" s="10">
         <v>30</v>
       </c>
-      <c r="B71" s="25" t="s">
+      <c r="B71" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C71" s="25" t="s">
+      <c r="C71" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="D71" s="35" t="s">
+      <c r="D71" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="E71" s="35" t="s">
+      <c r="E71" s="13" t="s">
         <v>158</v>
       </c>
-      <c r="F71" s="37" t="s">
+      <c r="F71" s="23" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A72" s="38"/>
-      <c r="B72" s="25"/>
-      <c r="C72" s="25"/>
-      <c r="D72" s="36"/>
-      <c r="E72" s="36"/>
-      <c r="F72" s="37"/>
+      <c r="A72" s="10"/>
+      <c r="B72" s="11"/>
+      <c r="C72" s="11"/>
+      <c r="D72" s="14"/>
+      <c r="E72" s="14"/>
+      <c r="F72" s="23"/>
     </row>
     <row r="73" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="38">
+      <c r="A73" s="10">
         <v>31</v>
       </c>
-      <c r="B73" s="25" t="s">
+      <c r="B73" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C73" s="25" t="s">
+      <c r="C73" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="D73" s="35" t="s">
+      <c r="D73" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="E73" s="35" t="s">
+      <c r="E73" s="13" t="s">
         <v>158</v>
       </c>
-      <c r="F73" s="37" t="s">
+      <c r="F73" s="23" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A74" s="38"/>
-      <c r="B74" s="25"/>
-      <c r="C74" s="25"/>
-      <c r="D74" s="36"/>
-      <c r="E74" s="36"/>
-      <c r="F74" s="37"/>
+      <c r="A74" s="10"/>
+      <c r="B74" s="11"/>
+      <c r="C74" s="11"/>
+      <c r="D74" s="14"/>
+      <c r="E74" s="14"/>
+      <c r="F74" s="23"/>
     </row>
     <row r="75" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="38">
+      <c r="A75" s="10">
         <v>32</v>
       </c>
-      <c r="B75" s="25" t="s">
+      <c r="B75" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C75" s="25" t="s">
+      <c r="C75" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="D75" s="35" t="s">
+      <c r="D75" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="E75" s="35" t="s">
+      <c r="E75" s="13" t="s">
         <v>158</v>
       </c>
-      <c r="F75" s="37" t="s">
+      <c r="F75" s="23" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A76" s="38"/>
-      <c r="B76" s="25"/>
-      <c r="C76" s="25"/>
-      <c r="D76" s="36"/>
-      <c r="E76" s="36"/>
-      <c r="F76" s="37"/>
+      <c r="A76" s="10"/>
+      <c r="B76" s="11"/>
+      <c r="C76" s="11"/>
+      <c r="D76" s="14"/>
+      <c r="E76" s="14"/>
+      <c r="F76" s="23"/>
     </row>
     <row r="77" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="38">
+      <c r="A77" s="10">
         <v>33</v>
       </c>
-      <c r="B77" s="25" t="s">
+      <c r="B77" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C77" s="25" t="s">
+      <c r="C77" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="D77" s="35" t="s">
+      <c r="D77" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="E77" s="35" t="s">
+      <c r="E77" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="F77" s="33" t="s">
+      <c r="F77" s="12" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A78" s="38"/>
-      <c r="B78" s="25"/>
-      <c r="C78" s="25"/>
-      <c r="D78" s="36"/>
-      <c r="E78" s="36"/>
-      <c r="F78" s="33"/>
+      <c r="A78" s="10"/>
+      <c r="B78" s="11"/>
+      <c r="C78" s="11"/>
+      <c r="D78" s="14"/>
+      <c r="E78" s="14"/>
+      <c r="F78" s="12"/>
     </row>
     <row r="79" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="38">
+      <c r="A79" s="10">
         <v>34</v>
       </c>
-      <c r="B79" s="25" t="s">
+      <c r="B79" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C79" s="25" t="s">
+      <c r="C79" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="D79" s="35" t="s">
+      <c r="D79" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="E79" s="35" t="s">
+      <c r="E79" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="F79" s="33" t="s">
+      <c r="F79" s="12" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A80" s="38"/>
-      <c r="B80" s="25"/>
-      <c r="C80" s="25"/>
-      <c r="D80" s="36"/>
-      <c r="E80" s="36"/>
-      <c r="F80" s="33"/>
+      <c r="A80" s="10"/>
+      <c r="B80" s="11"/>
+      <c r="C80" s="11"/>
+      <c r="D80" s="14"/>
+      <c r="E80" s="14"/>
+      <c r="F80" s="12"/>
     </row>
     <row r="81" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="38">
+      <c r="A81" s="10">
         <v>35</v>
       </c>
-      <c r="B81" s="25" t="s">
+      <c r="B81" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C81" s="25" t="s">
+      <c r="C81" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="D81" s="35" t="s">
+      <c r="D81" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="E81" s="35" t="s">
+      <c r="E81" s="13" t="s">
         <v>153</v>
       </c>
-      <c r="F81" s="35" t="s">
+      <c r="F81" s="16" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A82" s="38"/>
-      <c r="B82" s="25"/>
-      <c r="C82" s="25"/>
-      <c r="D82" s="36"/>
-      <c r="E82" s="36"/>
-      <c r="F82" s="36"/>
+      <c r="A82" s="10"/>
+      <c r="B82" s="11"/>
+      <c r="C82" s="11"/>
+      <c r="D82" s="14"/>
+      <c r="E82" s="14"/>
+      <c r="F82" s="24"/>
     </row>
     <row r="83" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="38">
+      <c r="A83" s="10">
         <v>36</v>
       </c>
-      <c r="B83" s="25" t="s">
+      <c r="B83" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C83" s="25" t="s">
+      <c r="C83" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="D83" s="35" t="s">
+      <c r="D83" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="E83" s="35" t="s">
+      <c r="E83" s="13" t="s">
         <v>154</v>
       </c>
-      <c r="F83" s="43" t="s">
+      <c r="F83" s="16" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A84" s="38"/>
-      <c r="B84" s="25"/>
-      <c r="C84" s="25"/>
-      <c r="D84" s="36"/>
-      <c r="E84" s="36"/>
-      <c r="F84" s="44"/>
+      <c r="A84" s="10"/>
+      <c r="B84" s="11"/>
+      <c r="C84" s="11"/>
+      <c r="D84" s="14"/>
+      <c r="E84" s="14"/>
+      <c r="F84" s="24"/>
     </row>
     <row r="85" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="38">
+      <c r="A85" s="10">
         <v>37</v>
       </c>
-      <c r="B85" s="25" t="s">
+      <c r="B85" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C85" s="25" t="s">
+      <c r="C85" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="D85" s="35" t="s">
+      <c r="D85" s="13" t="s">
         <v>277</v>
       </c>
-      <c r="E85" s="35" t="s">
+      <c r="E85" s="13" t="s">
         <v>278</v>
       </c>
-      <c r="F85" s="43" t="s">
+      <c r="F85" s="16" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A86" s="38"/>
-      <c r="B86" s="25"/>
-      <c r="C86" s="25"/>
-      <c r="D86" s="36"/>
-      <c r="E86" s="36"/>
-      <c r="F86" s="44"/>
+      <c r="A86" s="10"/>
+      <c r="B86" s="11"/>
+      <c r="C86" s="11"/>
+      <c r="D86" s="14"/>
+      <c r="E86" s="14"/>
+      <c r="F86" s="24"/>
     </row>
     <row r="87" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="38">
+      <c r="A87" s="10">
         <v>38</v>
       </c>
-      <c r="B87" s="25" t="s">
+      <c r="B87" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C87" s="25" t="s">
+      <c r="C87" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="D87" s="35" t="s">
+      <c r="D87" s="13" t="s">
         <v>196</v>
       </c>
-      <c r="E87" s="35" t="s">
+      <c r="E87" s="13" t="s">
         <v>254</v>
       </c>
-      <c r="F87" s="43"/>
+      <c r="F87" s="16"/>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A88" s="38"/>
-      <c r="B88" s="25"/>
-      <c r="C88" s="25"/>
-      <c r="D88" s="36"/>
-      <c r="E88" s="36"/>
-      <c r="F88" s="44"/>
+      <c r="A88" s="10"/>
+      <c r="B88" s="11"/>
+      <c r="C88" s="11"/>
+      <c r="D88" s="14"/>
+      <c r="E88" s="14"/>
+      <c r="F88" s="24"/>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A89" s="38">
+      <c r="A89" s="10">
         <v>39</v>
       </c>
-      <c r="B89" s="25" t="s">
+      <c r="B89" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C89" s="25" t="s">
+      <c r="C89" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="D89" s="35" t="s">
+      <c r="D89" s="13" t="s">
         <v>195</v>
       </c>
-      <c r="E89" s="35"/>
-      <c r="F89" s="43"/>
+      <c r="E89" s="13"/>
+      <c r="F89" s="16"/>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A90" s="38"/>
-      <c r="B90" s="25"/>
-      <c r="C90" s="25"/>
-      <c r="D90" s="36"/>
-      <c r="E90" s="36"/>
-      <c r="F90" s="44"/>
+      <c r="A90" s="10"/>
+      <c r="B90" s="11"/>
+      <c r="C90" s="11"/>
+      <c r="D90" s="14"/>
+      <c r="E90" s="14"/>
+      <c r="F90" s="24"/>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A91" s="38">
+      <c r="A91" s="10">
         <v>40</v>
       </c>
-      <c r="B91" s="25" t="s">
+      <c r="B91" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C91" s="25" t="s">
+      <c r="C91" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="D91" s="35" t="s">
+      <c r="D91" s="13" t="s">
         <v>195</v>
       </c>
-      <c r="E91" s="35"/>
-      <c r="F91" s="43"/>
+      <c r="E91" s="13"/>
+      <c r="F91" s="16"/>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A92" s="38"/>
-      <c r="B92" s="25"/>
-      <c r="C92" s="25"/>
-      <c r="D92" s="36"/>
-      <c r="E92" s="36"/>
-      <c r="F92" s="44"/>
+      <c r="A92" s="10"/>
+      <c r="B92" s="11"/>
+      <c r="C92" s="11"/>
+      <c r="D92" s="14"/>
+      <c r="E92" s="14"/>
+      <c r="F92" s="24"/>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A93" s="38">
+      <c r="A93" s="10">
         <v>41</v>
       </c>
-      <c r="B93" s="25" t="s">
+      <c r="B93" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C93" s="25" t="s">
+      <c r="C93" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="D93" s="35" t="s">
+      <c r="D93" s="13" t="s">
         <v>195</v>
       </c>
-      <c r="E93" s="35"/>
-      <c r="F93" s="43"/>
+      <c r="E93" s="13"/>
+      <c r="F93" s="16"/>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A94" s="38"/>
-      <c r="B94" s="25"/>
-      <c r="C94" s="25"/>
-      <c r="D94" s="36"/>
-      <c r="E94" s="36"/>
-      <c r="F94" s="44"/>
+      <c r="A94" s="10"/>
+      <c r="B94" s="11"/>
+      <c r="C94" s="11"/>
+      <c r="D94" s="14"/>
+      <c r="E94" s="14"/>
+      <c r="F94" s="24"/>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A95" s="38">
+      <c r="A95" s="10">
         <v>42</v>
       </c>
-      <c r="B95" s="25" t="s">
+      <c r="B95" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C95" s="25" t="s">
+      <c r="C95" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="D95" s="35" t="s">
+      <c r="D95" s="13" t="s">
         <v>195</v>
       </c>
-      <c r="E95" s="35"/>
-      <c r="F95" s="41"/>
+      <c r="E95" s="13"/>
+      <c r="F95" s="27"/>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A96" s="38"/>
-      <c r="B96" s="25"/>
-      <c r="C96" s="25"/>
-      <c r="D96" s="36"/>
-      <c r="E96" s="36"/>
-      <c r="F96" s="42"/>
+      <c r="A96" s="10"/>
+      <c r="B96" s="11"/>
+      <c r="C96" s="11"/>
+      <c r="D96" s="14"/>
+      <c r="E96" s="14"/>
+      <c r="F96" s="18"/>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A97" s="38">
+      <c r="A97" s="10">
         <v>43</v>
       </c>
-      <c r="B97" s="25" t="s">
+      <c r="B97" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C97" s="25" t="s">
+      <c r="C97" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="D97" s="35" t="s">
+      <c r="D97" s="13" t="s">
         <v>195</v>
       </c>
-      <c r="E97" s="35"/>
-      <c r="F97" s="39"/>
+      <c r="E97" s="13"/>
+      <c r="F97" s="25"/>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A98" s="38"/>
-      <c r="B98" s="25"/>
-      <c r="C98" s="25"/>
-      <c r="D98" s="36"/>
-      <c r="E98" s="36"/>
-      <c r="F98" s="40"/>
+      <c r="A98" s="10"/>
+      <c r="B98" s="11"/>
+      <c r="C98" s="11"/>
+      <c r="D98" s="14"/>
+      <c r="E98" s="14"/>
+      <c r="F98" s="26"/>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A99" s="38">
+      <c r="A99" s="10">
         <v>44</v>
       </c>
-      <c r="B99" s="25" t="s">
+      <c r="B99" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C99" s="25" t="s">
+      <c r="C99" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="D99" s="35" t="s">
+      <c r="D99" s="13" t="s">
         <v>195</v>
       </c>
-      <c r="E99" s="35"/>
-      <c r="F99" s="39"/>
+      <c r="E99" s="13"/>
+      <c r="F99" s="25"/>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A100" s="38"/>
-      <c r="B100" s="25"/>
-      <c r="C100" s="25"/>
-      <c r="D100" s="36"/>
-      <c r="E100" s="36"/>
-      <c r="F100" s="40"/>
+      <c r="A100" s="10"/>
+      <c r="B100" s="11"/>
+      <c r="C100" s="11"/>
+      <c r="D100" s="14"/>
+      <c r="E100" s="14"/>
+      <c r="F100" s="26"/>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A101" s="38">
+      <c r="A101" s="10">
         <v>45</v>
       </c>
-      <c r="B101" s="25" t="s">
+      <c r="B101" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C101" s="25" t="s">
+      <c r="C101" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="D101" s="35" t="s">
+      <c r="D101" s="13" t="s">
         <v>195</v>
       </c>
-      <c r="E101" s="35"/>
-      <c r="F101" s="39"/>
+      <c r="E101" s="13"/>
+      <c r="F101" s="25"/>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A102" s="38"/>
-      <c r="B102" s="25"/>
-      <c r="C102" s="25"/>
-      <c r="D102" s="36"/>
-      <c r="E102" s="36"/>
-      <c r="F102" s="40"/>
+      <c r="A102" s="10"/>
+      <c r="B102" s="11"/>
+      <c r="C102" s="11"/>
+      <c r="D102" s="14"/>
+      <c r="E102" s="14"/>
+      <c r="F102" s="26"/>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A103" s="38">
+      <c r="A103" s="10">
         <v>46</v>
       </c>
-      <c r="B103" s="25" t="s">
+      <c r="B103" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C103" s="25" t="s">
+      <c r="C103" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="D103" s="35" t="s">
+      <c r="D103" s="13" t="s">
         <v>195</v>
       </c>
-      <c r="E103" s="35"/>
-      <c r="F103" s="39"/>
+      <c r="E103" s="13"/>
+      <c r="F103" s="25"/>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A104" s="38"/>
-      <c r="B104" s="25"/>
-      <c r="C104" s="25"/>
-      <c r="D104" s="36"/>
-      <c r="E104" s="36"/>
-      <c r="F104" s="40"/>
+      <c r="A104" s="10"/>
+      <c r="B104" s="11"/>
+      <c r="C104" s="11"/>
+      <c r="D104" s="14"/>
+      <c r="E104" s="14"/>
+      <c r="F104" s="26"/>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A105" s="38">
+      <c r="A105" s="10">
         <v>47</v>
       </c>
-      <c r="B105" s="25" t="s">
+      <c r="B105" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C105" s="25" t="s">
+      <c r="C105" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="D105" s="35" t="s">
+      <c r="D105" s="13" t="s">
         <v>195</v>
       </c>
-      <c r="E105" s="35"/>
-      <c r="F105" s="39"/>
+      <c r="E105" s="13"/>
+      <c r="F105" s="25"/>
     </row>
     <row r="106" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="38"/>
-      <c r="B106" s="25"/>
-      <c r="C106" s="25"/>
-      <c r="D106" s="36"/>
-      <c r="E106" s="36"/>
-      <c r="F106" s="40"/>
+      <c r="A106" s="10"/>
+      <c r="B106" s="11"/>
+      <c r="C106" s="11"/>
+      <c r="D106" s="14"/>
+      <c r="E106" s="14"/>
+      <c r="F106" s="26"/>
     </row>
     <row r="107" spans="1:6" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="27" t="s">
+      <c r="A107" s="28" t="s">
         <v>253</v>
       </c>
-      <c r="B107" s="28"/>
-      <c r="C107" s="28"/>
-      <c r="D107" s="28"/>
-      <c r="E107" s="28"/>
-      <c r="F107" s="29"/>
+      <c r="B107" s="29"/>
+      <c r="C107" s="29"/>
+      <c r="D107" s="29"/>
+      <c r="E107" s="29"/>
+      <c r="F107" s="30"/>
     </row>
     <row r="108" spans="1:6" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="9" t="s">
+      <c r="A108" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B108" s="10" t="s">
+      <c r="B108" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C108" s="10" t="s">
+      <c r="C108" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D108" s="10" t="s">
+      <c r="D108" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E108" s="10" t="s">
+      <c r="E108" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F108" s="10" t="s">
+      <c r="F108" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A109" s="26">
+      <c r="A109" s="31">
         <v>96</v>
       </c>
-      <c r="B109" s="17" t="s">
+      <c r="B109" s="34" t="s">
         <v>110</v>
       </c>
-      <c r="C109" s="26" t="s">
+      <c r="C109" s="31" t="s">
         <v>155</v>
       </c>
-      <c r="D109" s="17" t="s">
+      <c r="D109" s="34" t="s">
         <v>164</v>
       </c>
-      <c r="E109" s="17" t="s">
+      <c r="E109" s="34" t="s">
         <v>163</v>
       </c>
-      <c r="F109" s="17" t="s">
+      <c r="F109" s="34" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A110" s="30"/>
-      <c r="B110" s="24"/>
-      <c r="C110" s="30"/>
-      <c r="D110" s="24"/>
-      <c r="E110" s="24"/>
-      <c r="F110" s="24"/>
+      <c r="A110" s="32"/>
+      <c r="B110" s="35"/>
+      <c r="C110" s="32"/>
+      <c r="D110" s="35"/>
+      <c r="E110" s="35"/>
+      <c r="F110" s="35"/>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A111" s="30"/>
-      <c r="B111" s="24"/>
-      <c r="C111" s="30"/>
-      <c r="D111" s="24"/>
-      <c r="E111" s="24"/>
-      <c r="F111" s="24"/>
+      <c r="A111" s="32"/>
+      <c r="B111" s="35"/>
+      <c r="C111" s="32"/>
+      <c r="D111" s="35"/>
+      <c r="E111" s="35"/>
+      <c r="F111" s="35"/>
     </row>
     <row r="112" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="22"/>
-      <c r="B112" s="18"/>
-      <c r="C112" s="22"/>
-      <c r="D112" s="18"/>
-      <c r="E112" s="18"/>
-      <c r="F112" s="18"/>
+      <c r="A112" s="33"/>
+      <c r="B112" s="36"/>
+      <c r="C112" s="33"/>
+      <c r="D112" s="36"/>
+      <c r="E112" s="36"/>
+      <c r="F112" s="36"/>
     </row>
     <row r="113" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="26">
+      <c r="A113" s="31">
         <v>97</v>
       </c>
-      <c r="B113" s="17" t="s">
+      <c r="B113" s="34" t="s">
         <v>110</v>
       </c>
-      <c r="C113" s="26" t="s">
+      <c r="C113" s="31" t="s">
         <v>111</v>
       </c>
-      <c r="D113" s="17" t="s">
+      <c r="D113" s="34" t="s">
         <v>190</v>
       </c>
-      <c r="E113" s="35" t="s">
+      <c r="E113" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="F113" s="17" t="s">
+      <c r="F113" s="34" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="114" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="22"/>
-      <c r="B114" s="18"/>
-      <c r="C114" s="22"/>
-      <c r="D114" s="18"/>
-      <c r="E114" s="36"/>
-      <c r="F114" s="18"/>
+      <c r="A114" s="33"/>
+      <c r="B114" s="36"/>
+      <c r="C114" s="33"/>
+      <c r="D114" s="36"/>
+      <c r="E114" s="14"/>
+      <c r="F114" s="36"/>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A115" s="26">
+      <c r="A115" s="31">
         <v>98</v>
       </c>
-      <c r="B115" s="17" t="s">
+      <c r="B115" s="34" t="s">
         <v>110</v>
       </c>
-      <c r="C115" s="26" t="s">
+      <c r="C115" s="31" t="s">
         <v>112</v>
       </c>
-      <c r="D115" s="26" t="s">
+      <c r="D115" s="31" t="s">
         <v>172</v>
       </c>
-      <c r="E115" s="26" t="s">
+      <c r="E115" s="31" t="s">
         <v>169</v>
       </c>
-      <c r="F115" s="17" t="s">
+      <c r="F115" s="34" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="116" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="22"/>
-      <c r="B116" s="18"/>
-      <c r="C116" s="22"/>
-      <c r="D116" s="22"/>
-      <c r="E116" s="22"/>
-      <c r="F116" s="18"/>
+      <c r="A116" s="33"/>
+      <c r="B116" s="36"/>
+      <c r="C116" s="33"/>
+      <c r="D116" s="33"/>
+      <c r="E116" s="33"/>
+      <c r="F116" s="36"/>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A117" s="26">
+      <c r="A117" s="31">
         <v>99</v>
       </c>
-      <c r="B117" s="17" t="s">
+      <c r="B117" s="34" t="s">
         <v>110</v>
       </c>
-      <c r="C117" s="26" t="s">
+      <c r="C117" s="31" t="s">
         <v>113</v>
       </c>
-      <c r="D117" s="26" t="s">
+      <c r="D117" s="31" t="s">
         <v>173</v>
       </c>
-      <c r="E117" s="26" t="s">
+      <c r="E117" s="31" t="s">
         <v>170</v>
       </c>
-      <c r="F117" s="17" t="s">
+      <c r="F117" s="34" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="118" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="22"/>
-      <c r="B118" s="18"/>
-      <c r="C118" s="22"/>
-      <c r="D118" s="22"/>
-      <c r="E118" s="22"/>
-      <c r="F118" s="18"/>
+      <c r="A118" s="33"/>
+      <c r="B118" s="36"/>
+      <c r="C118" s="33"/>
+      <c r="D118" s="33"/>
+      <c r="E118" s="33"/>
+      <c r="F118" s="36"/>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A119" s="26">
+      <c r="A119" s="31">
         <v>100</v>
       </c>
-      <c r="B119" s="17" t="s">
+      <c r="B119" s="34" t="s">
         <v>110</v>
       </c>
-      <c r="C119" s="26" t="s">
+      <c r="C119" s="31" t="s">
         <v>114</v>
       </c>
-      <c r="D119" s="26" t="s">
+      <c r="D119" s="31" t="s">
         <v>174</v>
       </c>
-      <c r="E119" s="26" t="s">
+      <c r="E119" s="31" t="s">
         <v>171</v>
       </c>
-      <c r="F119" s="17" t="s">
+      <c r="F119" s="34" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="120" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="22"/>
-      <c r="B120" s="18"/>
-      <c r="C120" s="22"/>
-      <c r="D120" s="22"/>
-      <c r="E120" s="22"/>
-      <c r="F120" s="18"/>
+      <c r="A120" s="33"/>
+      <c r="B120" s="36"/>
+      <c r="C120" s="33"/>
+      <c r="D120" s="33"/>
+      <c r="E120" s="33"/>
+      <c r="F120" s="36"/>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A121" s="26">
+      <c r="A121" s="31">
         <v>101</v>
       </c>
-      <c r="B121" s="17" t="s">
+      <c r="B121" s="34" t="s">
         <v>110</v>
       </c>
-      <c r="C121" s="26" t="s">
+      <c r="C121" s="31" t="s">
         <v>115</v>
       </c>
-      <c r="D121" s="26" t="s">
+      <c r="D121" s="31" t="s">
         <v>179</v>
       </c>
-      <c r="E121" s="26" t="s">
+      <c r="E121" s="31" t="s">
         <v>181</v>
       </c>
-      <c r="F121" s="17" t="s">
+      <c r="F121" s="34" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="122" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="22"/>
-      <c r="B122" s="18"/>
-      <c r="C122" s="22"/>
-      <c r="D122" s="22"/>
-      <c r="E122" s="22"/>
-      <c r="F122" s="18"/>
+      <c r="A122" s="33"/>
+      <c r="B122" s="36"/>
+      <c r="C122" s="33"/>
+      <c r="D122" s="33"/>
+      <c r="E122" s="33"/>
+      <c r="F122" s="36"/>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A123" s="26">
+      <c r="A123" s="31">
         <v>102</v>
       </c>
-      <c r="B123" s="17" t="s">
+      <c r="B123" s="34" t="s">
         <v>110</v>
       </c>
-      <c r="C123" s="26" t="s">
+      <c r="C123" s="31" t="s">
         <v>116</v>
       </c>
-      <c r="D123" s="26" t="s">
+      <c r="D123" s="31" t="s">
         <v>175</v>
       </c>
-      <c r="E123" s="19" t="s">
+      <c r="E123" s="37" t="s">
         <v>177</v>
       </c>
-      <c r="F123" s="17" t="s">
+      <c r="F123" s="34" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="124" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="22"/>
-      <c r="B124" s="18"/>
-      <c r="C124" s="22"/>
-      <c r="D124" s="22"/>
-      <c r="E124" s="20"/>
-      <c r="F124" s="18"/>
+      <c r="A124" s="33"/>
+      <c r="B124" s="36"/>
+      <c r="C124" s="33"/>
+      <c r="D124" s="33"/>
+      <c r="E124" s="38"/>
+      <c r="F124" s="36"/>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A125" s="26">
+      <c r="A125" s="31">
         <v>103</v>
       </c>
-      <c r="B125" s="17" t="s">
+      <c r="B125" s="34" t="s">
         <v>110</v>
       </c>
-      <c r="C125" s="26" t="s">
+      <c r="C125" s="31" t="s">
         <v>117</v>
       </c>
-      <c r="D125" s="26" t="s">
+      <c r="D125" s="31" t="s">
         <v>176</v>
       </c>
-      <c r="E125" s="19" t="s">
+      <c r="E125" s="37" t="s">
         <v>178</v>
       </c>
-      <c r="F125" s="17" t="s">
+      <c r="F125" s="34" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="126" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="22"/>
-      <c r="B126" s="18"/>
-      <c r="C126" s="22"/>
-      <c r="D126" s="22"/>
-      <c r="E126" s="20"/>
-      <c r="F126" s="18"/>
+      <c r="A126" s="33"/>
+      <c r="B126" s="36"/>
+      <c r="C126" s="33"/>
+      <c r="D126" s="33"/>
+      <c r="E126" s="38"/>
+      <c r="F126" s="36"/>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A127" s="26">
+      <c r="A127" s="31">
         <v>104</v>
       </c>
-      <c r="B127" s="17" t="s">
+      <c r="B127" s="34" t="s">
         <v>110</v>
       </c>
-      <c r="C127" s="26" t="s">
+      <c r="C127" s="31" t="s">
         <v>118</v>
       </c>
-      <c r="D127" s="26" t="s">
+      <c r="D127" s="31" t="s">
         <v>180</v>
       </c>
-      <c r="E127" s="19" t="s">
+      <c r="E127" s="37" t="s">
         <v>182</v>
       </c>
-      <c r="F127" s="17" t="s">
+      <c r="F127" s="34" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="128" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="22"/>
-      <c r="B128" s="18"/>
-      <c r="C128" s="22"/>
-      <c r="D128" s="22"/>
-      <c r="E128" s="20"/>
-      <c r="F128" s="18"/>
+      <c r="A128" s="33"/>
+      <c r="B128" s="36"/>
+      <c r="C128" s="33"/>
+      <c r="D128" s="33"/>
+      <c r="E128" s="38"/>
+      <c r="F128" s="36"/>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A129" s="26">
+      <c r="A129" s="31">
         <v>105</v>
       </c>
-      <c r="B129" s="17" t="s">
+      <c r="B129" s="34" t="s">
         <v>110</v>
       </c>
-      <c r="C129" s="26" t="s">
+      <c r="C129" s="31" t="s">
         <v>119</v>
       </c>
-      <c r="D129" s="26" t="s">
+      <c r="D129" s="31" t="s">
         <v>136</v>
       </c>
-      <c r="E129" s="19" t="s">
+      <c r="E129" s="37" t="s">
         <v>137</v>
       </c>
-      <c r="F129" s="17" t="s">
+      <c r="F129" s="34" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="130" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="22"/>
-      <c r="B130" s="18"/>
-      <c r="C130" s="22"/>
-      <c r="D130" s="22"/>
-      <c r="E130" s="18"/>
-      <c r="F130" s="18"/>
+      <c r="A130" s="33"/>
+      <c r="B130" s="36"/>
+      <c r="C130" s="33"/>
+      <c r="D130" s="33"/>
+      <c r="E130" s="36"/>
+      <c r="F130" s="36"/>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A131" s="26">
+      <c r="A131" s="31">
         <v>106</v>
       </c>
-      <c r="B131" s="17" t="s">
+      <c r="B131" s="34" t="s">
         <v>110</v>
       </c>
-      <c r="C131" s="17" t="s">
+      <c r="C131" s="34" t="s">
         <v>120</v>
       </c>
-      <c r="D131" s="17" t="s">
+      <c r="D131" s="34" t="s">
         <v>139</v>
       </c>
-      <c r="E131" s="19" t="s">
+      <c r="E131" s="37" t="s">
         <v>102</v>
       </c>
-      <c r="F131" s="17" t="s">
+      <c r="F131" s="34" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="132" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="22"/>
-      <c r="B132" s="18"/>
-      <c r="C132" s="18"/>
-      <c r="D132" s="18"/>
-      <c r="E132" s="18"/>
-      <c r="F132" s="18"/>
+      <c r="A132" s="33"/>
+      <c r="B132" s="36"/>
+      <c r="C132" s="36"/>
+      <c r="D132" s="36"/>
+      <c r="E132" s="36"/>
+      <c r="F132" s="36"/>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A133" s="26">
+      <c r="A133" s="31">
         <v>107</v>
       </c>
-      <c r="B133" s="17" t="s">
+      <c r="B133" s="34" t="s">
         <v>110</v>
       </c>
-      <c r="C133" s="17" t="s">
+      <c r="C133" s="34" t="s">
         <v>121</v>
       </c>
-      <c r="D133" s="17" t="s">
+      <c r="D133" s="34" t="s">
         <v>166</v>
       </c>
-      <c r="E133" s="17" t="s">
+      <c r="E133" s="34" t="s">
         <v>165</v>
       </c>
-      <c r="F133" s="17" t="s">
+      <c r="F133" s="34" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="134" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="22"/>
-      <c r="B134" s="18"/>
-      <c r="C134" s="18"/>
-      <c r="D134" s="18"/>
-      <c r="E134" s="18"/>
-      <c r="F134" s="18"/>
+      <c r="A134" s="33"/>
+      <c r="B134" s="36"/>
+      <c r="C134" s="36"/>
+      <c r="D134" s="36"/>
+      <c r="E134" s="36"/>
+      <c r="F134" s="36"/>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A135" s="26">
+      <c r="A135" s="31">
         <v>108</v>
       </c>
-      <c r="B135" s="17" t="s">
+      <c r="B135" s="34" t="s">
         <v>110</v>
       </c>
-      <c r="C135" s="17" t="s">
+      <c r="C135" s="34" t="s">
         <v>122</v>
       </c>
-      <c r="D135" s="17" t="s">
+      <c r="D135" s="34" t="s">
         <v>144</v>
       </c>
-      <c r="E135" s="17" t="s">
+      <c r="E135" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F135" s="17" t="s">
+      <c r="F135" s="34" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="136" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="22"/>
-      <c r="B136" s="18"/>
-      <c r="C136" s="18"/>
-      <c r="D136" s="18"/>
-      <c r="E136" s="18"/>
-      <c r="F136" s="18"/>
+      <c r="A136" s="33"/>
+      <c r="B136" s="36"/>
+      <c r="C136" s="36"/>
+      <c r="D136" s="36"/>
+      <c r="E136" s="36"/>
+      <c r="F136" s="36"/>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A137" s="26">
+      <c r="A137" s="31">
         <v>109</v>
       </c>
-      <c r="B137" s="17" t="s">
+      <c r="B137" s="34" t="s">
         <v>110</v>
       </c>
-      <c r="C137" s="17" t="s">
+      <c r="C137" s="34" t="s">
         <v>123</v>
       </c>
-      <c r="D137" s="17" t="s">
+      <c r="D137" s="34" t="s">
         <v>261</v>
       </c>
-      <c r="E137" s="17" t="s">
+      <c r="E137" s="34" t="s">
         <v>102</v>
       </c>
-      <c r="F137" s="34" t="s">
+      <c r="F137" s="39" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="138" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="22"/>
-      <c r="B138" s="18"/>
-      <c r="C138" s="18"/>
-      <c r="D138" s="18"/>
-      <c r="E138" s="18"/>
-      <c r="F138" s="18"/>
+      <c r="A138" s="33"/>
+      <c r="B138" s="36"/>
+      <c r="C138" s="36"/>
+      <c r="D138" s="36"/>
+      <c r="E138" s="36"/>
+      <c r="F138" s="36"/>
     </row>
     <row r="139" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A139" s="26">
+      <c r="A139" s="31">
         <v>110</v>
       </c>
-      <c r="B139" s="17" t="s">
+      <c r="B139" s="34" t="s">
         <v>110</v>
       </c>
-      <c r="C139" s="17" t="s">
+      <c r="C139" s="34" t="s">
         <v>124</v>
       </c>
-      <c r="D139" s="17" t="s">
+      <c r="D139" s="34" t="s">
         <v>186</v>
       </c>
-      <c r="E139" s="17" t="s">
+      <c r="E139" s="34" t="s">
         <v>102</v>
       </c>
-      <c r="F139" s="17" t="s">
+      <c r="F139" s="34" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="140" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="22"/>
-      <c r="B140" s="18"/>
-      <c r="C140" s="18"/>
-      <c r="D140" s="18"/>
-      <c r="E140" s="18"/>
-      <c r="F140" s="18"/>
+      <c r="A140" s="33"/>
+      <c r="B140" s="36"/>
+      <c r="C140" s="36"/>
+      <c r="D140" s="36"/>
+      <c r="E140" s="36"/>
+      <c r="F140" s="36"/>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A141" s="26">
+      <c r="A141" s="31">
         <v>111</v>
       </c>
-      <c r="B141" s="17" t="s">
+      <c r="B141" s="34" t="s">
         <v>110</v>
       </c>
-      <c r="C141" s="17" t="s">
+      <c r="C141" s="34" t="s">
         <v>125</v>
       </c>
-      <c r="D141" s="17" t="s">
+      <c r="D141" s="34" t="s">
         <v>187</v>
       </c>
-      <c r="E141" s="17" t="s">
+      <c r="E141" s="34" t="s">
         <v>102</v>
       </c>
-      <c r="F141" s="17" t="s">
+      <c r="F141" s="34" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="142" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="22"/>
-      <c r="B142" s="18"/>
-      <c r="C142" s="18"/>
-      <c r="D142" s="18"/>
-      <c r="E142" s="18"/>
-      <c r="F142" s="18"/>
+      <c r="A142" s="33"/>
+      <c r="B142" s="36"/>
+      <c r="C142" s="36"/>
+      <c r="D142" s="36"/>
+      <c r="E142" s="36"/>
+      <c r="F142" s="36"/>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A143" s="26">
+      <c r="A143" s="31">
         <v>112</v>
       </c>
-      <c r="B143" s="17" t="s">
+      <c r="B143" s="34" t="s">
         <v>110</v>
       </c>
-      <c r="C143" s="26" t="s">
+      <c r="C143" s="31" t="s">
         <v>126</v>
       </c>
-      <c r="D143" s="17" t="s">
+      <c r="D143" s="34" t="s">
         <v>188</v>
       </c>
-      <c r="E143" s="17" t="s">
+      <c r="E143" s="34" t="s">
         <v>102</v>
       </c>
-      <c r="F143" s="17" t="s">
+      <c r="F143" s="34" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="144" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="22"/>
-      <c r="B144" s="18"/>
-      <c r="C144" s="22"/>
-      <c r="D144" s="18"/>
-      <c r="E144" s="18"/>
-      <c r="F144" s="18"/>
+      <c r="A144" s="33"/>
+      <c r="B144" s="36"/>
+      <c r="C144" s="33"/>
+      <c r="D144" s="36"/>
+      <c r="E144" s="36"/>
+      <c r="F144" s="36"/>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A145" s="26">
+      <c r="A145" s="31">
         <v>113</v>
       </c>
-      <c r="B145" s="17" t="s">
+      <c r="B145" s="34" t="s">
         <v>110</v>
       </c>
-      <c r="C145" s="26" t="s">
+      <c r="C145" s="31" t="s">
         <v>127</v>
       </c>
-      <c r="D145" s="17" t="s">
+      <c r="D145" s="34" t="s">
         <v>189</v>
       </c>
-      <c r="E145" s="17" t="s">
+      <c r="E145" s="34" t="s">
         <v>102</v>
       </c>
-      <c r="F145" s="17" t="s">
+      <c r="F145" s="34" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="146" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="22"/>
-      <c r="B146" s="18"/>
-      <c r="C146" s="22"/>
-      <c r="D146" s="18"/>
-      <c r="E146" s="18"/>
-      <c r="F146" s="18"/>
+      <c r="A146" s="33"/>
+      <c r="B146" s="36"/>
+      <c r="C146" s="33"/>
+      <c r="D146" s="36"/>
+      <c r="E146" s="36"/>
+      <c r="F146" s="36"/>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A147" s="26">
+      <c r="A147" s="31">
         <v>114</v>
       </c>
-      <c r="B147" s="17" t="s">
+      <c r="B147" s="34" t="s">
         <v>110</v>
       </c>
-      <c r="C147" s="26" t="s">
+      <c r="C147" s="31" t="s">
         <v>128</v>
       </c>
-      <c r="D147" s="17" t="s">
+      <c r="D147" s="34" t="s">
         <v>191</v>
       </c>
-      <c r="E147" s="17" t="s">
+      <c r="E147" s="34" t="s">
         <v>102</v>
       </c>
-      <c r="F147" s="17" t="s">
+      <c r="F147" s="34" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="148" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="22"/>
-      <c r="B148" s="18"/>
-      <c r="C148" s="22"/>
-      <c r="D148" s="18"/>
-      <c r="E148" s="18"/>
-      <c r="F148" s="18"/>
+      <c r="A148" s="33"/>
+      <c r="B148" s="36"/>
+      <c r="C148" s="33"/>
+      <c r="D148" s="36"/>
+      <c r="E148" s="36"/>
+      <c r="F148" s="36"/>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A149" s="26">
+      <c r="A149" s="31">
         <v>115</v>
       </c>
-      <c r="B149" s="17" t="s">
+      <c r="B149" s="34" t="s">
         <v>110</v>
       </c>
-      <c r="C149" s="26" t="s">
+      <c r="C149" s="31" t="s">
         <v>129</v>
       </c>
-      <c r="D149" s="17" t="s">
+      <c r="D149" s="34" t="s">
         <v>192</v>
       </c>
-      <c r="E149" s="19" t="s">
+      <c r="E149" s="37" t="s">
         <v>102</v>
       </c>
-      <c r="F149" s="17" t="s">
+      <c r="F149" s="34" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="150" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A150" s="22"/>
-      <c r="B150" s="18"/>
-      <c r="C150" s="22"/>
-      <c r="D150" s="18"/>
-      <c r="E150" s="18"/>
-      <c r="F150" s="18"/>
+      <c r="A150" s="33"/>
+      <c r="B150" s="36"/>
+      <c r="C150" s="33"/>
+      <c r="D150" s="36"/>
+      <c r="E150" s="36"/>
+      <c r="F150" s="36"/>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A151" s="26">
+      <c r="A151" s="31">
         <v>116</v>
       </c>
-      <c r="B151" s="17" t="s">
+      <c r="B151" s="34" t="s">
         <v>110</v>
       </c>
-      <c r="C151" s="26" t="s">
+      <c r="C151" s="31" t="s">
         <v>130</v>
       </c>
-      <c r="D151" s="17" t="s">
+      <c r="D151" s="34" t="s">
         <v>193</v>
       </c>
-      <c r="E151" s="17" t="s">
+      <c r="E151" s="34" t="s">
         <v>102</v>
       </c>
-      <c r="F151" s="17" t="s">
+      <c r="F151" s="34" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="152" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A152" s="22"/>
-      <c r="B152" s="18"/>
-      <c r="C152" s="22"/>
-      <c r="D152" s="18"/>
-      <c r="E152" s="18"/>
-      <c r="F152" s="18"/>
+      <c r="A152" s="33"/>
+      <c r="B152" s="36"/>
+      <c r="C152" s="33"/>
+      <c r="D152" s="36"/>
+      <c r="E152" s="36"/>
+      <c r="F152" s="36"/>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A153" s="26">
+      <c r="A153" s="31">
         <v>117</v>
       </c>
-      <c r="B153" s="17" t="s">
+      <c r="B153" s="34" t="s">
         <v>110</v>
       </c>
-      <c r="C153" s="26" t="s">
+      <c r="C153" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="D153" s="17" t="s">
+      <c r="D153" s="34" t="s">
         <v>270</v>
       </c>
-      <c r="E153" s="17" t="s">
+      <c r="E153" s="34" t="s">
         <v>271</v>
       </c>
-      <c r="F153" s="17" t="s">
+      <c r="F153" s="34" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="154" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A154" s="22"/>
-      <c r="B154" s="18"/>
-      <c r="C154" s="22"/>
-      <c r="D154" s="18"/>
-      <c r="E154" s="18"/>
-      <c r="F154" s="18"/>
+      <c r="A154" s="33"/>
+      <c r="B154" s="36"/>
+      <c r="C154" s="33"/>
+      <c r="D154" s="36"/>
+      <c r="E154" s="36"/>
+      <c r="F154" s="36"/>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A155" s="26">
+      <c r="A155" s="31">
         <v>118</v>
       </c>
-      <c r="B155" s="17" t="s">
+      <c r="B155" s="34" t="s">
         <v>110</v>
       </c>
-      <c r="C155" s="26" t="s">
+      <c r="C155" s="31" t="s">
         <v>132</v>
       </c>
-      <c r="D155" s="17" t="s">
+      <c r="D155" s="34" t="s">
         <v>262</v>
       </c>
-      <c r="E155" s="17"/>
-      <c r="F155" s="17"/>
+      <c r="E155" s="34"/>
+      <c r="F155" s="34"/>
     </row>
     <row r="156" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A156" s="22"/>
-      <c r="B156" s="18"/>
-      <c r="C156" s="22"/>
-      <c r="D156" s="18"/>
-      <c r="E156" s="18"/>
-      <c r="F156" s="18"/>
+      <c r="A156" s="33"/>
+      <c r="B156" s="36"/>
+      <c r="C156" s="33"/>
+      <c r="D156" s="36"/>
+      <c r="E156" s="36"/>
+      <c r="F156" s="36"/>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A157" s="26">
+      <c r="A157" s="31">
         <v>119</v>
       </c>
-      <c r="B157" s="17" t="s">
+      <c r="B157" s="34" t="s">
         <v>110</v>
       </c>
-      <c r="C157" s="26" t="s">
+      <c r="C157" s="31" t="s">
         <v>133</v>
       </c>
-      <c r="D157" s="17" t="s">
+      <c r="D157" s="34" t="s">
         <v>262</v>
       </c>
-      <c r="E157" s="17"/>
-      <c r="F157" s="17"/>
+      <c r="E157" s="34"/>
+      <c r="F157" s="34"/>
     </row>
     <row r="158" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A158" s="22"/>
-      <c r="B158" s="18"/>
-      <c r="C158" s="22"/>
-      <c r="D158" s="18"/>
-      <c r="E158" s="18"/>
-      <c r="F158" s="18"/>
+      <c r="A158" s="33"/>
+      <c r="B158" s="36"/>
+      <c r="C158" s="33"/>
+      <c r="D158" s="36"/>
+      <c r="E158" s="36"/>
+      <c r="F158" s="36"/>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A159" s="26">
+      <c r="A159" s="31">
         <v>120</v>
       </c>
-      <c r="B159" s="17" t="s">
+      <c r="B159" s="34" t="s">
         <v>110</v>
       </c>
-      <c r="C159" s="26" t="s">
+      <c r="C159" s="31" t="s">
         <v>134</v>
       </c>
-      <c r="D159" s="17" t="s">
+      <c r="D159" s="34" t="s">
         <v>262</v>
       </c>
-      <c r="E159" s="17"/>
-      <c r="F159" s="17"/>
+      <c r="E159" s="34"/>
+      <c r="F159" s="34"/>
     </row>
     <row r="160" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A160" s="30"/>
-      <c r="B160" s="24"/>
-      <c r="C160" s="30"/>
-      <c r="D160" s="18"/>
-      <c r="E160" s="24"/>
-      <c r="F160" s="24"/>
+      <c r="A160" s="32"/>
+      <c r="B160" s="35"/>
+      <c r="C160" s="32"/>
+      <c r="D160" s="36"/>
+      <c r="E160" s="35"/>
+      <c r="F160" s="35"/>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A161" s="31">
+      <c r="A161" s="40">
         <v>121</v>
       </c>
-      <c r="B161" s="25" t="s">
+      <c r="B161" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="C161" s="32" t="s">
+      <c r="C161" s="41" t="s">
         <v>135</v>
       </c>
-      <c r="D161" s="17" t="s">
+      <c r="D161" s="34" t="s">
         <v>262</v>
       </c>
-      <c r="E161" s="25"/>
-      <c r="F161" s="33"/>
+      <c r="E161" s="11"/>
+      <c r="F161" s="12"/>
     </row>
     <row r="162" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A162" s="31"/>
-      <c r="B162" s="25"/>
-      <c r="C162" s="32"/>
-      <c r="D162" s="18"/>
-      <c r="E162" s="25"/>
-      <c r="F162" s="33"/>
+      <c r="A162" s="40"/>
+      <c r="B162" s="11"/>
+      <c r="C162" s="41"/>
+      <c r="D162" s="36"/>
+      <c r="E162" s="11"/>
+      <c r="F162" s="12"/>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A163" s="21">
+      <c r="A163" s="42">
         <v>122</v>
       </c>
-      <c r="B163" s="19" t="s">
+      <c r="B163" s="37" t="s">
         <v>110</v>
       </c>
-      <c r="C163" s="21" t="s">
+      <c r="C163" s="42" t="s">
         <v>142</v>
       </c>
-      <c r="D163" s="17" t="s">
+      <c r="D163" s="34" t="s">
         <v>262</v>
       </c>
-      <c r="E163" s="19"/>
-      <c r="F163" s="19"/>
+      <c r="E163" s="37"/>
+      <c r="F163" s="37"/>
     </row>
     <row r="164" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A164" s="23"/>
-      <c r="B164" s="20"/>
-      <c r="C164" s="23"/>
-      <c r="D164" s="18"/>
-      <c r="E164" s="20"/>
-      <c r="F164" s="20"/>
+      <c r="A164" s="43"/>
+      <c r="B164" s="38"/>
+      <c r="C164" s="43"/>
+      <c r="D164" s="36"/>
+      <c r="E164" s="38"/>
+      <c r="F164" s="38"/>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A165" s="21">
+      <c r="A165" s="42">
         <v>123</v>
       </c>
-      <c r="B165" s="19" t="s">
+      <c r="B165" s="37" t="s">
         <v>110</v>
       </c>
-      <c r="C165" s="21" t="s">
+      <c r="C165" s="42" t="s">
         <v>263</v>
       </c>
-      <c r="D165" s="17" t="s">
+      <c r="D165" s="34" t="s">
         <v>262</v>
       </c>
-      <c r="E165" s="19"/>
-      <c r="F165" s="19"/>
+      <c r="E165" s="37"/>
+      <c r="F165" s="37"/>
     </row>
     <row r="166" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A166" s="23"/>
-      <c r="B166" s="20"/>
-      <c r="C166" s="23"/>
-      <c r="D166" s="18"/>
-      <c r="E166" s="20"/>
-      <c r="F166" s="20"/>
+      <c r="A166" s="43"/>
+      <c r="B166" s="38"/>
+      <c r="C166" s="43"/>
+      <c r="D166" s="36"/>
+      <c r="E166" s="38"/>
+      <c r="F166" s="38"/>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A167" s="21">
+      <c r="A167" s="42">
         <v>124</v>
       </c>
-      <c r="B167" s="19" t="s">
+      <c r="B167" s="37" t="s">
         <v>110</v>
       </c>
-      <c r="C167" s="21" t="s">
+      <c r="C167" s="42" t="s">
         <v>264</v>
       </c>
-      <c r="D167" s="17" t="s">
+      <c r="D167" s="34" t="s">
         <v>262</v>
       </c>
-      <c r="E167" s="19"/>
-      <c r="F167" s="19"/>
+      <c r="E167" s="37"/>
+      <c r="F167" s="37"/>
     </row>
     <row r="168" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A168" s="23"/>
-      <c r="B168" s="20"/>
-      <c r="C168" s="23"/>
-      <c r="D168" s="18"/>
-      <c r="E168" s="20"/>
-      <c r="F168" s="20"/>
+      <c r="A168" s="43"/>
+      <c r="B168" s="38"/>
+      <c r="C168" s="43"/>
+      <c r="D168" s="36"/>
+      <c r="E168" s="38"/>
+      <c r="F168" s="38"/>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A169" s="21">
+      <c r="A169" s="42">
         <v>125</v>
       </c>
-      <c r="B169" s="19" t="s">
+      <c r="B169" s="37" t="s">
         <v>110</v>
       </c>
-      <c r="C169" s="21" t="s">
+      <c r="C169" s="42" t="s">
         <v>265</v>
       </c>
-      <c r="D169" s="17" t="s">
+      <c r="D169" s="34" t="s">
         <v>262</v>
       </c>
-      <c r="E169" s="19"/>
-      <c r="F169" s="19"/>
+      <c r="E169" s="37"/>
+      <c r="F169" s="37"/>
     </row>
     <row r="170" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A170" s="23"/>
-      <c r="B170" s="20"/>
-      <c r="C170" s="23"/>
-      <c r="D170" s="18"/>
-      <c r="E170" s="20"/>
-      <c r="F170" s="20"/>
+      <c r="A170" s="43"/>
+      <c r="B170" s="38"/>
+      <c r="C170" s="43"/>
+      <c r="D170" s="36"/>
+      <c r="E170" s="38"/>
+      <c r="F170" s="38"/>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A171" s="21">
+      <c r="A171" s="42">
         <v>126</v>
       </c>
-      <c r="B171" s="19" t="s">
+      <c r="B171" s="37" t="s">
         <v>110</v>
       </c>
-      <c r="C171" s="21" t="s">
+      <c r="C171" s="42" t="s">
         <v>266</v>
       </c>
-      <c r="D171" s="17" t="s">
+      <c r="D171" s="34" t="s">
         <v>262</v>
       </c>
-      <c r="E171" s="19"/>
-      <c r="F171" s="19"/>
+      <c r="E171" s="37"/>
+      <c r="F171" s="37"/>
     </row>
     <row r="172" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A172" s="23"/>
-      <c r="B172" s="20"/>
-      <c r="C172" s="23"/>
-      <c r="D172" s="18"/>
-      <c r="E172" s="20"/>
-      <c r="F172" s="20"/>
+      <c r="A172" s="43"/>
+      <c r="B172" s="38"/>
+      <c r="C172" s="43"/>
+      <c r="D172" s="36"/>
+      <c r="E172" s="38"/>
+      <c r="F172" s="38"/>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A173" s="21">
+      <c r="A173" s="42">
         <v>127</v>
       </c>
-      <c r="B173" s="19" t="s">
+      <c r="B173" s="37" t="s">
         <v>110</v>
       </c>
-      <c r="C173" s="21" t="s">
+      <c r="C173" s="42" t="s">
         <v>267</v>
       </c>
-      <c r="D173" s="17" t="s">
+      <c r="D173" s="34" t="s">
         <v>262</v>
       </c>
-      <c r="E173" s="19"/>
-      <c r="F173" s="19"/>
+      <c r="E173" s="37"/>
+      <c r="F173" s="37"/>
     </row>
     <row r="174" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A174" s="22"/>
-      <c r="B174" s="18"/>
-      <c r="C174" s="22"/>
-      <c r="D174" s="18"/>
-      <c r="E174" s="18"/>
-      <c r="F174" s="18"/>
+      <c r="A174" s="33"/>
+      <c r="B174" s="36"/>
+      <c r="C174" s="33"/>
+      <c r="D174" s="36"/>
+      <c r="E174" s="36"/>
+      <c r="F174" s="36"/>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A175" s="11" t="s">
+      <c r="A175" s="45" t="s">
         <v>255</v>
       </c>
-      <c r="B175" s="12"/>
-      <c r="C175" s="12"/>
-      <c r="D175" s="12"/>
-      <c r="E175" s="12"/>
-      <c r="F175" s="13"/>
+      <c r="B175" s="46"/>
+      <c r="C175" s="46"/>
+      <c r="D175" s="46"/>
+      <c r="E175" s="46"/>
+      <c r="F175" s="47"/>
     </row>
     <row r="176" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A176" s="14"/>
-      <c r="B176" s="15"/>
-      <c r="C176" s="15"/>
-      <c r="D176" s="15"/>
-      <c r="E176" s="15"/>
-      <c r="F176" s="16"/>
+      <c r="A176" s="48"/>
+      <c r="B176" s="44"/>
+      <c r="C176" s="44"/>
+      <c r="D176" s="44"/>
+      <c r="E176" s="44"/>
+      <c r="F176" s="49"/>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A177" s="4" t="s">
+      <c r="A177" s="50" t="s">
         <v>197</v>
       </c>
-      <c r="B177" s="5" t="s">
+      <c r="B177" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="C177" s="5" t="s">
+      <c r="C177" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="D177" s="5" t="s">
+      <c r="D177" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="E177" s="5" t="s">
+      <c r="E177" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="F177" s="5" t="s">
+      <c r="F177" s="51" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A178" s="4">
+      <c r="A178" s="50">
         <v>1010</v>
       </c>
-      <c r="B178" s="5" t="s">
+      <c r="B178" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="C178" s="5" t="s">
+      <c r="C178" s="4" t="s">
         <v>268</v>
       </c>
-      <c r="D178" s="5" t="s">
+      <c r="D178" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="E178" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="F178" s="5"/>
+      <c r="E178" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="F178" s="51"/>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A179" s="4">
+      <c r="A179" s="50">
         <v>1011</v>
       </c>
-      <c r="B179" s="5" t="s">
+      <c r="B179" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="C179" s="5"/>
-      <c r="D179" s="5" t="s">
+      <c r="C179" s="4"/>
+      <c r="D179" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="E179" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="F179" s="5"/>
+      <c r="E179" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="F179" s="51"/>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A180" s="4">
+      <c r="A180" s="50">
         <v>1012</v>
       </c>
-      <c r="B180" s="5" t="s">
+      <c r="B180" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="C180" s="5"/>
-      <c r="D180" s="5" t="s">
+      <c r="C180" s="4"/>
+      <c r="D180" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="E180" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="F180" s="5"/>
+      <c r="E180" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="F180" s="51"/>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A181" s="4">
+      <c r="A181" s="50">
         <v>1013</v>
       </c>
-      <c r="B181" s="5" t="s">
+      <c r="B181" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="C181" s="5"/>
-      <c r="D181" s="5" t="s">
+      <c r="C181" s="4"/>
+      <c r="D181" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="E181" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="F181" s="5"/>
+      <c r="E181" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="F181" s="51"/>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A182" s="4">
+      <c r="A182" s="50">
         <v>1014</v>
       </c>
-      <c r="B182" s="5" t="s">
+      <c r="B182" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="C182" s="5"/>
-      <c r="D182" s="5" t="s">
+      <c r="C182" s="4"/>
+      <c r="D182" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="E182" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="F182" s="5"/>
+      <c r="E182" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="F182" s="51"/>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A183" s="4">
+      <c r="A183" s="50">
         <v>1015</v>
       </c>
-      <c r="B183" s="5" t="s">
+      <c r="B183" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="C183" s="5"/>
-      <c r="D183" s="5" t="s">
+      <c r="C183" s="4"/>
+      <c r="D183" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="E183" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="F183" s="5"/>
+      <c r="E183" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="F183" s="51"/>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A184" s="4">
+      <c r="A184" s="50">
         <v>1016</v>
       </c>
-      <c r="B184" s="5" t="s">
+      <c r="B184" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="C184" s="5"/>
-      <c r="D184" s="5" t="s">
+      <c r="C184" s="4"/>
+      <c r="D184" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="E184" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="F184" s="5"/>
+      <c r="E184" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="F184" s="51"/>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A185" s="4">
+      <c r="A185" s="50">
         <v>1017</v>
       </c>
-      <c r="B185" s="5" t="s">
+      <c r="B185" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="C185" s="5"/>
-      <c r="D185" s="5" t="s">
+      <c r="C185" s="4"/>
+      <c r="D185" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="E185" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="F185" s="5"/>
+      <c r="E185" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="F185" s="51"/>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A186" s="4" t="s">
+      <c r="A186" s="50" t="s">
         <v>206</v>
       </c>
-      <c r="B186" s="5" t="s">
+      <c r="B186" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="C186" s="5"/>
-      <c r="D186" s="5" t="s">
+      <c r="C186" s="4"/>
+      <c r="D186" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="E186" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="F186" s="5"/>
+      <c r="E186" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="F186" s="51"/>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A187" s="4">
+      <c r="A187" s="50">
         <v>1091</v>
       </c>
-      <c r="B187" s="5" t="s">
+      <c r="B187" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="C187" s="5"/>
-      <c r="D187" s="5" t="s">
+      <c r="C187" s="4"/>
+      <c r="D187" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="E187" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="F187" s="5"/>
+      <c r="E187" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="F187" s="51"/>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A188" s="4">
+      <c r="A188" s="50">
         <v>1092</v>
       </c>
-      <c r="B188" s="5" t="s">
+      <c r="B188" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="C188" s="5"/>
-      <c r="D188" s="5" t="s">
+      <c r="C188" s="4"/>
+      <c r="D188" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="E188" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="F188" s="5"/>
+      <c r="E188" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="F188" s="51"/>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A189" s="4">
+      <c r="A189" s="50">
         <v>1093</v>
       </c>
-      <c r="B189" s="5" t="s">
+      <c r="B189" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="C189" s="5"/>
-      <c r="D189" s="5" t="s">
+      <c r="C189" s="4"/>
+      <c r="D189" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="E189" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="F189" s="5"/>
+      <c r="E189" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="F189" s="51"/>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A190" s="4">
+      <c r="A190" s="50">
         <v>1094</v>
       </c>
-      <c r="B190" s="5" t="s">
+      <c r="B190" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="C190" s="5"/>
-      <c r="D190" s="5" t="s">
+      <c r="C190" s="4"/>
+      <c r="D190" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="E190" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="F190" s="5"/>
+      <c r="E190" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="F190" s="51"/>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A191" s="4">
+      <c r="A191" s="50">
         <v>1095</v>
       </c>
-      <c r="B191" s="5" t="s">
+      <c r="B191" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="C191" s="5"/>
-      <c r="D191" s="5" t="s">
+      <c r="C191" s="4"/>
+      <c r="D191" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="E191" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="F191" s="5"/>
+      <c r="E191" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="F191" s="51"/>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A192" s="4">
+      <c r="A192" s="50">
         <v>1096</v>
       </c>
-      <c r="B192" s="5" t="s">
+      <c r="B192" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="C192" s="5"/>
-      <c r="D192" s="5" t="s">
+      <c r="C192" s="4"/>
+      <c r="D192" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="E192" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="F192" s="5"/>
+      <c r="E192" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="F192" s="51"/>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A193" s="4">
+      <c r="A193" s="50">
         <v>1097</v>
       </c>
-      <c r="B193" s="5" t="s">
+      <c r="B193" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="C193" s="5"/>
-      <c r="D193" s="5" t="s">
+      <c r="C193" s="4"/>
+      <c r="D193" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="E193" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="F193" s="5"/>
+      <c r="E193" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="F193" s="51"/>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A194" s="4">
+      <c r="A194" s="50">
         <v>1098</v>
       </c>
-      <c r="B194" s="5" t="s">
+      <c r="B194" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="C194" s="5"/>
-      <c r="D194" s="5" t="s">
+      <c r="C194" s="4"/>
+      <c r="D194" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="E194" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="F194" s="5"/>
+      <c r="E194" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="F194" s="51"/>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A195" s="4">
+      <c r="A195" s="50">
         <v>1099</v>
       </c>
-      <c r="B195" s="5" t="s">
+      <c r="B195" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="C195" s="5"/>
-      <c r="D195" s="5" t="s">
+      <c r="C195" s="4"/>
+      <c r="D195" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="E195" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="F195" s="5"/>
+      <c r="E195" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="F195" s="51"/>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A196" s="4" t="s">
+      <c r="A196" s="50" t="s">
         <v>207</v>
       </c>
-      <c r="B196" s="5" t="s">
+      <c r="B196" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="C196" s="5"/>
-      <c r="D196" s="5" t="s">
+      <c r="C196" s="4"/>
+      <c r="D196" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="E196" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="F196" s="5"/>
+      <c r="E196" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="F196" s="51"/>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A197" s="4" t="s">
+      <c r="A197" s="50" t="s">
         <v>208</v>
       </c>
-      <c r="B197" s="5" t="s">
+      <c r="B197" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="C197" s="5"/>
-      <c r="D197" s="5" t="s">
+      <c r="C197" s="4"/>
+      <c r="D197" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="E197" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="F197" s="5"/>
+      <c r="E197" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="F197" s="51"/>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A198" s="4">
+      <c r="A198" s="50">
         <v>1081</v>
       </c>
-      <c r="B198" s="5" t="s">
+      <c r="B198" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="C198" s="5"/>
-      <c r="D198" s="5" t="s">
+      <c r="C198" s="4"/>
+      <c r="D198" s="4" t="s">
         <v>256</v>
       </c>
-      <c r="E198" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="F198" s="5"/>
+      <c r="E198" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="F198" s="51"/>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A199" s="4">
+      <c r="A199" s="50">
         <v>1082</v>
       </c>
-      <c r="B199" s="5" t="s">
+      <c r="B199" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="C199" s="5"/>
-      <c r="D199" s="5" t="s">
+      <c r="C199" s="4"/>
+      <c r="D199" s="4" t="s">
         <v>256</v>
       </c>
-      <c r="E199" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="F199" s="5"/>
+      <c r="E199" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="F199" s="51"/>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A200" s="4">
+      <c r="A200" s="50">
         <v>1083</v>
       </c>
-      <c r="B200" s="5" t="s">
+      <c r="B200" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="C200" s="5"/>
-      <c r="D200" s="5" t="s">
+      <c r="C200" s="4"/>
+      <c r="D200" s="4" t="s">
         <v>256</v>
       </c>
-      <c r="E200" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="F200" s="5"/>
+      <c r="E200" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="F200" s="51"/>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A201" s="4">
+      <c r="A201" s="50">
         <v>1084</v>
       </c>
-      <c r="B201" s="5" t="s">
+      <c r="B201" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="C201" s="5"/>
-      <c r="D201" s="5" t="s">
+      <c r="C201" s="4"/>
+      <c r="D201" s="4" t="s">
         <v>256</v>
       </c>
-      <c r="E201" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="F201" s="5"/>
+      <c r="E201" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="F201" s="51"/>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A202" s="4">
+      <c r="A202" s="50">
         <v>1085</v>
       </c>
-      <c r="B202" s="5" t="s">
+      <c r="B202" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="C202" s="5"/>
-      <c r="D202" s="5" t="s">
+      <c r="C202" s="4"/>
+      <c r="D202" s="4" t="s">
         <v>256</v>
       </c>
-      <c r="E202" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="F202" s="5"/>
+      <c r="E202" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="F202" s="51"/>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A203" s="4">
+      <c r="A203" s="50">
         <v>1086</v>
       </c>
-      <c r="B203" s="5" t="s">
+      <c r="B203" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="C203" s="5"/>
-      <c r="D203" s="5" t="s">
+      <c r="C203" s="4"/>
+      <c r="D203" s="4" t="s">
         <v>256</v>
       </c>
-      <c r="E203" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="F203" s="5"/>
+      <c r="E203" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="F203" s="51"/>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A204" s="4">
+      <c r="A204" s="50">
         <v>1087</v>
       </c>
-      <c r="B204" s="5" t="s">
+      <c r="B204" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="C204" s="5"/>
-      <c r="D204" s="5" t="s">
+      <c r="C204" s="4"/>
+      <c r="D204" s="4" t="s">
         <v>256</v>
       </c>
-      <c r="E204" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="F204" s="5"/>
+      <c r="E204" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="F204" s="51"/>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A205" s="4">
+      <c r="A205" s="50">
         <v>1088</v>
       </c>
-      <c r="B205" s="5" t="s">
+      <c r="B205" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="C205" s="5"/>
-      <c r="D205" s="5" t="s">
+      <c r="C205" s="4"/>
+      <c r="D205" s="4" t="s">
         <v>256</v>
       </c>
-      <c r="E205" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="F205" s="5"/>
+      <c r="E205" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="F205" s="51"/>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A206" s="4">
+      <c r="A206" s="50">
         <v>1089</v>
       </c>
-      <c r="B206" s="5" t="s">
+      <c r="B206" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="C206" s="5"/>
-      <c r="D206" s="5" t="s">
+      <c r="C206" s="4"/>
+      <c r="D206" s="4" t="s">
         <v>256</v>
       </c>
-      <c r="E206" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="F206" s="5"/>
+      <c r="E206" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="F206" s="51"/>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A207" s="4" t="s">
+      <c r="A207" s="50" t="s">
         <v>209</v>
       </c>
-      <c r="B207" s="5" t="s">
+      <c r="B207" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="C207" s="5"/>
-      <c r="D207" s="5" t="s">
+      <c r="C207" s="4"/>
+      <c r="D207" s="4" t="s">
         <v>256</v>
       </c>
-      <c r="E207" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="F207" s="5"/>
+      <c r="E207" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="F207" s="51"/>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A208" s="4" t="s">
+      <c r="A208" s="50" t="s">
         <v>210</v>
       </c>
-      <c r="B208" s="5" t="s">
+      <c r="B208" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="C208" s="5"/>
-      <c r="D208" s="5" t="s">
+      <c r="C208" s="4"/>
+      <c r="D208" s="4" t="s">
         <v>256</v>
       </c>
-      <c r="E208" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="F208" s="5"/>
+      <c r="E208" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="F208" s="51"/>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A209" s="4" t="s">
+      <c r="A209" s="50" t="s">
         <v>214</v>
       </c>
-      <c r="B209" s="5" t="s">
+      <c r="B209" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="C209" s="5"/>
-      <c r="D209" s="5" t="s">
+      <c r="C209" s="4"/>
+      <c r="D209" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="E209" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="F209" s="5"/>
+      <c r="E209" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="F209" s="51"/>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A210" s="4" t="s">
+      <c r="A210" s="50" t="s">
         <v>215</v>
       </c>
-      <c r="B210" s="5" t="s">
+      <c r="B210" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="C210" s="5"/>
-      <c r="D210" s="5" t="s">
+      <c r="C210" s="4"/>
+      <c r="D210" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="E210" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="F210" s="5"/>
+      <c r="E210" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="F210" s="51"/>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A211" s="4" t="s">
+      <c r="A211" s="50" t="s">
         <v>216</v>
       </c>
-      <c r="B211" s="5" t="s">
+      <c r="B211" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="C211" s="5"/>
-      <c r="D211" s="5" t="s">
+      <c r="C211" s="4"/>
+      <c r="D211" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="E211" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="F211" s="5"/>
+      <c r="E211" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="F211" s="51"/>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A212" s="4" t="s">
+      <c r="A212" s="50" t="s">
         <v>217</v>
       </c>
-      <c r="B212" s="5" t="s">
+      <c r="B212" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="C212" s="5"/>
-      <c r="D212" s="5" t="s">
+      <c r="C212" s="4"/>
+      <c r="D212" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="E212" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="F212" s="5"/>
+      <c r="E212" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="F212" s="51"/>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A213" s="4" t="s">
+      <c r="A213" s="50" t="s">
         <v>218</v>
       </c>
-      <c r="B213" s="5" t="s">
+      <c r="B213" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="C213" s="5"/>
-      <c r="D213" s="5" t="s">
+      <c r="C213" s="4"/>
+      <c r="D213" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="E213" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="F213" s="5"/>
+      <c r="E213" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="F213" s="51"/>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A214" s="4" t="s">
+      <c r="A214" s="50" t="s">
         <v>219</v>
       </c>
-      <c r="B214" s="5" t="s">
+      <c r="B214" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="C214" s="5"/>
-      <c r="D214" s="5" t="s">
+      <c r="C214" s="4"/>
+      <c r="D214" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="E214" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="F214" s="5"/>
+      <c r="E214" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="F214" s="51"/>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A215" s="4" t="s">
+      <c r="A215" s="50" t="s">
         <v>220</v>
       </c>
-      <c r="B215" s="5" t="s">
+      <c r="B215" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="C215" s="5"/>
-      <c r="D215" s="5" t="s">
+      <c r="C215" s="4"/>
+      <c r="D215" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="E215" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="F215" s="5"/>
+      <c r="E215" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="F215" s="51"/>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A216" s="4" t="s">
+      <c r="A216" s="50" t="s">
         <v>221</v>
       </c>
-      <c r="B216" s="5" t="s">
+      <c r="B216" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="C216" s="5"/>
-      <c r="D216" s="5" t="s">
+      <c r="C216" s="4"/>
+      <c r="D216" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="E216" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="F216" s="5"/>
+      <c r="E216" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="F216" s="51"/>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A217" s="4" t="s">
+      <c r="A217" s="50" t="s">
         <v>222</v>
       </c>
-      <c r="B217" s="5" t="s">
+      <c r="B217" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="C217" s="5"/>
-      <c r="D217" s="5" t="s">
+      <c r="C217" s="4"/>
+      <c r="D217" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="E217" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="F217" s="5"/>
+      <c r="E217" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="F217" s="51"/>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A218" s="4" t="s">
+      <c r="A218" s="50" t="s">
         <v>223</v>
       </c>
-      <c r="B218" s="5" t="s">
+      <c r="B218" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="C218" s="5"/>
-      <c r="D218" s="5" t="s">
+      <c r="C218" s="4"/>
+      <c r="D218" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="E218" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="F218" s="5"/>
+      <c r="E218" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="F218" s="51"/>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A219" s="4" t="s">
+      <c r="A219" s="50" t="s">
         <v>224</v>
       </c>
-      <c r="B219" s="5" t="s">
+      <c r="B219" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="C219" s="5"/>
-      <c r="D219" s="5" t="s">
+      <c r="C219" s="4"/>
+      <c r="D219" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="E219" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="F219" s="5"/>
+      <c r="E219" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="F219" s="51"/>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A220" s="4" t="s">
+      <c r="A220" s="50" t="s">
         <v>225</v>
       </c>
-      <c r="B220" s="5" t="s">
+      <c r="B220" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="C220" s="5"/>
-      <c r="D220" s="5" t="s">
+      <c r="C220" s="4"/>
+      <c r="D220" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="E220" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="F220" s="5"/>
+      <c r="E220" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="F220" s="51"/>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A221" s="4" t="s">
+      <c r="A221" s="50" t="s">
         <v>226</v>
       </c>
-      <c r="B221" s="5" t="s">
+      <c r="B221" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="C221" s="5"/>
-      <c r="D221" s="5" t="s">
+      <c r="C221" s="4"/>
+      <c r="D221" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="E221" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="F221" s="5"/>
+      <c r="E221" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="F221" s="51"/>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A222" s="4" t="s">
+      <c r="A222" s="50" t="s">
         <v>227</v>
       </c>
-      <c r="B222" s="5" t="s">
+      <c r="B222" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="C222" s="5"/>
-      <c r="D222" s="5" t="s">
+      <c r="C222" s="4"/>
+      <c r="D222" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="E222" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="F222" s="5"/>
+      <c r="E222" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="F222" s="51"/>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A223" s="4" t="s">
+      <c r="A223" s="50" t="s">
         <v>228</v>
       </c>
-      <c r="B223" s="5" t="s">
+      <c r="B223" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="C223" s="5"/>
-      <c r="D223" s="5" t="s">
+      <c r="C223" s="4"/>
+      <c r="D223" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="E223" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="F223" s="5"/>
+      <c r="E223" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="F223" s="51"/>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A224" s="4" t="s">
+      <c r="A224" s="50" t="s">
         <v>229</v>
       </c>
-      <c r="B224" s="5" t="s">
+      <c r="B224" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="C224" s="5"/>
-      <c r="D224" s="5" t="s">
+      <c r="C224" s="4"/>
+      <c r="D224" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="E224" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="F224" s="5"/>
+      <c r="E224" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="F224" s="51"/>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A225" s="4" t="s">
+      <c r="A225" s="50" t="s">
         <v>230</v>
       </c>
-      <c r="B225" s="5" t="s">
+      <c r="B225" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="C225" s="5"/>
-      <c r="D225" s="5" t="s">
+      <c r="C225" s="4"/>
+      <c r="D225" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="E225" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="F225" s="5"/>
+      <c r="E225" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="F225" s="51"/>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A226" s="4" t="s">
+      <c r="A226" s="50" t="s">
         <v>231</v>
       </c>
-      <c r="B226" s="5" t="s">
+      <c r="B226" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="C226" s="5"/>
-      <c r="D226" s="5" t="s">
+      <c r="C226" s="4"/>
+      <c r="D226" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="E226" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="F226" s="5"/>
+      <c r="E226" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="F226" s="51"/>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A227" s="4" t="s">
+      <c r="A227" s="50" t="s">
         <v>232</v>
       </c>
-      <c r="B227" s="5" t="s">
+      <c r="B227" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="C227" s="5"/>
-      <c r="D227" s="5" t="s">
+      <c r="C227" s="4"/>
+      <c r="D227" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="E227" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="F227" s="5"/>
+      <c r="E227" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="F227" s="51"/>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A228" s="4" t="s">
+      <c r="A228" s="50" t="s">
         <v>233</v>
       </c>
-      <c r="B228" s="5" t="s">
+      <c r="B228" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="C228" s="5"/>
-      <c r="D228" s="5" t="s">
+      <c r="C228" s="4"/>
+      <c r="D228" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="E228" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="F228" s="5"/>
+      <c r="E228" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="F228" s="51"/>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A229" s="4" t="s">
+      <c r="A229" s="50" t="s">
         <v>234</v>
       </c>
-      <c r="B229" s="5" t="s">
+      <c r="B229" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="C229" s="5"/>
-      <c r="D229" s="5" t="s">
+      <c r="C229" s="4"/>
+      <c r="D229" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="E229" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="F229" s="5"/>
+      <c r="E229" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="F229" s="51"/>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A230" s="4" t="s">
+      <c r="A230" s="50" t="s">
         <v>235</v>
       </c>
-      <c r="B230" s="5" t="s">
+      <c r="B230" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="C230" s="5"/>
-      <c r="D230" s="5" t="s">
+      <c r="C230" s="4"/>
+      <c r="D230" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="E230" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="F230" s="5"/>
+      <c r="E230" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="F230" s="51"/>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A231" s="4" t="s">
+      <c r="A231" s="50" t="s">
         <v>237</v>
       </c>
-      <c r="B231" s="5" t="s">
+      <c r="B231" s="4" t="s">
         <v>248</v>
       </c>
-      <c r="C231" s="5"/>
-      <c r="D231" s="5" t="s">
+      <c r="C231" s="4"/>
+      <c r="D231" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="E231" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="F231" s="5"/>
+      <c r="E231" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="F231" s="51"/>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A232" s="4" t="s">
+      <c r="A232" s="50" t="s">
         <v>238</v>
       </c>
-      <c r="B232" s="5" t="s">
+      <c r="B232" s="4" t="s">
         <v>248</v>
       </c>
-      <c r="C232" s="5"/>
-      <c r="D232" s="5" t="s">
+      <c r="C232" s="4"/>
+      <c r="D232" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="E232" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="F232" s="5"/>
+      <c r="E232" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="F232" s="51"/>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A233" s="4" t="s">
+      <c r="A233" s="50" t="s">
         <v>239</v>
       </c>
-      <c r="B233" s="5" t="s">
+      <c r="B233" s="4" t="s">
         <v>248</v>
       </c>
-      <c r="C233" s="5"/>
-      <c r="D233" s="5" t="s">
+      <c r="C233" s="4"/>
+      <c r="D233" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="E233" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="F233" s="5"/>
+      <c r="E233" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="F233" s="51"/>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A234" s="4" t="s">
+      <c r="A234" s="50" t="s">
         <v>240</v>
       </c>
-      <c r="B234" s="5" t="s">
+      <c r="B234" s="4" t="s">
         <v>248</v>
       </c>
-      <c r="C234" s="5"/>
-      <c r="D234" s="5" t="s">
+      <c r="C234" s="4"/>
+      <c r="D234" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="E234" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="F234" s="5"/>
+      <c r="E234" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="F234" s="51"/>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A235" s="4" t="s">
+      <c r="A235" s="50" t="s">
         <v>241</v>
       </c>
-      <c r="B235" s="5" t="s">
+      <c r="B235" s="4" t="s">
         <v>248</v>
       </c>
-      <c r="C235" s="5"/>
-      <c r="D235" s="5" t="s">
+      <c r="C235" s="4"/>
+      <c r="D235" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="E235" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="F235" s="5"/>
+      <c r="E235" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="F235" s="51"/>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A236" s="4" t="s">
+      <c r="A236" s="50" t="s">
         <v>242</v>
       </c>
-      <c r="B236" s="5" t="s">
+      <c r="B236" s="4" t="s">
         <v>248</v>
       </c>
-      <c r="C236" s="5"/>
-      <c r="D236" s="5" t="s">
+      <c r="C236" s="4"/>
+      <c r="D236" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="E236" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="F236" s="5"/>
+      <c r="E236" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="F236" s="51"/>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A237" s="4" t="s">
+      <c r="A237" s="50" t="s">
         <v>243</v>
       </c>
-      <c r="B237" s="5" t="s">
+      <c r="B237" s="4" t="s">
         <v>248</v>
       </c>
-      <c r="C237" s="5"/>
-      <c r="D237" s="5" t="s">
+      <c r="C237" s="4"/>
+      <c r="D237" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="E237" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="F237" s="5"/>
+      <c r="E237" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="F237" s="51"/>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A238" s="4" t="s">
+      <c r="A238" s="50" t="s">
         <v>244</v>
       </c>
-      <c r="B238" s="5" t="s">
+      <c r="B238" s="4" t="s">
         <v>248</v>
       </c>
-      <c r="C238" s="5"/>
-      <c r="D238" s="5" t="s">
+      <c r="C238" s="4"/>
+      <c r="D238" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="E238" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="F238" s="5"/>
+      <c r="E238" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="F238" s="51"/>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A239" s="4" t="s">
+      <c r="A239" s="50" t="s">
         <v>245</v>
       </c>
-      <c r="B239" s="5" t="s">
+      <c r="B239" s="4" t="s">
         <v>248</v>
       </c>
-      <c r="C239" s="5"/>
-      <c r="D239" s="5" t="s">
+      <c r="C239" s="4"/>
+      <c r="D239" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="E239" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="F239" s="5"/>
+      <c r="E239" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="F239" s="51"/>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A240" s="4" t="s">
+      <c r="A240" s="50" t="s">
         <v>246</v>
       </c>
-      <c r="B240" s="5" t="s">
+      <c r="B240" s="4" t="s">
         <v>248</v>
       </c>
-      <c r="C240" s="5"/>
-      <c r="D240" s="5" t="s">
+      <c r="C240" s="4"/>
+      <c r="D240" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="E240" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="F240" s="5"/>
+      <c r="E240" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="F240" s="51"/>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A241" s="4" t="s">
+      <c r="A241" s="50" t="s">
         <v>247</v>
       </c>
-      <c r="B241" s="5" t="s">
+      <c r="B241" s="4" t="s">
         <v>248</v>
       </c>
-      <c r="C241" s="5"/>
-      <c r="D241" s="5" t="s">
+      <c r="C241" s="4"/>
+      <c r="D241" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="E241" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="F241" s="5"/>
+      <c r="E241" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="F241" s="51"/>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A242" s="4">
+      <c r="A242" s="50">
         <v>1171</v>
       </c>
-      <c r="B242" s="5" t="s">
+      <c r="B242" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="C242" s="5"/>
-      <c r="D242" s="5" t="s">
+      <c r="C242" s="4"/>
+      <c r="D242" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="E242" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="F242" s="5"/>
+      <c r="E242" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="F242" s="51"/>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A243" s="4">
+      <c r="A243" s="50">
         <v>1172</v>
       </c>
-      <c r="B243" s="5" t="s">
+      <c r="B243" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="C243" s="5"/>
-      <c r="D243" s="5" t="s">
+      <c r="C243" s="4"/>
+      <c r="D243" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="E243" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="F243" s="5"/>
+      <c r="E243" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="F243" s="51"/>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A244" s="4">
+      <c r="A244" s="50">
         <v>1173</v>
       </c>
-      <c r="B244" s="5" t="s">
+      <c r="B244" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="C244" s="5"/>
-      <c r="D244" s="5" t="s">
+      <c r="C244" s="4"/>
+      <c r="D244" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="E244" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="F244" s="5"/>
+      <c r="E244" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="F244" s="51"/>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A245" s="4">
+      <c r="A245" s="50">
         <v>1174</v>
       </c>
-      <c r="B245" s="5" t="s">
+      <c r="B245" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="C245" s="5"/>
-      <c r="D245" s="5" t="s">
+      <c r="C245" s="4"/>
+      <c r="D245" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="E245" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="F245" s="5"/>
+      <c r="E245" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="F245" s="51"/>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A246" s="4">
+      <c r="A246" s="50">
         <v>1175</v>
       </c>
-      <c r="B246" s="5" t="s">
+      <c r="B246" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="C246" s="5"/>
-      <c r="D246" s="5" t="s">
+      <c r="C246" s="4"/>
+      <c r="D246" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="E246" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="F246" s="5"/>
+      <c r="E246" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="F246" s="51"/>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A247" s="4">
+      <c r="A247" s="50">
         <v>1176</v>
       </c>
-      <c r="B247" s="5" t="s">
+      <c r="B247" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="C247" s="5"/>
-      <c r="D247" s="5" t="s">
+      <c r="C247" s="4"/>
+      <c r="D247" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="E247" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="F247" s="5"/>
+      <c r="E247" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="F247" s="51"/>
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A248" s="4">
+      <c r="A248" s="50">
         <v>1177</v>
       </c>
-      <c r="B248" s="5" t="s">
+      <c r="B248" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="C248" s="5"/>
-      <c r="D248" s="5" t="s">
+      <c r="C248" s="4"/>
+      <c r="D248" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="E248" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="F248" s="5"/>
+      <c r="E248" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="F248" s="51"/>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A249" s="4">
+      <c r="A249" s="50">
         <v>1178</v>
       </c>
-      <c r="B249" s="5" t="s">
+      <c r="B249" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="C249" s="5"/>
-      <c r="D249" s="5" t="s">
+      <c r="C249" s="4"/>
+      <c r="D249" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="E249" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="F249" s="5"/>
+      <c r="E249" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="F249" s="51"/>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A250" s="4">
+      <c r="A250" s="50">
         <v>1179</v>
       </c>
-      <c r="B250" s="5" t="s">
+      <c r="B250" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="C250" s="5"/>
-      <c r="D250" s="5" t="s">
+      <c r="C250" s="4"/>
+      <c r="D250" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="E250" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="F250" s="5"/>
+      <c r="E250" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="F250" s="51"/>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A251" s="4" t="s">
+      <c r="A251" s="50" t="s">
         <v>249</v>
       </c>
-      <c r="B251" s="5" t="s">
+      <c r="B251" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="C251" s="5"/>
-      <c r="D251" s="5" t="s">
+      <c r="C251" s="4"/>
+      <c r="D251" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="E251" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="F251" s="5"/>
+      <c r="E251" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="F251" s="51"/>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A252" s="4" t="s">
+      <c r="A252" s="50" t="s">
         <v>250</v>
       </c>
-      <c r="B252" s="5" t="s">
+      <c r="B252" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="C252" s="5"/>
-      <c r="D252" s="5" t="s">
+      <c r="C252" s="4"/>
+      <c r="D252" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="E252" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="F252" s="5"/>
+      <c r="E252" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="F252" s="51"/>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A253" s="4">
+      <c r="A253" s="50">
         <v>1271</v>
       </c>
-      <c r="B253" s="5" t="s">
+      <c r="B253" s="4" t="s">
         <v>275</v>
       </c>
-      <c r="C253" s="5"/>
-      <c r="D253" s="5" t="s">
+      <c r="C253" s="4"/>
+      <c r="D253" s="4" t="s">
         <v>276</v>
       </c>
-      <c r="E253" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="F253" s="5"/>
+      <c r="E253" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="F253" s="51"/>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A254" s="4">
+      <c r="A254" s="50">
         <v>1272</v>
       </c>
-      <c r="B254" s="5" t="s">
+      <c r="B254" s="4" t="s">
         <v>275</v>
       </c>
-      <c r="C254" s="5"/>
-      <c r="D254" s="5" t="s">
+      <c r="C254" s="4"/>
+      <c r="D254" s="4" t="s">
         <v>276</v>
       </c>
-      <c r="E254" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="F254" s="5"/>
+      <c r="E254" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="F254" s="51"/>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A255" s="4">
+      <c r="A255" s="50">
         <v>1273</v>
       </c>
-      <c r="B255" s="5" t="s">
+      <c r="B255" s="4" t="s">
         <v>275</v>
       </c>
-      <c r="C255" s="5"/>
-      <c r="D255" s="5" t="s">
+      <c r="C255" s="4"/>
+      <c r="D255" s="4" t="s">
         <v>276</v>
       </c>
-      <c r="E255" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="F255" s="5"/>
+      <c r="E255" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="F255" s="51"/>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A256" s="4">
+      <c r="A256" s="50">
         <v>1274</v>
       </c>
-      <c r="B256" s="5" t="s">
+      <c r="B256" s="4" t="s">
         <v>275</v>
       </c>
-      <c r="C256" s="5"/>
-      <c r="D256" s="5" t="s">
+      <c r="C256" s="4"/>
+      <c r="D256" s="4" t="s">
         <v>276</v>
       </c>
-      <c r="E256" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="F256" s="5"/>
+      <c r="E256" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="F256" s="51"/>
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A257" s="4">
+      <c r="A257" s="50">
         <v>1275</v>
       </c>
-      <c r="B257" s="5" t="s">
+      <c r="B257" s="4" t="s">
         <v>275</v>
       </c>
-      <c r="C257" s="5"/>
-      <c r="D257" s="5" t="s">
+      <c r="C257" s="4"/>
+      <c r="D257" s="4" t="s">
         <v>276</v>
       </c>
-      <c r="E257" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="F257" s="5"/>
+      <c r="E257" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="F257" s="51"/>
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A258" s="4">
+      <c r="A258" s="50">
         <v>1276</v>
       </c>
-      <c r="B258" s="5" t="s">
+      <c r="B258" s="4" t="s">
         <v>275</v>
       </c>
-      <c r="C258" s="5"/>
-      <c r="D258" s="5" t="s">
+      <c r="C258" s="4"/>
+      <c r="D258" s="4" t="s">
         <v>276</v>
       </c>
-      <c r="E258" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="F258" s="5"/>
+      <c r="E258" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="F258" s="51"/>
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A259" s="4">
+      <c r="A259" s="50">
         <v>1277</v>
       </c>
-      <c r="B259" s="5" t="s">
+      <c r="B259" s="4" t="s">
         <v>275</v>
       </c>
-      <c r="C259" s="5"/>
-      <c r="D259" s="5" t="s">
+      <c r="C259" s="4"/>
+      <c r="D259" s="4" t="s">
         <v>276</v>
       </c>
-      <c r="E259" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="F259" s="5"/>
+      <c r="E259" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="F259" s="51"/>
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A260" s="4">
+      <c r="A260" s="50">
         <v>1278</v>
       </c>
-      <c r="B260" s="5" t="s">
+      <c r="B260" s="4" t="s">
         <v>275</v>
       </c>
-      <c r="C260" s="5"/>
-      <c r="D260" s="5" t="s">
+      <c r="C260" s="4"/>
+      <c r="D260" s="4" t="s">
         <v>276</v>
       </c>
-      <c r="E260" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="F260" s="5"/>
+      <c r="E260" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="F260" s="51"/>
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A261" s="4">
+      <c r="A261" s="50">
         <v>1279</v>
       </c>
-      <c r="B261" s="5" t="s">
+      <c r="B261" s="4" t="s">
         <v>275</v>
       </c>
-      <c r="C261" s="5"/>
-      <c r="D261" s="5" t="s">
+      <c r="C261" s="4"/>
+      <c r="D261" s="4" t="s">
         <v>276</v>
       </c>
-      <c r="E261" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="F261" s="5"/>
+      <c r="E261" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="F261" s="51"/>
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A262" s="4" t="s">
+      <c r="A262" s="50" t="s">
         <v>273</v>
       </c>
-      <c r="B262" s="5" t="s">
+      <c r="B262" s="4" t="s">
         <v>275</v>
       </c>
-      <c r="C262" s="5"/>
-      <c r="D262" s="5" t="s">
+      <c r="C262" s="4"/>
+      <c r="D262" s="4" t="s">
         <v>276</v>
       </c>
-      <c r="E262" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="F262" s="5"/>
-    </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A263" s="4" t="s">
+      <c r="E262" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="F262" s="51"/>
+    </row>
+    <row r="263" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A263" s="52" t="s">
         <v>274</v>
       </c>
-      <c r="B263" s="5" t="s">
+      <c r="B263" s="53" t="s">
         <v>275</v>
       </c>
-      <c r="C263" s="5"/>
-      <c r="D263" s="5" t="s">
+      <c r="C263" s="53"/>
+      <c r="D263" s="53" t="s">
         <v>276</v>
       </c>
-      <c r="E263" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="F263" s="5"/>
+      <c r="E263" s="53" t="s">
+        <v>213</v>
+      </c>
+      <c r="F263" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="481">
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="B13:B22"/>
-    <mergeCell ref="C13:C22"/>
-    <mergeCell ref="F13:F22"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="A13:A22"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="D45:D46"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="F51:F52"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="F47:F48"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="F49:F50"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="F53:F54"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="C57:C58"/>
-    <mergeCell ref="D57:D58"/>
-    <mergeCell ref="F57:F58"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="E57:E58"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="D59:D60"/>
-    <mergeCell ref="F59:F60"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="C61:C62"/>
-    <mergeCell ref="D61:D62"/>
-    <mergeCell ref="F61:F62"/>
-    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="A175:F176"/>
+    <mergeCell ref="D173:D174"/>
+    <mergeCell ref="E165:E166"/>
+    <mergeCell ref="E167:E168"/>
+    <mergeCell ref="E169:E170"/>
+    <mergeCell ref="E173:E174"/>
+    <mergeCell ref="F165:F166"/>
+    <mergeCell ref="F167:F168"/>
+    <mergeCell ref="F169:F170"/>
+    <mergeCell ref="F173:F174"/>
+    <mergeCell ref="A173:A174"/>
+    <mergeCell ref="B169:B170"/>
+    <mergeCell ref="B173:B174"/>
+    <mergeCell ref="C165:C166"/>
+    <mergeCell ref="C167:C168"/>
+    <mergeCell ref="C169:C170"/>
+    <mergeCell ref="C173:C174"/>
+    <mergeCell ref="A171:A172"/>
+    <mergeCell ref="B171:B172"/>
+    <mergeCell ref="C171:C172"/>
+    <mergeCell ref="D171:D172"/>
+    <mergeCell ref="E171:E172"/>
+    <mergeCell ref="F171:F172"/>
+    <mergeCell ref="A163:A164"/>
+    <mergeCell ref="B163:B164"/>
+    <mergeCell ref="C163:C164"/>
+    <mergeCell ref="D163:D164"/>
+    <mergeCell ref="E163:E164"/>
+    <mergeCell ref="F163:F164"/>
+    <mergeCell ref="A169:A170"/>
+    <mergeCell ref="D165:D166"/>
+    <mergeCell ref="D167:D168"/>
+    <mergeCell ref="D169:D170"/>
+    <mergeCell ref="A165:A166"/>
+    <mergeCell ref="B165:B166"/>
+    <mergeCell ref="A167:A168"/>
+    <mergeCell ref="B167:B168"/>
+    <mergeCell ref="E159:E160"/>
+    <mergeCell ref="E161:E162"/>
+    <mergeCell ref="E125:E126"/>
+    <mergeCell ref="D115:D116"/>
+    <mergeCell ref="D117:D118"/>
+    <mergeCell ref="D119:D120"/>
+    <mergeCell ref="D121:D122"/>
+    <mergeCell ref="E115:E116"/>
+    <mergeCell ref="E117:E118"/>
+    <mergeCell ref="E119:E120"/>
+    <mergeCell ref="E121:E122"/>
+    <mergeCell ref="E149:E150"/>
+    <mergeCell ref="A107:F107"/>
+    <mergeCell ref="E109:E112"/>
+    <mergeCell ref="A159:A160"/>
+    <mergeCell ref="B159:B160"/>
+    <mergeCell ref="C159:C160"/>
+    <mergeCell ref="D159:D160"/>
+    <mergeCell ref="F159:F160"/>
+    <mergeCell ref="A161:A162"/>
+    <mergeCell ref="B161:B162"/>
+    <mergeCell ref="C161:C162"/>
+    <mergeCell ref="D161:D162"/>
+    <mergeCell ref="F161:F162"/>
+    <mergeCell ref="A155:A156"/>
+    <mergeCell ref="B155:B156"/>
+    <mergeCell ref="C155:C156"/>
+    <mergeCell ref="D155:D156"/>
+    <mergeCell ref="D109:D112"/>
+    <mergeCell ref="E143:E144"/>
+    <mergeCell ref="A149:A150"/>
+    <mergeCell ref="B149:B150"/>
+    <mergeCell ref="C149:C150"/>
+    <mergeCell ref="D149:D150"/>
+    <mergeCell ref="F149:F150"/>
+    <mergeCell ref="F155:F156"/>
+    <mergeCell ref="A157:A158"/>
+    <mergeCell ref="B157:B158"/>
+    <mergeCell ref="C157:C158"/>
+    <mergeCell ref="D157:D158"/>
+    <mergeCell ref="F157:F158"/>
+    <mergeCell ref="A151:A152"/>
+    <mergeCell ref="B151:B152"/>
+    <mergeCell ref="C151:C152"/>
+    <mergeCell ref="D151:D152"/>
+    <mergeCell ref="F151:F152"/>
+    <mergeCell ref="A153:A154"/>
+    <mergeCell ref="B153:B154"/>
+    <mergeCell ref="C153:C154"/>
+    <mergeCell ref="D153:D154"/>
+    <mergeCell ref="F153:F154"/>
+    <mergeCell ref="E151:E152"/>
+    <mergeCell ref="E153:E154"/>
+    <mergeCell ref="E155:E156"/>
+    <mergeCell ref="E157:E158"/>
+    <mergeCell ref="A145:A146"/>
+    <mergeCell ref="B145:B146"/>
+    <mergeCell ref="C145:C146"/>
+    <mergeCell ref="D145:D146"/>
+    <mergeCell ref="F145:F146"/>
+    <mergeCell ref="A147:A148"/>
+    <mergeCell ref="B147:B148"/>
+    <mergeCell ref="C147:C148"/>
+    <mergeCell ref="D147:D148"/>
+    <mergeCell ref="F147:F148"/>
+    <mergeCell ref="E145:E146"/>
+    <mergeCell ref="E147:E148"/>
+    <mergeCell ref="A141:A142"/>
+    <mergeCell ref="B141:B142"/>
+    <mergeCell ref="C141:C142"/>
+    <mergeCell ref="D141:D142"/>
+    <mergeCell ref="F141:F142"/>
+    <mergeCell ref="A143:A144"/>
+    <mergeCell ref="B143:B144"/>
+    <mergeCell ref="C143:C144"/>
+    <mergeCell ref="D143:D144"/>
+    <mergeCell ref="F143:F144"/>
+    <mergeCell ref="E141:E142"/>
+    <mergeCell ref="A137:A138"/>
+    <mergeCell ref="B137:B138"/>
+    <mergeCell ref="C137:C138"/>
+    <mergeCell ref="D137:D138"/>
+    <mergeCell ref="F137:F138"/>
+    <mergeCell ref="A139:A140"/>
+    <mergeCell ref="B139:B140"/>
+    <mergeCell ref="C139:C140"/>
+    <mergeCell ref="D139:D140"/>
+    <mergeCell ref="F139:F140"/>
+    <mergeCell ref="E137:E138"/>
+    <mergeCell ref="E139:E140"/>
+    <mergeCell ref="A133:A134"/>
+    <mergeCell ref="B133:B134"/>
+    <mergeCell ref="C133:C134"/>
+    <mergeCell ref="D133:D134"/>
+    <mergeCell ref="F133:F134"/>
+    <mergeCell ref="A135:A136"/>
+    <mergeCell ref="B135:B136"/>
+    <mergeCell ref="C135:C136"/>
+    <mergeCell ref="D135:D136"/>
+    <mergeCell ref="F135:F136"/>
+    <mergeCell ref="E133:E134"/>
+    <mergeCell ref="E135:E136"/>
+    <mergeCell ref="A129:A130"/>
+    <mergeCell ref="B129:B130"/>
+    <mergeCell ref="C129:C130"/>
+    <mergeCell ref="D129:D130"/>
+    <mergeCell ref="F129:F130"/>
+    <mergeCell ref="A131:A132"/>
+    <mergeCell ref="B131:B132"/>
+    <mergeCell ref="C131:C132"/>
+    <mergeCell ref="D131:D132"/>
+    <mergeCell ref="F131:F132"/>
+    <mergeCell ref="E129:E130"/>
+    <mergeCell ref="E131:E132"/>
+    <mergeCell ref="A125:A126"/>
+    <mergeCell ref="B125:B126"/>
+    <mergeCell ref="C125:C126"/>
+    <mergeCell ref="D125:D126"/>
+    <mergeCell ref="F125:F126"/>
+    <mergeCell ref="A127:A128"/>
+    <mergeCell ref="B127:B128"/>
+    <mergeCell ref="C127:C128"/>
+    <mergeCell ref="D127:D128"/>
+    <mergeCell ref="F127:F128"/>
+    <mergeCell ref="E127:E128"/>
+    <mergeCell ref="A121:A122"/>
+    <mergeCell ref="B121:B122"/>
+    <mergeCell ref="C121:C122"/>
+    <mergeCell ref="F121:F122"/>
+    <mergeCell ref="A123:A124"/>
+    <mergeCell ref="B123:B124"/>
+    <mergeCell ref="C123:C124"/>
+    <mergeCell ref="D123:D124"/>
+    <mergeCell ref="F123:F124"/>
+    <mergeCell ref="E123:E124"/>
+    <mergeCell ref="A115:A116"/>
+    <mergeCell ref="B115:B116"/>
+    <mergeCell ref="C115:C116"/>
+    <mergeCell ref="F115:F116"/>
+    <mergeCell ref="A117:A118"/>
+    <mergeCell ref="B117:B118"/>
+    <mergeCell ref="C117:C118"/>
+    <mergeCell ref="F117:F118"/>
+    <mergeCell ref="A119:A120"/>
+    <mergeCell ref="B119:B120"/>
+    <mergeCell ref="C119:C120"/>
+    <mergeCell ref="F119:F120"/>
+    <mergeCell ref="A109:A112"/>
+    <mergeCell ref="B109:B112"/>
+    <mergeCell ref="C109:C112"/>
+    <mergeCell ref="F109:F112"/>
+    <mergeCell ref="A113:A114"/>
+    <mergeCell ref="B113:B114"/>
+    <mergeCell ref="C113:C114"/>
+    <mergeCell ref="D113:D114"/>
+    <mergeCell ref="F113:F114"/>
+    <mergeCell ref="E113:E114"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="E97:E98"/>
+    <mergeCell ref="E99:E100"/>
+    <mergeCell ref="E101:E102"/>
+    <mergeCell ref="E103:E104"/>
+    <mergeCell ref="E105:E106"/>
+    <mergeCell ref="E87:E88"/>
+    <mergeCell ref="E89:E90"/>
+    <mergeCell ref="E91:E92"/>
+    <mergeCell ref="E93:E94"/>
+    <mergeCell ref="E95:E96"/>
+    <mergeCell ref="E73:E74"/>
+    <mergeCell ref="E75:E76"/>
+    <mergeCell ref="E77:E78"/>
+    <mergeCell ref="E79:E80"/>
+    <mergeCell ref="E81:E82"/>
+    <mergeCell ref="E83:E84"/>
+    <mergeCell ref="E61:E62"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="A103:A104"/>
+    <mergeCell ref="B103:B104"/>
+    <mergeCell ref="C103:C104"/>
+    <mergeCell ref="D103:D104"/>
+    <mergeCell ref="F103:F104"/>
+    <mergeCell ref="A105:A106"/>
+    <mergeCell ref="B105:B106"/>
+    <mergeCell ref="C105:C106"/>
+    <mergeCell ref="D105:D106"/>
+    <mergeCell ref="F105:F106"/>
+    <mergeCell ref="F99:F100"/>
+    <mergeCell ref="A101:A102"/>
+    <mergeCell ref="B101:B102"/>
+    <mergeCell ref="C101:C102"/>
+    <mergeCell ref="D101:D102"/>
+    <mergeCell ref="F101:F102"/>
+    <mergeCell ref="A95:A96"/>
+    <mergeCell ref="B95:B96"/>
+    <mergeCell ref="C95:C96"/>
+    <mergeCell ref="D95:D96"/>
+    <mergeCell ref="F95:F96"/>
+    <mergeCell ref="A97:A98"/>
+    <mergeCell ref="B97:B98"/>
+    <mergeCell ref="C97:C98"/>
+    <mergeCell ref="D97:D98"/>
+    <mergeCell ref="F97:F98"/>
+    <mergeCell ref="A99:A100"/>
+    <mergeCell ref="B99:B100"/>
+    <mergeCell ref="C99:C100"/>
+    <mergeCell ref="D99:D100"/>
+    <mergeCell ref="F91:F92"/>
+    <mergeCell ref="A93:A94"/>
+    <mergeCell ref="B93:B94"/>
+    <mergeCell ref="C93:C94"/>
+    <mergeCell ref="D93:D94"/>
+    <mergeCell ref="F93:F94"/>
+    <mergeCell ref="A87:A88"/>
+    <mergeCell ref="B87:B88"/>
+    <mergeCell ref="C87:C88"/>
+    <mergeCell ref="F87:F88"/>
+    <mergeCell ref="A89:A90"/>
+    <mergeCell ref="B89:B90"/>
+    <mergeCell ref="C89:C90"/>
+    <mergeCell ref="D89:D90"/>
+    <mergeCell ref="F89:F90"/>
+    <mergeCell ref="A91:A92"/>
+    <mergeCell ref="B91:B92"/>
+    <mergeCell ref="C91:C92"/>
+    <mergeCell ref="D91:D92"/>
+    <mergeCell ref="F83:F84"/>
+    <mergeCell ref="A85:A86"/>
+    <mergeCell ref="B85:B86"/>
+    <mergeCell ref="C85:C86"/>
+    <mergeCell ref="D87:D88"/>
+    <mergeCell ref="F85:F86"/>
+    <mergeCell ref="A79:A80"/>
+    <mergeCell ref="B79:B80"/>
+    <mergeCell ref="C79:C80"/>
+    <mergeCell ref="D79:D80"/>
+    <mergeCell ref="F79:F80"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="B81:B82"/>
+    <mergeCell ref="C81:C82"/>
+    <mergeCell ref="D81:D82"/>
+    <mergeCell ref="F81:F82"/>
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="B83:B84"/>
+    <mergeCell ref="C83:C84"/>
+    <mergeCell ref="D83:D84"/>
+    <mergeCell ref="D85:D86"/>
+    <mergeCell ref="E85:E86"/>
+    <mergeCell ref="F75:F76"/>
+    <mergeCell ref="A77:A78"/>
+    <mergeCell ref="B77:B78"/>
+    <mergeCell ref="C77:C78"/>
+    <mergeCell ref="D77:D78"/>
+    <mergeCell ref="F77:F78"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="C71:C72"/>
+    <mergeCell ref="D71:D72"/>
+    <mergeCell ref="F71:F72"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="C73:C74"/>
+    <mergeCell ref="D73:D74"/>
+    <mergeCell ref="F73:F74"/>
+    <mergeCell ref="E71:E72"/>
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="C75:C76"/>
+    <mergeCell ref="D75:D76"/>
     <mergeCell ref="F67:F68"/>
     <mergeCell ref="A69:A70"/>
     <mergeCell ref="B69:B70"/>
@@ -5875,317 +6096,157 @@
     <mergeCell ref="B67:B68"/>
     <mergeCell ref="C67:C68"/>
     <mergeCell ref="D67:D68"/>
-    <mergeCell ref="F75:F76"/>
-    <mergeCell ref="A77:A78"/>
-    <mergeCell ref="B77:B78"/>
-    <mergeCell ref="C77:C78"/>
-    <mergeCell ref="D77:D78"/>
-    <mergeCell ref="F77:F78"/>
-    <mergeCell ref="A71:A72"/>
-    <mergeCell ref="B71:B72"/>
-    <mergeCell ref="C71:C72"/>
-    <mergeCell ref="D71:D72"/>
-    <mergeCell ref="F71:F72"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="C73:C74"/>
-    <mergeCell ref="D73:D74"/>
-    <mergeCell ref="F73:F74"/>
-    <mergeCell ref="E71:E72"/>
-    <mergeCell ref="A75:A76"/>
-    <mergeCell ref="B75:B76"/>
-    <mergeCell ref="C75:C76"/>
-    <mergeCell ref="D75:D76"/>
-    <mergeCell ref="F83:F84"/>
-    <mergeCell ref="A85:A86"/>
-    <mergeCell ref="B85:B86"/>
-    <mergeCell ref="C85:C86"/>
-    <mergeCell ref="D87:D88"/>
-    <mergeCell ref="F85:F86"/>
-    <mergeCell ref="A79:A80"/>
-    <mergeCell ref="B79:B80"/>
-    <mergeCell ref="C79:C80"/>
-    <mergeCell ref="D79:D80"/>
-    <mergeCell ref="F79:F80"/>
-    <mergeCell ref="A81:A82"/>
-    <mergeCell ref="B81:B82"/>
-    <mergeCell ref="C81:C82"/>
-    <mergeCell ref="D81:D82"/>
-    <mergeCell ref="F81:F82"/>
-    <mergeCell ref="A83:A84"/>
-    <mergeCell ref="B83:B84"/>
-    <mergeCell ref="C83:C84"/>
-    <mergeCell ref="D83:D84"/>
-    <mergeCell ref="D85:D86"/>
-    <mergeCell ref="E85:E86"/>
-    <mergeCell ref="F91:F92"/>
-    <mergeCell ref="A93:A94"/>
-    <mergeCell ref="B93:B94"/>
-    <mergeCell ref="C93:C94"/>
-    <mergeCell ref="D93:D94"/>
-    <mergeCell ref="F93:F94"/>
-    <mergeCell ref="A87:A88"/>
-    <mergeCell ref="B87:B88"/>
-    <mergeCell ref="C87:C88"/>
-    <mergeCell ref="F87:F88"/>
-    <mergeCell ref="A89:A90"/>
-    <mergeCell ref="B89:B90"/>
-    <mergeCell ref="C89:C90"/>
-    <mergeCell ref="D89:D90"/>
-    <mergeCell ref="F89:F90"/>
-    <mergeCell ref="A91:A92"/>
-    <mergeCell ref="B91:B92"/>
-    <mergeCell ref="C91:C92"/>
-    <mergeCell ref="D91:D92"/>
-    <mergeCell ref="F99:F100"/>
-    <mergeCell ref="A101:A102"/>
-    <mergeCell ref="B101:B102"/>
-    <mergeCell ref="C101:C102"/>
-    <mergeCell ref="D101:D102"/>
-    <mergeCell ref="F101:F102"/>
-    <mergeCell ref="A95:A96"/>
-    <mergeCell ref="B95:B96"/>
-    <mergeCell ref="C95:C96"/>
-    <mergeCell ref="D95:D96"/>
-    <mergeCell ref="F95:F96"/>
-    <mergeCell ref="A97:A98"/>
-    <mergeCell ref="B97:B98"/>
-    <mergeCell ref="C97:C98"/>
-    <mergeCell ref="D97:D98"/>
-    <mergeCell ref="F97:F98"/>
-    <mergeCell ref="A99:A100"/>
-    <mergeCell ref="B99:B100"/>
-    <mergeCell ref="C99:C100"/>
-    <mergeCell ref="D99:D100"/>
-    <mergeCell ref="A103:A104"/>
-    <mergeCell ref="B103:B104"/>
-    <mergeCell ref="C103:C104"/>
-    <mergeCell ref="D103:D104"/>
-    <mergeCell ref="F103:F104"/>
-    <mergeCell ref="A105:A106"/>
-    <mergeCell ref="B105:B106"/>
-    <mergeCell ref="C105:C106"/>
-    <mergeCell ref="D105:D106"/>
-    <mergeCell ref="F105:F106"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="F55:F56"/>
-    <mergeCell ref="E97:E98"/>
-    <mergeCell ref="E99:E100"/>
-    <mergeCell ref="E101:E102"/>
-    <mergeCell ref="E103:E104"/>
-    <mergeCell ref="E105:E106"/>
-    <mergeCell ref="E87:E88"/>
-    <mergeCell ref="E89:E90"/>
-    <mergeCell ref="E91:E92"/>
-    <mergeCell ref="E93:E94"/>
-    <mergeCell ref="E95:E96"/>
-    <mergeCell ref="E73:E74"/>
-    <mergeCell ref="E75:E76"/>
-    <mergeCell ref="E77:E78"/>
-    <mergeCell ref="E79:E80"/>
-    <mergeCell ref="E81:E82"/>
-    <mergeCell ref="E83:E84"/>
-    <mergeCell ref="E61:E62"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="A109:A112"/>
-    <mergeCell ref="B109:B112"/>
-    <mergeCell ref="C109:C112"/>
-    <mergeCell ref="F109:F112"/>
-    <mergeCell ref="A113:A114"/>
-    <mergeCell ref="B113:B114"/>
-    <mergeCell ref="C113:C114"/>
-    <mergeCell ref="D113:D114"/>
-    <mergeCell ref="F113:F114"/>
-    <mergeCell ref="E113:E114"/>
-    <mergeCell ref="A115:A116"/>
-    <mergeCell ref="B115:B116"/>
-    <mergeCell ref="C115:C116"/>
-    <mergeCell ref="F115:F116"/>
-    <mergeCell ref="A117:A118"/>
-    <mergeCell ref="B117:B118"/>
-    <mergeCell ref="C117:C118"/>
-    <mergeCell ref="F117:F118"/>
-    <mergeCell ref="A119:A120"/>
-    <mergeCell ref="B119:B120"/>
-    <mergeCell ref="C119:C120"/>
-    <mergeCell ref="F119:F120"/>
-    <mergeCell ref="A121:A122"/>
-    <mergeCell ref="B121:B122"/>
-    <mergeCell ref="C121:C122"/>
-    <mergeCell ref="F121:F122"/>
-    <mergeCell ref="A123:A124"/>
-    <mergeCell ref="B123:B124"/>
-    <mergeCell ref="C123:C124"/>
-    <mergeCell ref="D123:D124"/>
-    <mergeCell ref="F123:F124"/>
-    <mergeCell ref="E123:E124"/>
-    <mergeCell ref="A125:A126"/>
-    <mergeCell ref="B125:B126"/>
-    <mergeCell ref="C125:C126"/>
-    <mergeCell ref="D125:D126"/>
-    <mergeCell ref="F125:F126"/>
-    <mergeCell ref="A127:A128"/>
-    <mergeCell ref="B127:B128"/>
-    <mergeCell ref="C127:C128"/>
-    <mergeCell ref="D127:D128"/>
-    <mergeCell ref="F127:F128"/>
-    <mergeCell ref="E127:E128"/>
-    <mergeCell ref="A129:A130"/>
-    <mergeCell ref="B129:B130"/>
-    <mergeCell ref="C129:C130"/>
-    <mergeCell ref="D129:D130"/>
-    <mergeCell ref="F129:F130"/>
-    <mergeCell ref="A131:A132"/>
-    <mergeCell ref="B131:B132"/>
-    <mergeCell ref="C131:C132"/>
-    <mergeCell ref="D131:D132"/>
-    <mergeCell ref="F131:F132"/>
-    <mergeCell ref="E129:E130"/>
-    <mergeCell ref="E131:E132"/>
-    <mergeCell ref="A133:A134"/>
-    <mergeCell ref="B133:B134"/>
-    <mergeCell ref="C133:C134"/>
-    <mergeCell ref="D133:D134"/>
-    <mergeCell ref="F133:F134"/>
-    <mergeCell ref="A135:A136"/>
-    <mergeCell ref="B135:B136"/>
-    <mergeCell ref="C135:C136"/>
-    <mergeCell ref="D135:D136"/>
-    <mergeCell ref="F135:F136"/>
-    <mergeCell ref="E133:E134"/>
-    <mergeCell ref="E135:E136"/>
-    <mergeCell ref="A137:A138"/>
-    <mergeCell ref="B137:B138"/>
-    <mergeCell ref="C137:C138"/>
-    <mergeCell ref="D137:D138"/>
-    <mergeCell ref="F137:F138"/>
-    <mergeCell ref="A139:A140"/>
-    <mergeCell ref="B139:B140"/>
-    <mergeCell ref="C139:C140"/>
-    <mergeCell ref="D139:D140"/>
-    <mergeCell ref="F139:F140"/>
-    <mergeCell ref="E137:E138"/>
-    <mergeCell ref="E139:E140"/>
-    <mergeCell ref="A141:A142"/>
-    <mergeCell ref="B141:B142"/>
-    <mergeCell ref="C141:C142"/>
-    <mergeCell ref="D141:D142"/>
-    <mergeCell ref="F141:F142"/>
-    <mergeCell ref="A143:A144"/>
-    <mergeCell ref="B143:B144"/>
-    <mergeCell ref="C143:C144"/>
-    <mergeCell ref="D143:D144"/>
-    <mergeCell ref="F143:F144"/>
-    <mergeCell ref="E141:E142"/>
-    <mergeCell ref="A145:A146"/>
-    <mergeCell ref="B145:B146"/>
-    <mergeCell ref="C145:C146"/>
-    <mergeCell ref="D145:D146"/>
-    <mergeCell ref="F145:F146"/>
-    <mergeCell ref="A147:A148"/>
-    <mergeCell ref="B147:B148"/>
-    <mergeCell ref="C147:C148"/>
-    <mergeCell ref="D147:D148"/>
-    <mergeCell ref="F147:F148"/>
-    <mergeCell ref="E145:E146"/>
-    <mergeCell ref="E147:E148"/>
-    <mergeCell ref="A157:A158"/>
-    <mergeCell ref="B157:B158"/>
-    <mergeCell ref="C157:C158"/>
-    <mergeCell ref="D157:D158"/>
-    <mergeCell ref="F157:F158"/>
-    <mergeCell ref="A151:A152"/>
-    <mergeCell ref="B151:B152"/>
-    <mergeCell ref="C151:C152"/>
-    <mergeCell ref="D151:D152"/>
-    <mergeCell ref="F151:F152"/>
-    <mergeCell ref="A153:A154"/>
-    <mergeCell ref="B153:B154"/>
-    <mergeCell ref="C153:C154"/>
-    <mergeCell ref="D153:D154"/>
-    <mergeCell ref="F153:F154"/>
-    <mergeCell ref="E151:E152"/>
-    <mergeCell ref="E153:E154"/>
-    <mergeCell ref="E155:E156"/>
-    <mergeCell ref="E157:E158"/>
-    <mergeCell ref="A107:F107"/>
-    <mergeCell ref="E109:E112"/>
-    <mergeCell ref="A159:A160"/>
-    <mergeCell ref="B159:B160"/>
-    <mergeCell ref="C159:C160"/>
-    <mergeCell ref="D159:D160"/>
-    <mergeCell ref="F159:F160"/>
-    <mergeCell ref="A161:A162"/>
-    <mergeCell ref="B161:B162"/>
-    <mergeCell ref="C161:C162"/>
-    <mergeCell ref="D161:D162"/>
-    <mergeCell ref="F161:F162"/>
-    <mergeCell ref="A155:A156"/>
-    <mergeCell ref="B155:B156"/>
-    <mergeCell ref="C155:C156"/>
-    <mergeCell ref="D155:D156"/>
-    <mergeCell ref="D109:D112"/>
-    <mergeCell ref="E143:E144"/>
-    <mergeCell ref="A149:A150"/>
-    <mergeCell ref="B149:B150"/>
-    <mergeCell ref="C149:C150"/>
-    <mergeCell ref="D149:D150"/>
-    <mergeCell ref="F149:F150"/>
-    <mergeCell ref="F155:F156"/>
-    <mergeCell ref="E159:E160"/>
-    <mergeCell ref="E161:E162"/>
-    <mergeCell ref="E125:E126"/>
-    <mergeCell ref="D115:D116"/>
-    <mergeCell ref="D117:D118"/>
-    <mergeCell ref="D119:D120"/>
-    <mergeCell ref="D121:D122"/>
-    <mergeCell ref="E115:E116"/>
-    <mergeCell ref="E117:E118"/>
-    <mergeCell ref="E119:E120"/>
-    <mergeCell ref="E121:E122"/>
-    <mergeCell ref="E149:E150"/>
-    <mergeCell ref="A163:A164"/>
-    <mergeCell ref="B163:B164"/>
-    <mergeCell ref="C163:C164"/>
-    <mergeCell ref="D163:D164"/>
-    <mergeCell ref="E163:E164"/>
-    <mergeCell ref="F163:F164"/>
-    <mergeCell ref="A169:A170"/>
-    <mergeCell ref="D165:D166"/>
-    <mergeCell ref="D167:D168"/>
-    <mergeCell ref="D169:D170"/>
-    <mergeCell ref="A165:A166"/>
-    <mergeCell ref="B165:B166"/>
-    <mergeCell ref="A167:A168"/>
-    <mergeCell ref="B167:B168"/>
-    <mergeCell ref="A175:F176"/>
-    <mergeCell ref="D173:D174"/>
-    <mergeCell ref="E165:E166"/>
-    <mergeCell ref="E167:E168"/>
-    <mergeCell ref="E169:E170"/>
-    <mergeCell ref="E173:E174"/>
-    <mergeCell ref="F165:F166"/>
-    <mergeCell ref="F167:F168"/>
-    <mergeCell ref="F169:F170"/>
-    <mergeCell ref="F173:F174"/>
-    <mergeCell ref="A173:A174"/>
-    <mergeCell ref="B169:B170"/>
-    <mergeCell ref="B173:B174"/>
-    <mergeCell ref="C165:C166"/>
-    <mergeCell ref="C167:C168"/>
-    <mergeCell ref="C169:C170"/>
-    <mergeCell ref="C173:C174"/>
-    <mergeCell ref="A171:A172"/>
-    <mergeCell ref="B171:B172"/>
-    <mergeCell ref="C171:C172"/>
-    <mergeCell ref="D171:D172"/>
-    <mergeCell ref="E171:E172"/>
-    <mergeCell ref="F171:F172"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="D59:D60"/>
+    <mergeCell ref="F59:F60"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="C61:C62"/>
+    <mergeCell ref="D61:D62"/>
+    <mergeCell ref="F61:F62"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="F53:F54"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="D57:D58"/>
+    <mergeCell ref="F57:F58"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="B13:B22"/>
+    <mergeCell ref="C13:C22"/>
+    <mergeCell ref="F13:F22"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="A13:A22"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="E9:E10"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="20" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>